--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -99,90 +99,6 @@
   </si>
   <si>
     <t>yet</t>
-  </si>
-  <si>
-    <t>slide</t>
-  </si>
-  <si>
-    <t>assembly</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>routine</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>argument</t>
-  </si>
-  <si>
-    <t>cover</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>socket</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>delegate</t>
-  </si>
-  <si>
-    <t>legend</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>chart</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>stack</t>
@@ -299,6 +215,9 @@
     <t>manage</t>
   </si>
   <si>
+    <t>service</t>
+  </si>
+  <si>
     <t>basic</t>
   </si>
   <si>
@@ -312,6 +231,9 @@
   </si>
   <si>
     <t>glossary</t>
+  </si>
+  <si>
+    <t>chart</t>
   </si>
   <si>
     <t>clock</t>
@@ -429,6 +351,84 @@
   </si>
   <si>
     <t>wicket</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>routine</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>delegate</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
 </sst>
 </file>
@@ -1129,16 +1129,14 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1160,18 +1158,14 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1193,20 +1187,14 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1228,22 +1216,14 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1265,24 +1245,14 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1304,26 +1274,14 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1345,28 +1303,14 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -29749,209 +29693,6 @@
       <c r="Z994" s="2"/>
       <c r="AA994" s="2"/>
     </row>
-    <row r="995">
-      <c r="A995" s="2"/>
-      <c r="B995" s="2"/>
-      <c r="C995" s="2"/>
-      <c r="D995" s="2"/>
-      <c r="E995" s="2"/>
-      <c r="F995" s="2"/>
-      <c r="G995" s="2"/>
-      <c r="H995" s="2"/>
-      <c r="I995" s="2"/>
-      <c r="J995" s="2"/>
-      <c r="K995" s="2"/>
-      <c r="L995" s="2"/>
-      <c r="M995" s="2"/>
-      <c r="N995" s="2"/>
-      <c r="O995" s="2"/>
-      <c r="P995" s="2"/>
-      <c r="Q995" s="2"/>
-      <c r="R995" s="2"/>
-      <c r="S995" s="2"/>
-      <c r="T995" s="2"/>
-      <c r="U995" s="2"/>
-      <c r="V995" s="2"/>
-      <c r="W995" s="2"/>
-      <c r="X995" s="2"/>
-      <c r="Y995" s="2"/>
-      <c r="Z995" s="2"/>
-      <c r="AA995" s="2"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="2"/>
-      <c r="F996" s="2"/>
-      <c r="G996" s="2"/>
-      <c r="H996" s="2"/>
-      <c r="I996" s="2"/>
-      <c r="J996" s="2"/>
-      <c r="K996" s="2"/>
-      <c r="L996" s="2"/>
-      <c r="M996" s="2"/>
-      <c r="N996" s="2"/>
-      <c r="O996" s="2"/>
-      <c r="P996" s="2"/>
-      <c r="Q996" s="2"/>
-      <c r="R996" s="2"/>
-      <c r="S996" s="2"/>
-      <c r="T996" s="2"/>
-      <c r="U996" s="2"/>
-      <c r="V996" s="2"/>
-      <c r="W996" s="2"/>
-      <c r="X996" s="2"/>
-      <c r="Y996" s="2"/>
-      <c r="Z996" s="2"/>
-      <c r="AA996" s="2"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
-      <c r="G997" s="2"/>
-      <c r="H997" s="2"/>
-      <c r="I997" s="2"/>
-      <c r="J997" s="2"/>
-      <c r="K997" s="2"/>
-      <c r="L997" s="2"/>
-      <c r="M997" s="2"/>
-      <c r="N997" s="2"/>
-      <c r="O997" s="2"/>
-      <c r="P997" s="2"/>
-      <c r="Q997" s="2"/>
-      <c r="R997" s="2"/>
-      <c r="S997" s="2"/>
-      <c r="T997" s="2"/>
-      <c r="U997" s="2"/>
-      <c r="V997" s="2"/>
-      <c r="W997" s="2"/>
-      <c r="X997" s="2"/>
-      <c r="Y997" s="2"/>
-      <c r="Z997" s="2"/>
-      <c r="AA997" s="2"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
-      <c r="N998" s="2"/>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2"/>
-      <c r="V998" s="2"/>
-      <c r="W998" s="2"/>
-      <c r="X998" s="2"/>
-      <c r="Y998" s="2"/>
-      <c r="Z998" s="2"/>
-      <c r="AA998" s="2"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-      <c r="AA999" s="2"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-      <c r="AA1000" s="2"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="2"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-      <c r="Q1001" s="2"/>
-      <c r="R1001" s="2"/>
-      <c r="S1001" s="2"/>
-      <c r="T1001" s="2"/>
-      <c r="U1001" s="2"/>
-      <c r="V1001" s="2"/>
-      <c r="W1001" s="2"/>
-      <c r="X1001" s="2"/>
-      <c r="Y1001" s="2"/>
-      <c r="Z1001" s="2"/>
-      <c r="AA1001" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -29961,6 +29702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29978,7 +29720,7 @@
     </row>
     <row r="2">
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>4</v>
@@ -29989,7 +29731,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -29997,7 +29739,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -30005,7 +29747,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -30013,7 +29755,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -30021,7 +29763,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -30029,7 +29771,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -30037,7 +29779,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -30045,7 +29787,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -30053,7 +29795,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -30061,7 +29803,7 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -30069,7 +29811,7 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -30077,7 +29819,7 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -30085,7 +29827,7 @@
         <v>13.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -30093,7 +29835,7 @@
         <v>14.0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -30101,7 +29843,7 @@
         <v>15.0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -30109,7 +29851,7 @@
         <v>16.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -30117,7 +29859,7 @@
         <v>17.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -30125,7 +29867,7 @@
         <v>18.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -30133,7 +29875,7 @@
         <v>19.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -30141,7 +29883,7 @@
         <v>20.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -30149,7 +29891,7 @@
         <v>21.0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -30157,7 +29899,7 @@
         <v>22.0</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -30165,7 +29907,7 @@
         <v>23.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -30173,7 +29915,7 @@
         <v>24.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -30181,7 +29923,7 @@
         <v>25.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -30189,18 +29931,21 @@
         <v>26.0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="11" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToWidth="0" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -30222,10 +29967,10 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -30233,7 +29978,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -30241,7 +29986,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -30249,7 +29994,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -30257,7 +30002,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -30265,7 +30010,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -30273,7 +30018,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -30281,7 +30026,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -30289,7 +30034,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -30297,7 +30042,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -30305,7 +30050,7 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -30313,7 +30058,7 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -30321,7 +30066,7 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -30329,7 +30074,7 @@
         <v>13.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -30337,7 +30082,7 @@
         <v>14.0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -30345,7 +30090,7 @@
         <v>15.0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -30353,7 +30098,7 @@
         <v>16.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -30361,7 +30106,7 @@
         <v>17.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -30369,7 +30114,7 @@
         <v>18.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -30377,7 +30122,7 @@
         <v>19.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -30385,7 +30130,7 @@
         <v>20.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -30393,7 +30138,7 @@
         <v>21.0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -30401,7 +30146,7 @@
         <v>22.0</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -30409,7 +30154,7 @@
         <v>23.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -30417,7 +30162,7 @@
         <v>24.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -30425,7 +30170,7 @@
         <v>25.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -30433,15 +30178,15 @@
         <v>26.0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="11" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -30466,10 +30211,10 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -30477,7 +30222,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -30485,7 +30230,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -30493,7 +30238,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -30501,7 +30246,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -30509,7 +30254,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -30517,7 +30262,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -30533,7 +30278,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -30541,7 +30286,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -30549,7 +30294,7 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -30557,7 +30302,7 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -30565,7 +30310,7 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -30573,7 +30318,7 @@
         <v>13.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -30581,7 +30326,7 @@
         <v>14.0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -30589,7 +30334,7 @@
         <v>15.0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -30597,7 +30342,7 @@
         <v>16.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -30605,7 +30350,7 @@
         <v>17.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -30613,7 +30358,7 @@
         <v>18.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -30621,7 +30366,7 @@
         <v>19.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -30629,7 +30374,7 @@
         <v>20.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -30637,7 +30382,7 @@
         <v>21.0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -30645,7 +30390,7 @@
         <v>22.0</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
@@ -30653,7 +30398,7 @@
         <v>23.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
@@ -30661,7 +30406,7 @@
         <v>24.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -30669,7 +30414,7 @@
         <v>25.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -30677,15 +30422,15 @@
         <v>26.0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="11" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -30702,7 +30447,131 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.75"/>
+    <col customWidth="1" min="2" max="8" width="8.38"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="173">
   <si>
     <t>hub</t>
   </si>
@@ -431,6 +431,111 @@
   <si>
     <t>use</t>
   </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>nourish</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>vitamin</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>boil</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>aerodynamic</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>slip</t>
+  </si>
 </sst>
 </file>
 
@@ -468,7 +573,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="38">
     <border/>
     <border>
       <left style="thin">
@@ -614,16 +719,30 @@
       <right style="double">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <right style="dotted">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="dotted">
@@ -632,6 +751,9 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thick">
@@ -640,6 +762,135 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thick">
@@ -717,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -796,13 +1047,11 @@
     <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -816,9 +1065,51 @@
     <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="37" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -39580,6 +39871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39633,702 +39925,852 @@
         <v>29</v>
       </c>
       <c r="D3" s="25"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="25"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="T3" s="29"/>
+      <c r="P3" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" s="23">
+      <c r="B4" s="29">
         <v>2.0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="28"/>
-      <c r="T4" s="29"/>
+      <c r="P4" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" s="23">
+      <c r="B5" s="29">
         <v>3.0</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27" t="s">
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="T5" s="29"/>
+      <c r="P5" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" s="23">
+      <c r="B6" s="29">
         <v>4.0</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="T6" s="29"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="37"/>
     </row>
     <row r="7">
-      <c r="B7" s="23">
+      <c r="B7" s="29">
         <v>5.0</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="T7" s="29"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="37"/>
     </row>
     <row r="8">
-      <c r="B8" s="23">
+      <c r="B8" s="29">
         <v>6.0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="27" t="s">
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="T8" s="29"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="37"/>
     </row>
     <row r="9">
-      <c r="B9" s="23">
+      <c r="B9" s="29">
         <v>7.0</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27" t="s">
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="T9" s="29"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="37"/>
     </row>
     <row r="10">
-      <c r="B10" s="23">
+      <c r="B10" s="29">
         <v>8.0</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="T10" s="29"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="37"/>
     </row>
     <row r="11">
-      <c r="B11" s="23">
+      <c r="B11" s="29">
         <v>9.0</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="T11" s="29"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="37"/>
     </row>
     <row r="12">
-      <c r="B12" s="23">
+      <c r="B12" s="29">
         <v>10.0</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="28"/>
-      <c r="T12" s="29"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="37"/>
     </row>
     <row r="13">
-      <c r="B13" s="23">
+      <c r="B13" s="29">
         <v>11.0</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27" t="s">
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="T13" s="29"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
     </row>
     <row r="14">
-      <c r="B14" s="23">
+      <c r="B14" s="29">
         <v>12.0</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27" t="s">
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="T14" s="29"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="37"/>
     </row>
     <row r="15">
-      <c r="B15" s="23">
+      <c r="B15" s="29">
         <v>13.0</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27" t="s">
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="T15" s="29"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="37"/>
     </row>
     <row r="16">
-      <c r="B16" s="23">
+      <c r="B16" s="29">
         <v>14.0</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="28"/>
-      <c r="T16" s="29"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
     </row>
     <row r="17">
-      <c r="B17" s="23">
+      <c r="B17" s="29">
         <v>15.0</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27" t="s">
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="28"/>
-      <c r="T17" s="29"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="37"/>
     </row>
     <row r="18">
-      <c r="B18" s="23">
+      <c r="B18" s="29">
         <v>16.0</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27" t="s">
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="28"/>
-      <c r="T18" s="29"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="37"/>
     </row>
     <row r="19">
-      <c r="B19" s="23">
+      <c r="B19" s="29">
         <v>17.0</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27" t="s">
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="28"/>
-      <c r="T19" s="29"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="37"/>
     </row>
     <row r="20">
-      <c r="B20" s="23">
+      <c r="B20" s="29">
         <v>18.0</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27" t="s">
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="P20" s="28"/>
-      <c r="T20" s="29"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="37"/>
     </row>
     <row r="21">
-      <c r="B21" s="23">
+      <c r="B21" s="29">
         <v>19.0</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27" t="s">
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="28"/>
-      <c r="T21" s="29"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="37"/>
     </row>
     <row r="22">
-      <c r="B22" s="23">
+      <c r="B22" s="29">
         <v>20.0</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27" t="s">
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="P22" s="28"/>
-      <c r="T22" s="29"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="37"/>
     </row>
     <row r="23">
-      <c r="B23" s="23">
+      <c r="B23" s="29">
         <v>21.0</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27" t="s">
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="28"/>
-      <c r="T23" s="29"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="37"/>
     </row>
     <row r="24">
-      <c r="B24" s="23">
+      <c r="B24" s="29">
         <v>22.0</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27" t="s">
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="P24" s="28"/>
-      <c r="T24" s="29"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="37"/>
     </row>
     <row r="25">
-      <c r="B25" s="23">
+      <c r="B25" s="29">
         <v>23.0</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27" t="s">
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="T25" s="29"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="37"/>
     </row>
     <row r="26">
-      <c r="B26" s="23">
+      <c r="B26" s="29">
         <v>24.0</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27" t="s">
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="32"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="P26" s="28"/>
-      <c r="T26" s="29"/>
+      <c r="P26" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="T26" s="33" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27" s="23">
+      <c r="B27" s="29">
         <v>25.0</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27" t="s">
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="P27" s="28"/>
-      <c r="T27" s="29"/>
+      <c r="P27" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="T27" s="33" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" s="23">
+      <c r="B28" s="38">
         <v>26.0</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27" t="s">
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="P28" s="28"/>
-      <c r="T28" s="29"/>
+      <c r="P28" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="R28" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="S28" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="T28" s="42" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="35" t="s">
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="38"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="52"/>
     </row>
     <row r="30">
       <c r="B30" s="13"/>
@@ -43454,6 +43896,9 @@
       <c r="B1000" s="13"/>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="187">
   <si>
     <t>hub</t>
   </si>
@@ -481,6 +481,48 @@
   </si>
   <si>
     <t>ideal</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>tweet</t>
+  </si>
+  <si>
+    <t>waterfall</t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>haystack</t>
+  </si>
+  <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>genus</t>
   </si>
   <si>
     <t>ink</t>
@@ -40057,17 +40099,29 @@
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
+      <c r="L6" s="32" t="s">
+        <v>155</v>
+      </c>
       <c r="M6" s="32"/>
       <c r="N6" s="33"/>
       <c r="O6" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="37"/>
+      <c r="P6" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="29">
@@ -40086,7 +40140,9 @@
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="L7" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="M7" s="32"/>
       <c r="N7" s="33"/>
       <c r="O7" s="34" t="s">
@@ -40579,7 +40635,9 @@
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
+      <c r="L24" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="M24" s="32"/>
       <c r="N24" s="33"/>
       <c r="O24" s="34" t="s">
@@ -40608,17 +40666,29 @@
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="L25" s="32" t="s">
+        <v>163</v>
+      </c>
       <c r="M25" s="32"/>
       <c r="N25" s="33"/>
       <c r="O25" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="37"/>
+      <c r="P25" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="T25" s="33" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="29">
@@ -40638,7 +40708,7 @@
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="33"/>
@@ -40646,19 +40716,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="R26" s="32" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="T26" s="33" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27">
@@ -40679,7 +40749,7 @@
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="33"/>
@@ -40687,19 +40757,19 @@
         <v>109</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="T27" s="33" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28">
@@ -40720,7 +40790,7 @@
       <c r="J28" s="40"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
@@ -40728,19 +40798,19 @@
         <v>110</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="41" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="R28" s="41" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="S28" s="41" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="T28" s="42" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="203">
   <si>
     <t>hub</t>
   </si>
@@ -502,6 +502,54 @@
   </si>
   <si>
     <t>waterfall</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>collage</t>
+  </si>
+  <si>
+    <t>marble</t>
+  </si>
+  <si>
+    <t>cyber</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>structure</t>
   </si>
   <si>
     <t>metro</t>
@@ -40171,7 +40219,9 @@
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="L8" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="M8" s="32"/>
       <c r="N8" s="33"/>
       <c r="O8" s="34" t="s">
@@ -40200,7 +40250,9 @@
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
+      <c r="L9" s="32" t="s">
+        <v>163</v>
+      </c>
       <c r="M9" s="32"/>
       <c r="N9" s="33"/>
       <c r="O9" s="34" t="s">
@@ -40229,7 +40281,9 @@
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="L10" s="32" t="s">
+        <v>164</v>
+      </c>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
       <c r="O10" s="34" t="s">
@@ -40258,7 +40312,9 @@
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
+      <c r="L11" s="32" t="s">
+        <v>165</v>
+      </c>
       <c r="M11" s="32"/>
       <c r="N11" s="33"/>
       <c r="O11" s="34" t="s">
@@ -40287,7 +40343,9 @@
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="L12" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="M12" s="32"/>
       <c r="N12" s="33"/>
       <c r="O12" s="34" t="s">
@@ -40316,7 +40374,9 @@
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="L13" s="32" t="s">
+        <v>167</v>
+      </c>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
       <c r="O13" s="34" t="s">
@@ -40345,7 +40405,9 @@
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="L14" s="32" t="s">
+        <v>168</v>
+      </c>
       <c r="M14" s="32"/>
       <c r="N14" s="33"/>
       <c r="O14" s="34" t="s">
@@ -40374,7 +40436,9 @@
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+      <c r="L15" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="M15" s="32"/>
       <c r="N15" s="33"/>
       <c r="O15" s="34" t="s">
@@ -40403,7 +40467,9 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="L16" s="32" t="s">
+        <v>170</v>
+      </c>
       <c r="M16" s="32"/>
       <c r="N16" s="33"/>
       <c r="O16" s="34" t="s">
@@ -40432,7 +40498,9 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="L17" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="M17" s="32"/>
       <c r="N17" s="33"/>
       <c r="O17" s="34" t="s">
@@ -40461,7 +40529,9 @@
       </c>
       <c r="J18" s="31"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="L18" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="M18" s="32"/>
       <c r="N18" s="33"/>
       <c r="O18" s="34" t="s">
@@ -40490,7 +40560,9 @@
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="L19" s="32" t="s">
+        <v>173</v>
+      </c>
       <c r="M19" s="32"/>
       <c r="N19" s="33"/>
       <c r="O19" s="34" t="s">
@@ -40519,7 +40591,9 @@
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
+      <c r="L20" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="M20" s="32"/>
       <c r="N20" s="33"/>
       <c r="O20" s="34" t="s">
@@ -40548,7 +40622,9 @@
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
+      <c r="L21" s="32" t="s">
+        <v>175</v>
+      </c>
       <c r="M21" s="32"/>
       <c r="N21" s="33"/>
       <c r="O21" s="34" t="s">
@@ -40577,7 +40653,9 @@
       </c>
       <c r="J22" s="31"/>
       <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="L22" s="32" t="s">
+        <v>176</v>
+      </c>
       <c r="M22" s="32"/>
       <c r="N22" s="33"/>
       <c r="O22" s="34" t="s">
@@ -40606,7 +40684,9 @@
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="L23" s="32" t="s">
+        <v>177</v>
+      </c>
       <c r="M23" s="32"/>
       <c r="N23" s="33"/>
       <c r="O23" s="34" t="s">
@@ -40636,7 +40716,7 @@
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="33"/>
@@ -40667,7 +40747,7 @@
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="33"/>
@@ -40675,19 +40755,19 @@
         <v>107</v>
       </c>
       <c r="P25" s="31" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="R25" s="32" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="T25" s="33" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
@@ -40708,7 +40788,7 @@
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="33"/>
@@ -40716,19 +40796,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="R26" s="32" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="T26" s="33" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
@@ -40749,7 +40829,7 @@
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="33"/>
@@ -40757,19 +40837,19 @@
         <v>109</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="T27" s="33" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
@@ -40790,7 +40870,7 @@
       <c r="J28" s="40"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
@@ -40798,19 +40878,19 @@
         <v>110</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="41" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="R28" s="41" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="S28" s="41" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="T28" s="42" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
   <si>
     <t>hub</t>
   </si>
@@ -432,6 +432,9 @@
     <t>use</t>
   </si>
   <si>
+    <t>tube</t>
+  </si>
+  <si>
     <t>air</t>
   </si>
   <si>
@@ -448,6 +451,9 @@
   </si>
   <si>
     <t>manual</t>
+  </si>
+  <si>
+    <t>cap</t>
   </si>
   <si>
     <t>fire</t>
@@ -468,6 +474,9 @@
     <t>solid</t>
   </si>
   <si>
+    <t>channel</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
@@ -481,6 +490,9 @@
   </si>
   <si>
     <t>ideal</t>
+  </si>
+  <si>
+    <t>cloth</t>
   </si>
   <si>
     <t>river</t>
@@ -501,58 +513,115 @@
     <t>tweet</t>
   </si>
   <si>
+    <t>plate</t>
+  </si>
+  <si>
     <t>waterfall</t>
+  </si>
+  <si>
+    <t>pack</t>
   </si>
   <si>
     <t>stone</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>spark</t>
+  </si>
+  <si>
+    <t>dry</t>
   </si>
   <si>
     <t>nation</t>
   </si>
   <si>
+    <t>slab</t>
+  </si>
+  <si>
     <t>nuclear</t>
+  </si>
+  <si>
+    <t>pen</t>
   </si>
   <si>
     <t>industry</t>
   </si>
   <si>
+    <t>matter</t>
+  </si>
+  <si>
     <t>collage</t>
+  </si>
+  <si>
+    <t>epic</t>
   </si>
   <si>
     <t>marble</t>
   </si>
   <si>
+    <t>witness</t>
+  </si>
+  <si>
     <t>cyber</t>
+  </si>
+  <si>
+    <t>tongue</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>release</t>
+  </si>
+  <si>
     <t>century</t>
+  </si>
+  <si>
+    <t>bot</t>
   </si>
   <si>
     <t>character</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>civil</t>
+  </si>
+  <si>
+    <t>port</t>
   </si>
   <si>
     <t>pattern</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>fold</t>
   </si>
   <si>
     <t>thumbnail</t>
   </si>
   <si>
+    <t>step</t>
+  </si>
+  <si>
     <t>structure</t>
   </si>
   <si>
+    <t>wrap</t>
+  </si>
+  <si>
     <t>metro</t>
+  </si>
+  <si>
+    <t>mail</t>
   </si>
   <si>
     <t>flat</t>
@@ -573,6 +642,9 @@
     <t>genus</t>
   </si>
   <si>
+    <t>mix</t>
+  </si>
+  <si>
     <t>ink</t>
   </si>
   <si>
@@ -591,6 +663,9 @@
     <t>sphere</t>
   </si>
   <si>
+    <t>shuffle</t>
+  </si>
+  <si>
     <t>pad</t>
   </si>
   <si>
@@ -607,6 +682,9 @@
   </si>
   <si>
     <t>scene</t>
+  </si>
+  <si>
+    <t>aid</t>
   </si>
   <si>
     <t>trim</t>
@@ -40016,7 +40094,9 @@
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>138</v>
+      </c>
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
       <c r="I3" s="28" t="s">
@@ -40025,7 +40105,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="27"/>
@@ -40033,19 +40113,19 @@
         <v>86</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T3" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
@@ -40057,7 +40137,9 @@
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="F4" s="32" t="s">
+        <v>145</v>
+      </c>
       <c r="G4" s="32"/>
       <c r="H4" s="33"/>
       <c r="I4" s="34" t="s">
@@ -40066,7 +40148,7 @@
       <c r="J4" s="31"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M4" s="32"/>
       <c r="N4" s="33"/>
@@ -40074,19 +40156,19 @@
         <v>87</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -40098,7 +40180,9 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="F5" s="32" t="s">
+        <v>152</v>
+      </c>
       <c r="G5" s="32"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34" t="s">
@@ -40107,7 +40191,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="32"/>
       <c r="L5" s="32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M5" s="32"/>
       <c r="N5" s="33"/>
@@ -40115,19 +40199,19 @@
         <v>88</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="32" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -40139,7 +40223,9 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="F6" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="G6" s="32"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34" t="s">
@@ -40148,7 +40234,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="32"/>
       <c r="L6" s="32" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="33"/>
@@ -40156,19 +40242,19 @@
         <v>89</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="R6" s="32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -40180,7 +40266,9 @@
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>165</v>
+      </c>
       <c r="G7" s="32"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34" t="s">
@@ -40189,7 +40277,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M7" s="32"/>
       <c r="N7" s="33"/>
@@ -40211,7 +40299,9 @@
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>167</v>
+      </c>
       <c r="G8" s="32"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34" t="s">
@@ -40220,7 +40310,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="33"/>
@@ -40242,7 +40332,9 @@
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33"/>
       <c r="I9" s="34" t="s">
@@ -40251,7 +40343,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="33"/>
@@ -40273,7 +40365,9 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="F10" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33"/>
       <c r="I10" s="34" t="s">
@@ -40282,7 +40376,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
@@ -40304,7 +40398,9 @@
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="F11" s="32" t="s">
+        <v>173</v>
+      </c>
       <c r="G11" s="32"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34" t="s">
@@ -40313,7 +40409,7 @@
       <c r="J11" s="31"/>
       <c r="K11" s="32"/>
       <c r="L11" s="32" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="33"/>
@@ -40335,7 +40431,9 @@
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="F12" s="32" t="s">
+        <v>175</v>
+      </c>
       <c r="G12" s="32"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34" t="s">
@@ -40344,7 +40442,7 @@
       <c r="J12" s="31"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="33"/>
@@ -40366,7 +40464,9 @@
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="F13" s="32" t="s">
+        <v>177</v>
+      </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34" t="s">
@@ -40375,7 +40475,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="32"/>
       <c r="L13" s="32" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
@@ -40397,7 +40497,9 @@
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="F14" s="32" t="s">
+        <v>179</v>
+      </c>
       <c r="G14" s="32"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34" t="s">
@@ -40406,7 +40508,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="32"/>
       <c r="L14" s="32" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="33"/>
@@ -40428,7 +40530,9 @@
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="32" t="s">
+        <v>181</v>
+      </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34" t="s">
@@ -40437,7 +40541,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="33"/>
@@ -40459,7 +40563,9 @@
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="32" t="s">
+        <v>183</v>
+      </c>
       <c r="G16" s="32"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34" t="s">
@@ -40468,7 +40574,7 @@
       <c r="J16" s="31"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M16" s="32"/>
       <c r="N16" s="33"/>
@@ -40490,7 +40596,9 @@
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>185</v>
+      </c>
       <c r="G17" s="32"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34" t="s">
@@ -40499,7 +40607,7 @@
       <c r="J17" s="31"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="33"/>
@@ -40521,7 +40629,9 @@
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="32" t="s">
+        <v>187</v>
+      </c>
       <c r="G18" s="32"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34" t="s">
@@ -40530,7 +40640,7 @@
       <c r="J18" s="31"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="33"/>
@@ -40552,7 +40662,9 @@
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="32" t="s">
+        <v>189</v>
+      </c>
       <c r="G19" s="32"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34" t="s">
@@ -40561,7 +40673,7 @@
       <c r="J19" s="31"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="33"/>
@@ -40583,7 +40695,9 @@
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="32" t="s">
+        <v>191</v>
+      </c>
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34" t="s">
@@ -40592,7 +40706,7 @@
       <c r="J20" s="31"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="33"/>
@@ -40614,7 +40728,9 @@
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
+      <c r="F21" s="32" t="s">
+        <v>193</v>
+      </c>
       <c r="G21" s="32"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34" t="s">
@@ -40623,7 +40739,7 @@
       <c r="J21" s="31"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M21" s="32"/>
       <c r="N21" s="33"/>
@@ -40645,7 +40761,9 @@
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="F22" s="32" t="s">
+        <v>195</v>
+      </c>
       <c r="G22" s="32"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34" t="s">
@@ -40654,7 +40772,7 @@
       <c r="J22" s="31"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="33"/>
@@ -40676,7 +40794,9 @@
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="F23" s="32" t="s">
+        <v>197</v>
+      </c>
       <c r="G23" s="32"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34" t="s">
@@ -40685,7 +40805,7 @@
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="33"/>
@@ -40707,7 +40827,9 @@
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="32" t="s">
+        <v>199</v>
+      </c>
       <c r="G24" s="32"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34" t="s">
@@ -40716,7 +40838,7 @@
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="33"/>
@@ -40738,7 +40860,9 @@
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+      <c r="F25" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="G25" s="32"/>
       <c r="H25" s="33"/>
       <c r="I25" s="34" t="s">
@@ -40747,7 +40871,7 @@
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="33"/>
@@ -40755,19 +40879,19 @@
         <v>107</v>
       </c>
       <c r="P25" s="31" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="R25" s="32" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="T25" s="33" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
@@ -40779,7 +40903,9 @@
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="F26" s="32" t="s">
+        <v>208</v>
+      </c>
       <c r="G26" s="32"/>
       <c r="H26" s="33"/>
       <c r="I26" s="34" t="s">
@@ -40788,7 +40914,7 @@
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="33"/>
@@ -40796,19 +40922,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="R26" s="32" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="T26" s="33" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
@@ -40820,7 +40946,9 @@
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="F27" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="G27" s="32"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34" t="s">
@@ -40829,7 +40957,7 @@
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="33"/>
@@ -40837,19 +40965,19 @@
         <v>109</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="T27" s="33" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
@@ -40861,7 +40989,9 @@
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="F28" s="41" t="s">
+        <v>222</v>
+      </c>
       <c r="G28" s="41"/>
       <c r="H28" s="42"/>
       <c r="I28" s="43" t="s">
@@ -40870,7 +41000,7 @@
       <c r="J28" s="40"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
@@ -40878,19 +41008,19 @@
         <v>110</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="Q28" s="41" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="R28" s="41" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="S28" s="41" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="T28" s="42" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="239">
   <si>
     <t>hub</t>
   </si>
@@ -519,6 +519,21 @@
     <t>waterfall</t>
   </si>
   <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>compute</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
     <t>pack</t>
   </si>
   <si>
@@ -619,6 +634,21 @@
   </si>
   <si>
     <t>metro</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>mesh</t>
+  </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
+    <t>nest</t>
   </si>
   <si>
     <t>mail</t>
@@ -40284,11 +40314,21 @@
       <c r="O7" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37"/>
+      <c r="P7" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="29">
@@ -40300,7 +40340,7 @@
       <c r="D8" s="31"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="33"/>
@@ -40310,7 +40350,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="33"/>
@@ -40333,7 +40373,7 @@
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33"/>
@@ -40343,7 +40383,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="33"/>
@@ -40366,7 +40406,7 @@
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33"/>
@@ -40376,7 +40416,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
@@ -40399,7 +40439,7 @@
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="33"/>
@@ -40409,7 +40449,7 @@
       <c r="J11" s="31"/>
       <c r="K11" s="32"/>
       <c r="L11" s="32" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="33"/>
@@ -40432,7 +40472,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="33"/>
@@ -40442,7 +40482,7 @@
       <c r="J12" s="31"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="33"/>
@@ -40465,7 +40505,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
@@ -40475,7 +40515,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="32"/>
       <c r="L13" s="32" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
@@ -40498,7 +40538,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="33"/>
@@ -40508,7 +40548,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="32"/>
       <c r="L14" s="32" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="33"/>
@@ -40531,7 +40571,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33"/>
@@ -40541,7 +40581,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="33"/>
@@ -40564,7 +40604,7 @@
       <c r="D16" s="31"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="33"/>
@@ -40574,7 +40614,7 @@
       <c r="J16" s="31"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M16" s="32"/>
       <c r="N16" s="33"/>
@@ -40597,7 +40637,7 @@
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="33"/>
@@ -40607,7 +40647,7 @@
       <c r="J17" s="31"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="33"/>
@@ -40630,7 +40670,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="33"/>
@@ -40640,7 +40680,7 @@
       <c r="J18" s="31"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="33"/>
@@ -40663,7 +40703,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="33"/>
@@ -40673,7 +40713,7 @@
       <c r="J19" s="31"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="33"/>
@@ -40696,7 +40736,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
@@ -40706,7 +40746,7 @@
       <c r="J20" s="31"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="33"/>
@@ -40729,7 +40769,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="33"/>
@@ -40739,7 +40779,7 @@
       <c r="J21" s="31"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M21" s="32"/>
       <c r="N21" s="33"/>
@@ -40762,7 +40802,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G22" s="32"/>
       <c r="H22" s="33"/>
@@ -40772,7 +40812,7 @@
       <c r="J22" s="31"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="33"/>
@@ -40795,7 +40835,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="33"/>
@@ -40805,7 +40845,7 @@
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="33"/>
@@ -40828,7 +40868,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="33"/>
@@ -40838,18 +40878,28 @@
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="33"/>
       <c r="O24" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="37"/>
+      <c r="P24" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="T24" s="33" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="29">
@@ -40861,7 +40911,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="33"/>
@@ -40871,7 +40921,7 @@
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="33"/>
@@ -40879,19 +40929,19 @@
         <v>107</v>
       </c>
       <c r="P25" s="31" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="R25" s="32" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="T25" s="33" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
@@ -40904,7 +40954,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="33"/>
@@ -40914,7 +40964,7 @@
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="33"/>
@@ -40922,19 +40972,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="R26" s="32" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="T26" s="33" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27">
@@ -40947,7 +40997,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="33"/>
@@ -40957,7 +41007,7 @@
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="33"/>
@@ -40965,19 +41015,19 @@
         <v>109</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T27" s="33" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
@@ -40990,7 +41040,7 @@
       <c r="D28" s="40"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="42"/>
@@ -41000,7 +41050,7 @@
       <c r="J28" s="40"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
@@ -41008,19 +41058,19 @@
         <v>110</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="41" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="R28" s="41" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="S28" s="41" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="T28" s="42" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="263">
   <si>
     <t>hub</t>
   </si>
@@ -540,10 +540,28 @@
     <t>stone</t>
   </si>
   <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>exist</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
     <t>spark</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>dry</t>
@@ -552,10 +570,16 @@
     <t>nation</t>
   </si>
   <si>
+    <t>protein</t>
+  </si>
+  <si>
     <t>slab</t>
   </si>
   <si>
     <t>nuclear</t>
+  </si>
+  <si>
+    <t>cereal</t>
   </si>
   <si>
     <t>pen</t>
@@ -564,10 +588,16 @@
     <t>industry</t>
   </si>
   <si>
+    <t>sugar</t>
+  </si>
+  <si>
     <t>matter</t>
   </si>
   <si>
     <t>collage</t>
+  </si>
+  <si>
+    <t>chocolate</t>
   </si>
   <si>
     <t>epic</t>
@@ -576,10 +606,16 @@
     <t>marble</t>
   </si>
   <si>
+    <t>starch</t>
+  </si>
+  <si>
     <t>witness</t>
   </si>
   <si>
     <t>cyber</t>
+  </si>
+  <si>
+    <t>calcium</t>
   </si>
   <si>
     <t>tongue</t>
@@ -588,10 +624,16 @@
     <t>free</t>
   </si>
   <si>
+    <t>memory</t>
+  </si>
+  <si>
     <t>release</t>
   </si>
   <si>
     <t>century</t>
+  </si>
+  <si>
+    <t>finger</t>
   </si>
   <si>
     <t>bot</t>
@@ -600,10 +642,16 @@
     <t>character</t>
   </si>
   <si>
+    <t>foil</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
     <t>civil</t>
+  </si>
+  <si>
+    <t>collar</t>
   </si>
   <si>
     <t>port</t>
@@ -612,10 +660,16 @@
     <t>pattern</t>
   </si>
   <si>
+    <t>cron</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>algorithm</t>
   </si>
   <si>
     <t>fold</t>
@@ -624,10 +678,28 @@
     <t>thumbnail</t>
   </si>
   <si>
+    <t>tangle</t>
+  </si>
+  <si>
     <t>step</t>
   </si>
   <si>
     <t>structure</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>ground</t>
   </si>
   <si>
     <t>wrap</t>
@@ -40357,11 +40429,21 @@
       <c r="O8" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="37"/>
+      <c r="P8" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="T8" s="33" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="29">
@@ -40373,7 +40455,7 @@
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33"/>
@@ -40383,7 +40465,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="33"/>
@@ -40392,7 +40474,9 @@
       </c>
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="R9" s="32" t="s">
+        <v>181</v>
+      </c>
       <c r="S9" s="36"/>
       <c r="T9" s="37"/>
     </row>
@@ -40406,7 +40490,7 @@
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33"/>
@@ -40416,7 +40500,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
@@ -40425,7 +40509,9 @@
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="R10" s="32" t="s">
+        <v>184</v>
+      </c>
       <c r="S10" s="36"/>
       <c r="T10" s="37"/>
     </row>
@@ -40439,7 +40525,7 @@
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="33"/>
@@ -40449,7 +40535,7 @@
       <c r="J11" s="31"/>
       <c r="K11" s="32"/>
       <c r="L11" s="32" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="33"/>
@@ -40458,7 +40544,9 @@
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="R11" s="32" t="s">
+        <v>187</v>
+      </c>
       <c r="S11" s="36"/>
       <c r="T11" s="37"/>
     </row>
@@ -40472,7 +40560,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="33"/>
@@ -40482,7 +40570,7 @@
       <c r="J12" s="31"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="33"/>
@@ -40491,7 +40579,9 @@
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="R12" s="32" t="s">
+        <v>190</v>
+      </c>
       <c r="S12" s="36"/>
       <c r="T12" s="37"/>
     </row>
@@ -40505,7 +40595,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
@@ -40515,7 +40605,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="32"/>
       <c r="L13" s="32" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
@@ -40524,7 +40614,9 @@
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="R13" s="32" t="s">
+        <v>193</v>
+      </c>
       <c r="S13" s="36"/>
       <c r="T13" s="37"/>
     </row>
@@ -40538,7 +40630,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="33"/>
@@ -40548,7 +40640,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="32"/>
       <c r="L14" s="32" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="33"/>
@@ -40557,7 +40649,9 @@
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="R14" s="32" t="s">
+        <v>196</v>
+      </c>
       <c r="S14" s="36"/>
       <c r="T14" s="37"/>
     </row>
@@ -40571,7 +40665,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33"/>
@@ -40581,7 +40675,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="33"/>
@@ -40590,7 +40684,9 @@
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="R15" s="32" t="s">
+        <v>199</v>
+      </c>
       <c r="S15" s="36"/>
       <c r="T15" s="37"/>
     </row>
@@ -40604,7 +40700,7 @@
       <c r="D16" s="31"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="33"/>
@@ -40614,7 +40710,7 @@
       <c r="J16" s="31"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M16" s="32"/>
       <c r="N16" s="33"/>
@@ -40623,7 +40719,9 @@
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="R16" s="32" t="s">
+        <v>202</v>
+      </c>
       <c r="S16" s="36"/>
       <c r="T16" s="37"/>
     </row>
@@ -40637,7 +40735,7 @@
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="33"/>
@@ -40647,7 +40745,7 @@
       <c r="J17" s="31"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="33"/>
@@ -40656,7 +40754,9 @@
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="R17" s="32" t="s">
+        <v>205</v>
+      </c>
       <c r="S17" s="36"/>
       <c r="T17" s="37"/>
     </row>
@@ -40670,7 +40770,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="33"/>
@@ -40680,7 +40780,7 @@
       <c r="J18" s="31"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="33"/>
@@ -40689,7 +40789,9 @@
       </c>
       <c r="P18" s="35"/>
       <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="R18" s="32" t="s">
+        <v>208</v>
+      </c>
       <c r="S18" s="36"/>
       <c r="T18" s="37"/>
     </row>
@@ -40703,7 +40805,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="33"/>
@@ -40713,7 +40815,7 @@
       <c r="J19" s="31"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="33"/>
@@ -40722,7 +40824,9 @@
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="R19" s="32" t="s">
+        <v>211</v>
+      </c>
       <c r="S19" s="36"/>
       <c r="T19" s="37"/>
     </row>
@@ -40736,7 +40840,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
@@ -40746,7 +40850,7 @@
       <c r="J20" s="31"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="33"/>
@@ -40755,7 +40859,9 @@
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="R20" s="32" t="s">
+        <v>214</v>
+      </c>
       <c r="S20" s="36"/>
       <c r="T20" s="37"/>
     </row>
@@ -40769,7 +40875,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="33"/>
@@ -40779,7 +40885,7 @@
       <c r="J21" s="31"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M21" s="32"/>
       <c r="N21" s="33"/>
@@ -40788,7 +40894,9 @@
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="S21" s="36"/>
       <c r="T21" s="37"/>
     </row>
@@ -40802,7 +40910,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G22" s="32"/>
       <c r="H22" s="33"/>
@@ -40812,7 +40920,7 @@
       <c r="J22" s="31"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="33"/>
@@ -40821,7 +40929,9 @@
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="R22" s="32" t="s">
+        <v>220</v>
+      </c>
       <c r="S22" s="36"/>
       <c r="T22" s="37"/>
     </row>
@@ -40835,7 +40945,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="33"/>
@@ -40845,18 +40955,28 @@
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="33"/>
       <c r="O23" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="37"/>
+      <c r="P23" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q23" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="T23" s="33" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="29">
@@ -40868,7 +40988,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="33"/>
@@ -40878,7 +40998,7 @@
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="33"/>
@@ -40886,19 +41006,19 @@
         <v>106</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="Q24" s="32" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="R24" s="32" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="S24" s="32" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="T24" s="33" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
@@ -40911,7 +41031,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="33"/>
@@ -40921,7 +41041,7 @@
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="33"/>
@@ -40929,19 +41049,19 @@
         <v>107</v>
       </c>
       <c r="P25" s="31" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="R25" s="32" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="T25" s="33" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
@@ -40954,7 +41074,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="33"/>
@@ -40964,7 +41084,7 @@
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="33"/>
@@ -40972,19 +41092,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="R26" s="32" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="T26" s="33" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
@@ -40997,7 +41117,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="33"/>
@@ -41007,7 +41127,7 @@
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="33"/>
@@ -41015,19 +41135,19 @@
         <v>109</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="T27" s="33" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
@@ -41040,7 +41160,7 @@
       <c r="D28" s="40"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="42"/>
@@ -41050,7 +41170,7 @@
       <c r="J28" s="40"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
@@ -41058,19 +41178,19 @@
         <v>110</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="Q28" s="41" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="R28" s="41" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="S28" s="41" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="T28" s="42" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="327">
   <si>
     <t>hub</t>
   </si>
@@ -432,6 +432,9 @@
     <t>use</t>
   </si>
   <si>
+    <t>skeleton</t>
+  </si>
+  <si>
     <t>tube</t>
   </si>
   <si>
@@ -451,6 +454,9 @@
   </si>
   <si>
     <t>manual</t>
+  </si>
+  <si>
+    <t>nerve</t>
   </si>
   <si>
     <t>cap</t>
@@ -474,6 +480,9 @@
     <t>solid</t>
   </si>
   <si>
+    <t>palm</t>
+  </si>
+  <si>
     <t>channel</t>
   </si>
   <si>
@@ -490,6 +499,9 @@
   </si>
   <si>
     <t>ideal</t>
+  </si>
+  <si>
+    <t>forehead</t>
   </si>
   <si>
     <t>cloth</t>
@@ -513,6 +525,9 @@
     <t>tweet</t>
   </si>
   <si>
+    <t>retina</t>
+  </si>
+  <si>
     <t>plate</t>
   </si>
   <si>
@@ -532,6 +547,9 @@
   </si>
   <si>
     <t>change</t>
+  </si>
+  <si>
+    <t>skin</t>
   </si>
   <si>
     <t>pack</t>
@@ -555,6 +573,9 @@
     <t>logo</t>
   </si>
   <si>
+    <t>brow</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
@@ -562,6 +583,9 @@
   </si>
   <si>
     <t>drop</t>
+  </si>
+  <si>
+    <t>tooth</t>
   </si>
   <si>
     <t>dry</t>
@@ -573,6 +597,9 @@
     <t>protein</t>
   </si>
   <si>
+    <t>spine</t>
+  </si>
+  <si>
     <t>slab</t>
   </si>
   <si>
@@ -580,6 +607,9 @@
   </si>
   <si>
     <t>cereal</t>
+  </si>
+  <si>
+    <t>rib</t>
   </si>
   <si>
     <t>pen</t>
@@ -591,6 +621,9 @@
     <t>sugar</t>
   </si>
   <si>
+    <t>nail</t>
+  </si>
+  <si>
     <t>matter</t>
   </si>
   <si>
@@ -598,6 +631,9 @@
   </si>
   <si>
     <t>chocolate</t>
+  </si>
+  <si>
+    <t>hair</t>
   </si>
   <si>
     <t>epic</t>
@@ -609,6 +645,9 @@
     <t>starch</t>
   </si>
   <si>
+    <t>mole</t>
+  </si>
+  <si>
     <t>witness</t>
   </si>
   <si>
@@ -618,73 +657,169 @@
     <t>calcium</t>
   </si>
   <si>
+    <t>transparent</t>
+  </si>
+  <si>
     <t>tongue</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>solution</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>simple</t>
+  </si>
+  <si>
     <t>memory</t>
+  </si>
+  <si>
+    <t>appoint</t>
   </si>
   <si>
     <t>release</t>
   </si>
   <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
     <t>century</t>
+  </si>
+  <si>
+    <t>parity</t>
   </si>
   <si>
     <t>finger</t>
   </si>
   <si>
+    <t>weight</t>
+  </si>
+  <si>
     <t>bot</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>character</t>
   </si>
   <si>
+    <t>mean</t>
+  </si>
+  <si>
     <t>foil</t>
+  </si>
+  <si>
+    <t>mass</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
     <t>civil</t>
+  </si>
+  <si>
+    <t>mat</t>
   </si>
   <si>
     <t>collar</t>
   </si>
   <si>
+    <t>disc</t>
+  </si>
+  <si>
     <t>port</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>condition</t>
   </si>
   <si>
     <t>pattern</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>cron</t>
+  </si>
+  <si>
+    <t>guest</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>due</t>
   </si>
   <si>
     <t>algorithm</t>
   </si>
   <si>
+    <t>lift</t>
+  </si>
+  <si>
     <t>fold</t>
+  </si>
+  <si>
+    <t>leap</t>
+  </si>
+  <si>
+    <t>rent</t>
   </si>
   <si>
     <t>thumbnail</t>
   </si>
   <si>
+    <t>leak</t>
+  </si>
+  <si>
     <t>tangle</t>
+  </si>
+  <si>
+    <t>scent</t>
   </si>
   <si>
     <t>step</t>
   </si>
   <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
     <t>structure</t>
+  </si>
+  <si>
+    <t>range</t>
   </si>
   <si>
     <t>balance</t>
@@ -702,10 +837,22 @@
     <t>ground</t>
   </si>
   <si>
+    <t>deodorant</t>
+  </si>
+  <si>
     <t>wrap</t>
   </si>
   <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
     <t>metro</t>
+  </si>
+  <si>
+    <t>distance</t>
   </si>
   <si>
     <t>texture</t>
@@ -723,10 +870,22 @@
     <t>nest</t>
   </si>
   <si>
+    <t>thirst</t>
+  </si>
+  <si>
     <t>mail</t>
   </si>
   <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
     <t>flat</t>
+  </si>
+  <si>
+    <t>thrust</t>
   </si>
   <si>
     <t>native</t>
@@ -744,7 +903,16 @@
     <t>genus</t>
   </si>
   <si>
+    <t>wet</t>
+  </si>
+  <si>
     <t>mix</t>
+  </si>
+  <si>
+    <t>sight</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
   <si>
     <t>ink</t>
@@ -765,10 +933,22 @@
     <t>sphere</t>
   </si>
   <si>
+    <t>bent</t>
+  </si>
+  <si>
     <t>shuffle</t>
   </si>
   <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>pad</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>raw</t>
@@ -786,10 +966,22 @@
     <t>scene</t>
   </si>
   <si>
+    <t>vibrant</t>
+  </si>
+  <si>
     <t>aid</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
     <t>trim</t>
+  </si>
+  <si>
+    <t>variety</t>
   </si>
   <si>
     <t>aerodynamic</t>
@@ -40194,10 +40386,12 @@
       <c r="C3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
@@ -40207,7 +40401,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="27"/>
@@ -40215,19 +40409,19 @@
         <v>86</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T3" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -40237,10 +40431,12 @@
       <c r="C4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="31" t="s">
+        <v>146</v>
+      </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="33"/>
@@ -40250,7 +40446,7 @@
       <c r="J4" s="31"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M4" s="32"/>
       <c r="N4" s="33"/>
@@ -40258,19 +40454,19 @@
         <v>87</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
@@ -40280,10 +40476,12 @@
       <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="31" t="s">
+        <v>154</v>
+      </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="33"/>
@@ -40293,7 +40491,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="32"/>
       <c r="L5" s="32" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M5" s="32"/>
       <c r="N5" s="33"/>
@@ -40301,19 +40499,19 @@
         <v>88</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="32" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -40323,10 +40521,12 @@
       <c r="C6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="31" t="s">
+        <v>161</v>
+      </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="33"/>
@@ -40336,7 +40536,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="32"/>
       <c r="L6" s="32" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="33"/>
@@ -40344,19 +40544,19 @@
         <v>89</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="R6" s="32" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7">
@@ -40366,10 +40566,12 @@
       <c r="C7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="31" t="s">
+        <v>169</v>
+      </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="33"/>
@@ -40379,7 +40581,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M7" s="32"/>
       <c r="N7" s="33"/>
@@ -40387,19 +40589,19 @@
         <v>90</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="R7" s="32" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="T7" s="33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
@@ -40409,10 +40611,12 @@
       <c r="C8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="33"/>
@@ -40422,7 +40626,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="33"/>
@@ -40430,19 +40634,19 @@
         <v>91</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -40452,10 +40656,12 @@
       <c r="C9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="31" t="s">
+        <v>185</v>
+      </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33"/>
@@ -40465,7 +40671,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="33"/>
@@ -40475,7 +40681,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="32" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="S9" s="36"/>
       <c r="T9" s="37"/>
@@ -40487,10 +40693,12 @@
       <c r="C10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33"/>
@@ -40500,7 +40708,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
@@ -40510,7 +40718,7 @@
       <c r="P10" s="35"/>
       <c r="Q10" s="36"/>
       <c r="R10" s="32" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="S10" s="36"/>
       <c r="T10" s="37"/>
@@ -40522,10 +40730,12 @@
       <c r="C11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="31" t="s">
+        <v>193</v>
+      </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="33"/>
@@ -40535,7 +40745,7 @@
       <c r="J11" s="31"/>
       <c r="K11" s="32"/>
       <c r="L11" s="32" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="33"/>
@@ -40545,7 +40755,7 @@
       <c r="P11" s="35"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="32" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="S11" s="36"/>
       <c r="T11" s="37"/>
@@ -40557,10 +40767,12 @@
       <c r="C12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="31" t="s">
+        <v>197</v>
+      </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="33"/>
@@ -40570,7 +40782,7 @@
       <c r="J12" s="31"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="33"/>
@@ -40580,7 +40792,7 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="32" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="S12" s="36"/>
       <c r="T12" s="37"/>
@@ -40592,10 +40804,12 @@
       <c r="C13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
@@ -40605,7 +40819,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="32"/>
       <c r="L13" s="32" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
@@ -40615,7 +40829,7 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="32" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="S13" s="36"/>
       <c r="T13" s="37"/>
@@ -40627,10 +40841,12 @@
       <c r="C14" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="31" t="s">
+        <v>205</v>
+      </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="33"/>
@@ -40640,7 +40856,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="32"/>
       <c r="L14" s="32" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="33"/>
@@ -40650,7 +40866,7 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="32" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="S14" s="36"/>
       <c r="T14" s="37"/>
@@ -40662,10 +40878,12 @@
       <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="31" t="s">
+        <v>209</v>
+      </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33"/>
@@ -40675,7 +40893,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="33"/>
@@ -40685,7 +40903,7 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="32" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="S15" s="36"/>
       <c r="T15" s="37"/>
@@ -40697,30 +40915,38 @@
       <c r="C16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="31" t="s">
+        <v>213</v>
+      </c>
       <c r="E16" s="32"/>
       <c r="F16" s="32" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="33" t="s">
+        <v>215</v>
+      </c>
       <c r="I16" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="31"/>
+      <c r="J16" s="31" t="s">
+        <v>216</v>
+      </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
+      <c r="N16" s="33" t="s">
+        <v>218</v>
+      </c>
       <c r="O16" s="34" t="s">
         <v>98</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="32" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="S16" s="36"/>
       <c r="T16" s="37"/>
@@ -40732,30 +40958,38 @@
       <c r="C17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="31" t="s">
+        <v>220</v>
+      </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="H17" s="33" t="s">
+        <v>222</v>
+      </c>
       <c r="I17" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="31"/>
+      <c r="J17" s="31" t="s">
+        <v>223</v>
+      </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="N17" s="33" t="s">
+        <v>225</v>
+      </c>
       <c r="O17" s="34" t="s">
         <v>99</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="32" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="S17" s="36"/>
       <c r="T17" s="37"/>
@@ -40767,30 +41001,38 @@
       <c r="C18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="31" t="s">
+        <v>227</v>
+      </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="H18" s="33" t="s">
+        <v>229</v>
+      </c>
       <c r="I18" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="31"/>
+      <c r="J18" s="31" t="s">
+        <v>230</v>
+      </c>
       <c r="K18" s="32"/>
       <c r="L18" s="32" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
+      <c r="N18" s="33" t="s">
+        <v>232</v>
+      </c>
       <c r="O18" s="34" t="s">
         <v>100</v>
       </c>
       <c r="P18" s="35"/>
       <c r="Q18" s="36"/>
       <c r="R18" s="32" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="S18" s="36"/>
       <c r="T18" s="37"/>
@@ -40802,30 +41044,38 @@
       <c r="C19" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="31" t="s">
+        <v>234</v>
+      </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="H19" s="33" t="s">
+        <v>236</v>
+      </c>
       <c r="I19" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="31"/>
+      <c r="J19" s="31" t="s">
+        <v>237</v>
+      </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
+      <c r="N19" s="33" t="s">
+        <v>239</v>
+      </c>
       <c r="O19" s="34" t="s">
         <v>101</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="32" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="S19" s="36"/>
       <c r="T19" s="37"/>
@@ -40837,30 +41087,38 @@
       <c r="C20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="31" t="s">
+        <v>241</v>
+      </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="H20" s="33" t="s">
+        <v>243</v>
+      </c>
       <c r="I20" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="31"/>
+      <c r="J20" s="31" t="s">
+        <v>244</v>
+      </c>
       <c r="K20" s="32"/>
       <c r="L20" s="32" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
+      <c r="N20" s="33" t="s">
+        <v>246</v>
+      </c>
       <c r="O20" s="34" t="s">
         <v>102</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="32" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="S20" s="36"/>
       <c r="T20" s="37"/>
@@ -40872,30 +41130,38 @@
       <c r="C21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="31" t="s">
+        <v>248</v>
+      </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
+      <c r="H21" s="33" t="s">
+        <v>250</v>
+      </c>
       <c r="I21" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="31"/>
+      <c r="J21" s="31" t="s">
+        <v>251</v>
+      </c>
       <c r="K21" s="32"/>
       <c r="L21" s="32" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
+      <c r="N21" s="33" t="s">
+        <v>253</v>
+      </c>
       <c r="O21" s="34" t="s">
         <v>103</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="32" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="S21" s="36"/>
       <c r="T21" s="37"/>
@@ -40907,30 +41173,38 @@
       <c r="C22" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="31" t="s">
+        <v>255</v>
+      </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
+      <c r="H22" s="33" t="s">
+        <v>257</v>
+      </c>
       <c r="I22" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="31"/>
+      <c r="J22" s="31" t="s">
+        <v>258</v>
+      </c>
       <c r="K22" s="32"/>
       <c r="L22" s="32" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="M22" s="32"/>
-      <c r="N22" s="33"/>
+      <c r="N22" s="33" t="s">
+        <v>260</v>
+      </c>
       <c r="O22" s="34" t="s">
         <v>104</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="32" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="S22" s="36"/>
       <c r="T22" s="37"/>
@@ -40942,40 +41216,48 @@
       <c r="C23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="31" t="s">
+        <v>262</v>
+      </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="H23" s="33" t="s">
+        <v>264</v>
+      </c>
       <c r="I23" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="31"/>
+      <c r="J23" s="31" t="s">
+        <v>265</v>
+      </c>
       <c r="K23" s="32"/>
       <c r="L23" s="32" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
+      <c r="N23" s="33" t="s">
+        <v>267</v>
+      </c>
       <c r="O23" s="34" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="32" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="R23" s="32" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="T23" s="33" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24">
@@ -40985,40 +41267,48 @@
       <c r="C24" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="31" t="s">
+        <v>273</v>
+      </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="H24" s="33" t="s">
+        <v>275</v>
+      </c>
       <c r="I24" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="31"/>
+      <c r="J24" s="31" t="s">
+        <v>276</v>
+      </c>
       <c r="K24" s="32"/>
       <c r="L24" s="32" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="M24" s="32"/>
-      <c r="N24" s="33"/>
+      <c r="N24" s="33" t="s">
+        <v>278</v>
+      </c>
       <c r="O24" s="34" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="Q24" s="32" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="R24" s="32" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="S24" s="32" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="T24" s="33" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25">
@@ -41028,40 +41318,48 @@
       <c r="C25" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="31" t="s">
+        <v>284</v>
+      </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
+      <c r="H25" s="33" t="s">
+        <v>286</v>
+      </c>
       <c r="I25" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="31"/>
+      <c r="J25" s="31" t="s">
+        <v>287</v>
+      </c>
       <c r="K25" s="32"/>
       <c r="L25" s="32" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="M25" s="32"/>
-      <c r="N25" s="33"/>
+      <c r="N25" s="33" t="s">
+        <v>289</v>
+      </c>
       <c r="O25" s="34" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="31" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="R25" s="32" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="T25" s="33" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26">
@@ -41071,40 +41369,48 @@
       <c r="C26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="31" t="s">
+        <v>295</v>
+      </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+      <c r="H26" s="33" t="s">
+        <v>297</v>
+      </c>
       <c r="I26" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="31"/>
+      <c r="J26" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="M26" s="32"/>
-      <c r="N26" s="33"/>
+      <c r="N26" s="33" t="s">
+        <v>112</v>
+      </c>
       <c r="O26" s="34" t="s">
         <v>108</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="R26" s="32" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="T26" s="33" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27">
@@ -41114,40 +41420,48 @@
       <c r="C27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="31" t="s">
+        <v>305</v>
+      </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="H27" s="33" t="s">
+        <v>307</v>
+      </c>
       <c r="I27" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="31"/>
+      <c r="J27" s="31" t="s">
+        <v>308</v>
+      </c>
       <c r="K27" s="32"/>
       <c r="L27" s="32" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
+      <c r="N27" s="33" t="s">
+        <v>310</v>
+      </c>
       <c r="O27" s="34" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="T27" s="33" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28">
@@ -41157,40 +41471,48 @@
       <c r="C28" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="40" t="s">
+        <v>316</v>
+      </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="H28" s="42" t="s">
+        <v>318</v>
+      </c>
       <c r="I28" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="40"/>
+      <c r="J28" s="40" t="s">
+        <v>319</v>
+      </c>
       <c r="K28" s="41"/>
       <c r="L28" s="41" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
+      <c r="N28" s="42" t="s">
+        <v>321</v>
+      </c>
       <c r="O28" s="43" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="Q28" s="41" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="R28" s="41" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="S28" s="41" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="T28" s="42" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="376">
   <si>
     <t>hub</t>
   </si>
@@ -432,13 +432,37 @@
     <t>use</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
     <t>skeleton</t>
   </si>
   <si>
     <t>tube</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
     <t>air</t>
+  </si>
+  <si>
+    <t>log</t>
   </si>
   <si>
     <t>mushroom</t>
@@ -462,7 +486,16 @@
     <t>cap</t>
   </si>
   <si>
+    <t>cabin</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
     <t>fire</t>
+  </si>
+  <si>
+    <t>cube</t>
   </si>
   <si>
     <t>ace</t>
@@ -486,7 +519,16 @@
     <t>channel</t>
   </si>
   <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
     <t>water</t>
+  </si>
+  <si>
+    <t>term</t>
   </si>
   <si>
     <t>candle</t>
@@ -507,7 +549,16 @@
     <t>cloth</t>
   </si>
   <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
     <t>river</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>age</t>
@@ -531,7 +582,16 @@
     <t>plate</t>
   </si>
   <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>orbit</t>
+  </si>
+  <si>
     <t>waterfall</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
   <si>
     <t>hook</t>
@@ -555,7 +615,16 @@
     <t>pack</t>
   </si>
   <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>spin</t>
+  </si>
+  <si>
     <t>stone</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>wall</t>
@@ -579,7 +648,16 @@
     <t>stock</t>
   </si>
   <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
     <t>spark</t>
+  </si>
+  <si>
+    <t>sine</t>
   </si>
   <si>
     <t>drop</t>
@@ -591,7 +669,16 @@
     <t>dry</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>torque</t>
+  </si>
+  <si>
     <t>nation</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>protein</t>
@@ -603,7 +690,16 @@
     <t>slab</t>
   </si>
   <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
     <t>nuclear</t>
+  </si>
+  <si>
+    <t>lean</t>
   </si>
   <si>
     <t>cereal</t>
@@ -615,7 +711,16 @@
     <t>pen</t>
   </si>
   <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
     <t>industry</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>sugar</t>
@@ -627,7 +732,16 @@
     <t>matter</t>
   </si>
   <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
     <t>collage</t>
+  </si>
+  <si>
+    <t>segment</t>
   </si>
   <si>
     <t>chocolate</t>
@@ -639,7 +753,16 @@
     <t>epic</t>
   </si>
   <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
     <t>marble</t>
+  </si>
+  <si>
+    <t>sense</t>
   </si>
   <si>
     <t>starch</t>
@@ -651,7 +774,16 @@
     <t>witness</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>cyber</t>
+  </si>
+  <si>
+    <t>laminate</t>
   </si>
   <si>
     <t>calcium</t>
@@ -997,6 +1129,21 @@
   </si>
   <si>
     <t>slip</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>plateau</t>
+  </si>
+  <si>
+    <t>sea</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1577,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1491,9 +1638,6 @@
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1569,9 +1713,6 @@
     <xf borderId="37" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -40373,1176 +40514,1274 @@
       <c r="O2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22"/>
+      <c r="P2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" s="23">
+      <c r="B3" s="20">
         <v>1.0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
+      <c r="D3" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="J3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>145</v>
+      <c r="P3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>2.0</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34" t="s">
+      <c r="D4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34" t="s">
+      <c r="J4" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>153</v>
+      <c r="P4" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="29">
+      <c r="B5" s="26">
         <v>3.0</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34" t="s">
+      <c r="D5" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34" t="s">
+      <c r="J5" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="O5" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q5" s="32" t="s">
+      <c r="P5" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>160</v>
+      <c r="R5" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="29">
+      <c r="B6" s="26">
         <v>4.0</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34" t="s">
+      <c r="D6" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34" t="s">
+      <c r="J6" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>168</v>
+      <c r="P6" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>5.0</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34" t="s">
+      <c r="D7" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34" t="s">
+      <c r="J7" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O7" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="T7" s="33" t="s">
-        <v>176</v>
+      <c r="P7" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>6.0</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34" t="s">
+      <c r="D8" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34" t="s">
+      <c r="J8" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="O8" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="R8" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="T8" s="33" t="s">
-        <v>184</v>
+      <c r="P8" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="29">
+      <c r="B9" s="26">
         <v>7.0</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34" t="s">
+      <c r="D9" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34" t="s">
+      <c r="J9" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="O9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="S9" s="36"/>
-      <c r="T9" s="37"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
     </row>
     <row r="10">
-      <c r="B10" s="29">
+      <c r="B10" s="26">
         <v>8.0</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34" t="s">
+      <c r="D10" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34" t="s">
+      <c r="J10" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O10" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="S10" s="36"/>
-      <c r="T10" s="37"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
     </row>
     <row r="11">
-      <c r="B11" s="29">
+      <c r="B11" s="26">
         <v>9.0</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34" t="s">
+      <c r="D11" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34" t="s">
+      <c r="J11" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O11" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="S11" s="36"/>
-      <c r="T11" s="37"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12">
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <v>10.0</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34" t="s">
+      <c r="D12" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34" t="s">
+      <c r="J12" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O12" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="S12" s="36"/>
-      <c r="T12" s="37"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
     </row>
     <row r="13">
-      <c r="B13" s="29">
+      <c r="B13" s="26">
         <v>11.0</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34" t="s">
+      <c r="D13" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34" t="s">
+      <c r="J13" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="O13" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="S13" s="36"/>
-      <c r="T13" s="37"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="14">
-      <c r="B14" s="29">
+      <c r="B14" s="26">
         <v>12.0</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34" t="s">
+      <c r="D14" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34" t="s">
+      <c r="J14" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="O14" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="S14" s="36"/>
-      <c r="T14" s="37"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15">
-      <c r="B15" s="29">
+      <c r="B15" s="26">
         <v>13.0</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34" t="s">
+      <c r="D15" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34" t="s">
+      <c r="J15" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O15" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="S15" s="36"/>
-      <c r="T15" s="37"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
     </row>
     <row r="16">
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>14.0</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="I16" s="34" t="s">
+      <c r="D16" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="O16" s="34" t="s">
+      <c r="J16" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O16" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
     </row>
     <row r="17">
-      <c r="B17" s="29">
+      <c r="B17" s="26">
         <v>15.0</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="I17" s="34" t="s">
+      <c r="D17" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="J17" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="O17" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="S17" s="36"/>
-      <c r="T17" s="37"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
     </row>
     <row r="18">
-      <c r="B18" s="29">
+      <c r="B18" s="26">
         <v>16.0</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="I18" s="34" t="s">
+      <c r="D18" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="O18" s="34" t="s">
+      <c r="J18" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O18" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="S18" s="36"/>
-      <c r="T18" s="37"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
     </row>
     <row r="19">
-      <c r="B19" s="29">
+      <c r="B19" s="26">
         <v>17.0</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="I19" s="34" t="s">
+      <c r="D19" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="O19" s="34" t="s">
+      <c r="J19" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O19" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34"/>
     </row>
     <row r="20">
-      <c r="B20" s="29">
+      <c r="B20" s="26">
         <v>18.0</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="I20" s="34" t="s">
+      <c r="D20" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="O20" s="34" t="s">
+      <c r="J20" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="O20" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="S20" s="36"/>
-      <c r="T20" s="37"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
     </row>
     <row r="21">
-      <c r="B21" s="29">
+      <c r="B21" s="26">
         <v>19.0</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="I21" s="34" t="s">
+      <c r="D21" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="O21" s="34" t="s">
+      <c r="J21" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="O21" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="S21" s="36"/>
-      <c r="T21" s="37"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
     </row>
     <row r="22">
-      <c r="B22" s="29">
+      <c r="B22" s="26">
         <v>20.0</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="I22" s="34" t="s">
+      <c r="D22" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="O22" s="34" t="s">
+      <c r="J22" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="O22" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="S22" s="36"/>
-      <c r="T22" s="37"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
     </row>
     <row r="23">
-      <c r="B23" s="29">
+      <c r="B23" s="26">
         <v>21.0</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="I23" s="34" t="s">
+      <c r="D23" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="O23" s="34" t="s">
+      <c r="J23" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q23" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="R23" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="S23" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="T23" s="33" t="s">
-        <v>272</v>
+      <c r="P23" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="29">
+      <c r="B24" s="26">
         <v>22.0</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="I24" s="34" t="s">
+      <c r="D24" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="O24" s="34" t="s">
+      <c r="J24" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="P24" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="R24" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="S24" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="T24" s="33" t="s">
-        <v>283</v>
+      <c r="P24" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="T24" s="30" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="29">
+      <c r="B25" s="26">
         <v>23.0</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="I25" s="34" t="s">
+      <c r="D25" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="O25" s="34" t="s">
+      <c r="J25" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="M25" s="29"/>
+      <c r="N25" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="P25" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q25" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="R25" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="S25" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="T25" s="33" t="s">
-        <v>294</v>
+      <c r="P25" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="T25" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="29">
+      <c r="B26" s="26">
         <v>24.0</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="I26" s="34" t="s">
+      <c r="D26" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="33" t="s">
+      <c r="J26" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="O26" s="34" t="s">
+      <c r="O26" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="P26" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q26" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="R26" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="S26" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="T26" s="33" t="s">
-        <v>304</v>
+      <c r="P26" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="T26" s="30" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="29">
+      <c r="B27" s="26">
         <v>25.0</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="I27" s="34" t="s">
+      <c r="D27" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="O27" s="34" t="s">
+      <c r="J27" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="P27" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="R27" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="T27" s="33" t="s">
-        <v>315</v>
+      <c r="P27" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="38">
+      <c r="B28" s="35">
         <v>26.0</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="I28" s="43" t="s">
+      <c r="D28" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="O28" s="43" t="s">
+      <c r="J28" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P28" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q28" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="R28" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="S28" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="T28" s="42" t="s">
-        <v>326</v>
+      <c r="P28" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q28" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="S28" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="49" t="s">
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="52"/>
+      <c r="P29" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q29" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="R29" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="S29" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="T29" s="45" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" s="13"/>

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="395">
   <si>
     <t>hub</t>
   </si>
@@ -430,6 +430,33 @@
   </si>
   <si>
     <t>use</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>lens</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>advance</t>
+  </si>
+  <si>
+    <t>cascade</t>
+  </si>
+  <si>
+    <t>boundary</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>journal</t>
   </si>
   <si>
     <t>day</t>
@@ -1129,6 +1156,36 @@
   </si>
   <si>
     <t>slip</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>carnival</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>boarding</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>journey</t>
   </si>
   <si>
     <t>mountain</t>
@@ -40498,36 +40555,56 @@
       <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="D2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="I2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
+      <c r="J2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="O2" s="19" t="s">
         <v>85</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -40538,47 +40615,47 @@
         <v>29</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="24" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="23" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="M3" s="23"/>
       <c r="N3" s="24" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O3" s="25" t="s">
         <v>86</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
@@ -40589,47 +40666,47 @@
         <v>30</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M4" s="29"/>
       <c r="N4" s="30" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="O4" s="31" t="s">
         <v>87</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -40640,47 +40717,47 @@
         <v>31</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="30" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>88</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
@@ -40691,47 +40768,47 @@
         <v>32</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M6" s="29"/>
       <c r="N6" s="30" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="O6" s="31" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7">
@@ -40742,47 +40819,47 @@
         <v>33</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="30" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
@@ -40793,47 +40870,47 @@
         <v>34</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M8" s="29"/>
       <c r="N8" s="30" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O8" s="31" t="s">
         <v>91</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9">
@@ -40844,29 +40921,29 @@
         <v>35</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="M9" s="29"/>
       <c r="N9" s="30" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="O9" s="31" t="s">
         <v>6</v>
@@ -40874,7 +40951,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="29" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="34"/>
@@ -40887,29 +40964,29 @@
         <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M10" s="29"/>
       <c r="N10" s="30" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
@@ -40917,7 +40994,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="29" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
@@ -40930,29 +41007,29 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="M11" s="29"/>
       <c r="N11" s="30" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
@@ -40960,7 +41037,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="29" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
@@ -40973,29 +41050,29 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="M12" s="29"/>
       <c r="N12" s="30" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
@@ -41003,7 +41080,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -41016,29 +41093,29 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="30" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
@@ -41046,7 +41123,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="29" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
@@ -41059,29 +41136,29 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="30" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -41089,7 +41166,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -41102,29 +41179,29 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M15" s="29"/>
       <c r="N15" s="30" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -41132,7 +41209,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -41145,29 +41222,29 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M16" s="29"/>
       <c r="N16" s="30" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -41175,7 +41252,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -41188,29 +41265,29 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M17" s="29"/>
       <c r="N17" s="30" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -41218,7 +41295,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -41231,29 +41308,29 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M18" s="29"/>
       <c r="N18" s="30" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
@@ -41261,7 +41338,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="29" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -41274,29 +41351,29 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="30" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
@@ -41304,7 +41381,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="29" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -41317,29 +41394,29 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M20" s="29"/>
       <c r="N20" s="30" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
@@ -41347,7 +41424,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="29" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -41360,29 +41437,29 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M21" s="29"/>
       <c r="N21" s="30" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
@@ -41390,7 +41467,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="29" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -41403,29 +41480,29 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="M22" s="29"/>
       <c r="N22" s="30" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
@@ -41433,7 +41510,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="29" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -41446,47 +41523,47 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M23" s="29"/>
       <c r="N23" s="30" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24">
@@ -41497,47 +41574,47 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M24" s="29"/>
       <c r="N24" s="30" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25">
@@ -41548,47 +41625,47 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M25" s="29"/>
       <c r="N25" s="30" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26">
@@ -41599,25 +41676,25 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="M26" s="29"/>
       <c r="N26" s="30" t="s">
@@ -41627,19 +41704,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27">
@@ -41650,47 +41727,47 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="M27" s="29"/>
       <c r="N27" s="30" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28">
@@ -41701,47 +41778,47 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="K28" s="38"/>
       <c r="L28" s="38" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="M28" s="38"/>
       <c r="N28" s="39" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29">
@@ -41751,36 +41828,56 @@
       <c r="C29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
+      <c r="D29" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>384</v>
+      </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
+      <c r="J29" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="M29" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="N29" s="45" t="s">
+        <v>389</v>
+      </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="420">
   <si>
     <t>hub</t>
   </si>
@@ -489,6 +489,9 @@
     <t>air</t>
   </si>
   <si>
+    <t>economy</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
@@ -520,6 +523,9 @@
   </si>
   <si>
     <t>fire</t>
+  </si>
+  <si>
+    <t>territory</t>
   </si>
   <si>
     <t>cube</t>
@@ -555,6 +561,9 @@
     <t>water</t>
   </si>
   <si>
+    <t>finite</t>
+  </si>
+  <si>
     <t>term</t>
   </si>
   <si>
@@ -583,6 +592,9 @@
   </si>
   <si>
     <t>river</t>
+  </si>
+  <si>
+    <t>afloat</t>
   </si>
   <si>
     <t>name</t>
@@ -618,6 +630,9 @@
     <t>waterfall</t>
   </si>
   <si>
+    <t>blink</t>
+  </si>
+  <si>
     <t>path</t>
   </si>
   <si>
@@ -649,6 +664,9 @@
   </si>
   <si>
     <t>stone</t>
+  </si>
+  <si>
+    <t>alternate</t>
   </si>
   <si>
     <t>shop</t>
@@ -684,6 +702,9 @@
     <t>spark</t>
   </si>
   <si>
+    <t>opposite</t>
+  </si>
+  <si>
     <t>sine</t>
   </si>
   <si>
@@ -705,6 +726,9 @@
     <t>nation</t>
   </si>
   <si>
+    <t>inverse</t>
+  </si>
+  <si>
     <t>tiny</t>
   </si>
   <si>
@@ -724,6 +748,9 @@
   </si>
   <si>
     <t>nuclear</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
   <si>
     <t>lean</t>
@@ -768,6 +795,9 @@
     <t>collage</t>
   </si>
   <si>
+    <t>priority</t>
+  </si>
+  <si>
     <t>segment</t>
   </si>
   <si>
@@ -787,6 +817,9 @@
   </si>
   <si>
     <t>marble</t>
+  </si>
+  <si>
+    <t>bright</t>
   </si>
   <si>
     <t>sense</t>
@@ -810,6 +843,9 @@
     <t>cyber</t>
   </si>
   <si>
+    <t>document</t>
+  </si>
+  <si>
     <t>laminate</t>
   </si>
   <si>
@@ -829,6 +865,9 @@
   </si>
   <si>
     <t>free</t>
+  </si>
+  <si>
+    <t>directory</t>
   </si>
   <si>
     <t>simple</t>
@@ -852,6 +891,9 @@
     <t>century</t>
   </si>
   <si>
+    <t>domain</t>
+  </si>
+  <si>
     <t>parity</t>
   </si>
   <si>
@@ -871,6 +913,9 @@
   </si>
   <si>
     <t>character</t>
+  </si>
+  <si>
+    <t>spread</t>
   </si>
   <si>
     <t>mean</t>
@@ -894,6 +939,9 @@
     <t>civil</t>
   </si>
   <si>
+    <t>bind</t>
+  </si>
+  <si>
     <t>mat</t>
   </si>
   <si>
@@ -913,6 +961,9 @@
   </si>
   <si>
     <t>pattern</t>
+  </si>
+  <si>
+    <t>appendix</t>
   </si>
   <si>
     <t>short</t>
@@ -936,6 +987,9 @@
     <t>chrome</t>
   </si>
   <si>
+    <t>variable</t>
+  </si>
+  <si>
     <t>due</t>
   </si>
   <si>
@@ -957,6 +1011,9 @@
     <t>thumbnail</t>
   </si>
   <si>
+    <t>neutral</t>
+  </si>
+  <si>
     <t>leak</t>
   </si>
   <si>
@@ -976,6 +1033,9 @@
   </si>
   <si>
     <t>structure</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
   <si>
     <t>range</t>
@@ -1011,6 +1071,9 @@
     <t>metro</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>distance</t>
   </si>
   <si>
@@ -1042,6 +1105,9 @@
   </si>
   <si>
     <t>flat</t>
+  </si>
+  <si>
+    <t>public</t>
   </si>
   <si>
     <t>thrust</t>
@@ -1077,6 +1143,9 @@
     <t>ink</t>
   </si>
   <si>
+    <t>dedicate</t>
+  </si>
+  <si>
     <t>alien</t>
   </si>
   <si>
@@ -1105,6 +1174,9 @@
   </si>
   <si>
     <t>pad</t>
+  </si>
+  <si>
+    <t>private</t>
   </si>
   <si>
     <t>bit</t>
@@ -1138,6 +1210,9 @@
   </si>
   <si>
     <t>trim</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>variety</t>
@@ -40635,27 +40710,29 @@
       <c r="L3" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="23"/>
+      <c r="M3" s="23" t="s">
+        <v>157</v>
+      </c>
       <c r="N3" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O3" s="25" t="s">
         <v>86</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -40666,47 +40743,49 @@
         <v>30</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="N4" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O4" s="31" t="s">
         <v>87</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -40717,47 +40796,49 @@
         <v>31</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="M5" s="29"/>
+        <v>180</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>181</v>
+      </c>
       <c r="N5" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>88</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6">
@@ -40768,47 +40849,49 @@
         <v>32</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="M6" s="29"/>
+        <v>191</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>192</v>
+      </c>
       <c r="N6" s="30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O6" s="31" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
@@ -40819,47 +40902,49 @@
         <v>33</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="M7" s="29"/>
+        <v>203</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>204</v>
+      </c>
       <c r="N7" s="30" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
@@ -40870,47 +40955,49 @@
         <v>34</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="M8" s="29"/>
+        <v>215</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>216</v>
+      </c>
       <c r="N8" s="30" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O8" s="31" t="s">
         <v>91</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
@@ -40921,29 +41008,31 @@
         <v>35</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="M9" s="29"/>
+        <v>227</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>228</v>
+      </c>
       <c r="N9" s="30" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="O9" s="31" t="s">
         <v>6</v>
@@ -40951,7 +41040,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="29" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="34"/>
@@ -40964,29 +41053,31 @@
         <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="M10" s="29"/>
+        <v>235</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>236</v>
+      </c>
       <c r="N10" s="30" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
@@ -40994,7 +41085,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="29" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
@@ -41007,29 +41098,31 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="M11" s="29"/>
+        <v>243</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>244</v>
+      </c>
       <c r="N11" s="30" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
@@ -41037,7 +41130,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="29" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
@@ -41050,29 +41143,31 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="M12" s="29"/>
+        <v>251</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="N12" s="30" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
@@ -41080,7 +41175,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -41093,29 +41188,31 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="M13" s="29"/>
+        <v>258</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>259</v>
+      </c>
       <c r="N13" s="30" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
@@ -41123,7 +41220,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="29" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
@@ -41136,29 +41233,31 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="M14" s="29"/>
+        <v>266</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="N14" s="30" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -41166,7 +41265,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -41179,29 +41278,31 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="M15" s="29"/>
+        <v>274</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>275</v>
+      </c>
       <c r="N15" s="30" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -41209,7 +41310,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -41222,29 +41323,31 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="M16" s="29"/>
+        <v>282</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>283</v>
+      </c>
       <c r="N16" s="30" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -41252,7 +41355,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -41265,29 +41368,31 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="M17" s="29"/>
+        <v>290</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>291</v>
+      </c>
       <c r="N17" s="30" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -41295,7 +41400,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -41308,29 +41413,31 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="M18" s="29"/>
+        <v>298</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>299</v>
+      </c>
       <c r="N18" s="30" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
@@ -41338,7 +41445,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="29" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -41351,29 +41458,31 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="M19" s="29"/>
+        <v>306</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>307</v>
+      </c>
       <c r="N19" s="30" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
@@ -41381,7 +41490,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="29" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -41394,29 +41503,31 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="M20" s="29"/>
+        <v>314</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>315</v>
+      </c>
       <c r="N20" s="30" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
@@ -41424,7 +41535,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="29" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -41437,29 +41548,31 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="M21" s="29"/>
+        <v>322</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>323</v>
+      </c>
       <c r="N21" s="30" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
@@ -41467,7 +41580,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="29" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -41480,29 +41593,31 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="M22" s="29"/>
+        <v>330</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>331</v>
+      </c>
       <c r="N22" s="30" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
@@ -41510,7 +41625,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="29" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -41523,47 +41638,49 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="M23" s="29"/>
+        <v>338</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>339</v>
+      </c>
       <c r="N23" s="30" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24">
@@ -41574,47 +41691,49 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="M24" s="29"/>
+        <v>350</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>351</v>
+      </c>
       <c r="N24" s="30" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25">
@@ -41625,47 +41744,49 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="M25" s="29"/>
+        <v>362</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>363</v>
+      </c>
       <c r="N25" s="30" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26">
@@ -41676,27 +41797,29 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="M26" s="29"/>
+        <v>374</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>375</v>
+      </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
       </c>
@@ -41704,19 +41827,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27">
@@ -41727,47 +41850,49 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="M27" s="29"/>
+        <v>385</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>386</v>
+      </c>
       <c r="N27" s="30" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28">
@@ -41778,47 +41903,49 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="K28" s="38"/>
       <c r="L28" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="M28" s="38"/>
+        <v>397</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>398</v>
+      </c>
       <c r="N28" s="39" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29">
@@ -41829,55 +41956,55 @@
         <v>56</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="424">
   <si>
     <t>hub</t>
   </si>
@@ -486,6 +486,9 @@
     <t>card</t>
   </si>
   <si>
+    <t>preference</t>
+  </si>
+  <si>
     <t>air</t>
   </si>
   <si>
@@ -520,6 +523,9 @@
   </si>
   <si>
     <t>quick</t>
+  </si>
+  <si>
+    <t>portfolio</t>
   </si>
   <si>
     <t>fire</t>
@@ -1173,6 +1179,9 @@
     <t>back</t>
   </si>
   <si>
+    <t>designation</t>
+  </si>
+  <si>
     <t>pad</t>
   </si>
   <si>
@@ -1207,6 +1216,9 @@
   </si>
   <si>
     <t>valve</t>
+  </si>
+  <si>
+    <t>configuration</t>
   </si>
   <si>
     <t>trim</t>
@@ -40706,33 +40718,35 @@
       <c r="J3" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="23" t="s">
+        <v>156</v>
+      </c>
       <c r="L3" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O3" s="25" t="s">
         <v>86</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
@@ -40743,49 +40757,51 @@
         <v>30</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="K4" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="L4" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O4" s="31" t="s">
         <v>87</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
@@ -40796,49 +40812,49 @@
         <v>31</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>88</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
@@ -40849,49 +40865,49 @@
         <v>32</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O6" s="31" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -40902,49 +40918,49 @@
         <v>33</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8">
@@ -40955,49 +40971,49 @@
         <v>34</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O8" s="31" t="s">
         <v>91</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -41008,31 +41024,31 @@
         <v>35</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O9" s="31" t="s">
         <v>6</v>
@@ -41040,7 +41056,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="34"/>
@@ -41053,31 +41069,31 @@
         <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
@@ -41085,7 +41101,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
@@ -41098,31 +41114,31 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
@@ -41130,7 +41146,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
@@ -41143,31 +41159,31 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
@@ -41175,7 +41191,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -41188,31 +41204,31 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
@@ -41220,7 +41236,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
@@ -41233,31 +41249,31 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -41265,7 +41281,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -41278,31 +41294,31 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -41310,7 +41326,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -41323,31 +41339,31 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -41355,7 +41371,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -41368,31 +41384,31 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -41400,7 +41416,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -41413,31 +41429,31 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
@@ -41445,7 +41461,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="29" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -41458,31 +41474,31 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
@@ -41490,7 +41506,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="29" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -41503,31 +41519,31 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
@@ -41535,7 +41551,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="29" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -41548,31 +41564,31 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
@@ -41580,7 +41596,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="29" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -41593,31 +41609,31 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
@@ -41625,7 +41641,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="29" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -41638,49 +41654,49 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24">
@@ -41691,49 +41707,49 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25">
@@ -41744,49 +41760,49 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26">
@@ -41797,28 +41813,28 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
@@ -41827,19 +41843,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27">
@@ -41850,49 +41866,51 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="K27" s="29"/>
+        <v>386</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>387</v>
+      </c>
       <c r="L27" s="29" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28">
@@ -41903,49 +41921,51 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="K28" s="38"/>
+        <v>399</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>400</v>
+      </c>
       <c r="L28" s="38" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29">
@@ -41956,55 +41976,55 @@
         <v>56</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -9,6 +9,7 @@
     <sheet state="visible" name="noneOtherThanFood70" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="testPHP28" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="needyPacket42" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Copy of needyPacket42" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="431">
   <si>
     <t>hub</t>
   </si>
@@ -564,6 +565,9 @@
     <t>policy</t>
   </si>
   <si>
+    <t>streamline</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
@@ -595,6 +599,9 @@
   </si>
   <si>
     <t>foreign</t>
+  </si>
+  <si>
+    <t>mechanic</t>
   </si>
   <si>
     <t>river</t>
@@ -703,6 +710,9 @@
   </si>
   <si>
     <t>wave</t>
+  </si>
+  <si>
+    <t>theme</t>
   </si>
   <si>
     <t>spark</t>
@@ -1014,6 +1024,9 @@
     <t>rent</t>
   </si>
   <si>
+    <t>temporary</t>
+  </si>
+  <si>
     <t>thumbnail</t>
   </si>
   <si>
@@ -1110,6 +1123,9 @@
     <t>trust</t>
   </si>
   <si>
+    <t>medium</t>
+  </si>
+  <si>
     <t>flat</t>
   </si>
   <si>
@@ -1144,6 +1160,9 @@
   </si>
   <si>
     <t>set</t>
+  </si>
+  <si>
+    <t>processor</t>
   </si>
   <si>
     <t>ink</t>
@@ -1288,6 +1307,9 @@
   </si>
   <si>
     <t>sea</t>
+  </si>
+  <si>
+    <t>province</t>
   </si>
 </sst>
 </file>
@@ -1889,6 +1911,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -40828,33 +40854,35 @@
       <c r="J5" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="K5" s="29"/>
+      <c r="K5" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="L5" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>88</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -40865,49 +40893,51 @@
         <v>32</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="K6" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="L6" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O6" s="31" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -40918,49 +40948,49 @@
         <v>33</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8">
@@ -40971,49 +41001,49 @@
         <v>34</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O8" s="31" t="s">
         <v>91</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9">
@@ -41024,31 +41054,33 @@
         <v>35</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="K9" s="29"/>
+        <v>230</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>231</v>
+      </c>
       <c r="L9" s="29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O9" s="31" t="s">
         <v>6</v>
@@ -41056,7 +41088,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="29" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="34"/>
@@ -41069,31 +41101,31 @@
         <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
@@ -41101,7 +41133,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
@@ -41114,31 +41146,31 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
@@ -41146,7 +41178,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
@@ -41159,31 +41191,31 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
@@ -41191,7 +41223,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -41204,31 +41236,31 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
@@ -41236,7 +41268,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="29" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
@@ -41249,31 +41281,31 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -41281,7 +41313,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -41294,31 +41326,31 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -41326,7 +41358,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -41339,31 +41371,31 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -41371,7 +41403,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -41384,31 +41416,31 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -41416,7 +41448,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -41429,31 +41461,31 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
@@ -41461,7 +41493,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="29" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -41474,31 +41506,31 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
@@ -41506,7 +41538,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="29" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -41519,31 +41551,31 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
@@ -41551,7 +41583,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -41564,31 +41596,31 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
@@ -41596,7 +41628,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="29" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -41609,31 +41641,33 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="K22" s="29"/>
+        <v>334</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>335</v>
+      </c>
       <c r="L22" s="29" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
@@ -41641,7 +41675,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="29" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -41654,49 +41688,49 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24">
@@ -41707,49 +41741,49 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25">
@@ -41760,49 +41794,51 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="K25" s="29"/>
+        <v>367</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>368</v>
+      </c>
       <c r="L25" s="29" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26">
@@ -41813,28 +41849,30 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K26" s="29"/>
+        <v>380</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>381</v>
+      </c>
       <c r="L26" s="29" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
@@ -41843,19 +41881,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27">
@@ -41866,51 +41904,51 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28">
@@ -41921,51 +41959,51 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29">
@@ -41976,55 +42014,55 @@
         <v>56</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30">
@@ -45156,4 +45194,4554 @@
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.75"/>
+    <col customWidth="1" min="2" max="2" width="5.63"/>
+    <col customWidth="1" min="3" max="3" width="12.63"/>
+    <col customWidth="1" min="9" max="9" width="12.63"/>
+    <col customWidth="1" min="15" max="15" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="26">
+        <v>9.0</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="26">
+        <v>11.0</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="26">
+        <v>12.0</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="26">
+        <v>13.0</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="26">
+        <v>14.0</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="26">
+        <v>15.0</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="26">
+        <v>16.0</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="26">
+        <v>17.0</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="26">
+        <v>18.0</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="26">
+        <v>19.0</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="26">
+        <v>21.0</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="26">
+        <v>22.0</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="T24" s="30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="26">
+        <v>23.0</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="T25" s="30" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="26">
+        <v>24.0</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="T26" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="26">
+        <v>25.0</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="35">
+        <v>26.0</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="N28" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="O28" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q28" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="S28" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="M29" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="N29" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="O29" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q29" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="R29" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="S29" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="T29" s="45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="13"/>
+      <c r="E31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="13"/>
+      <c r="E32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="13"/>
+      <c r="E33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="13"/>
+      <c r="E34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="13"/>
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="13"/>
+      <c r="E36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="13"/>
+      <c r="E37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="13"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="13"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="13"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="13"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="13"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="13"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="13"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="13"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="13"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="13"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="13"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="13"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="13"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="13"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="13"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="13"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="13"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="13"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="13"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="13"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="13"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="13"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="13"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="13"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="13"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="13"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="13"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="13"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="13"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="13"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="13"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="13"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="13"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="13"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="13"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="13"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="13"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="13"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="13"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="13"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="13"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="13"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="13"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="13"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="13"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="13"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="13"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="13"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="13"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="13"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="13"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="13"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="13"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="13"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="13"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="13"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="13"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="13"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="13"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="13"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="13"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="13"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="13"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="13"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="13"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="13"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="13"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="13"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="13"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="13"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="13"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="13"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="13"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="13"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="13"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="13"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="13"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="13"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="13"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="13"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="13"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="13"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="13"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="13"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="13"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="13"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="13"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="13"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="13"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="13"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="13"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="13"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="13"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="13"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="13"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="13"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="13"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="13"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="13"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="13"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="13"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="13"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="13"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="13"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="13"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="13"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="13"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="13"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="13"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="13"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="13"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="13"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="13"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="13"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="13"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="13"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="13"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="13"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="13"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="13"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="13"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="13"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="13"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="13"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="13"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="13"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="13"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="13"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="13"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="13"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="13"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="13"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="13"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="13"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="13"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="13"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="13"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="13"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="13"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="13"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="13"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="13"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="13"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="13"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="13"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="13"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="13"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="13"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="13"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="13"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="13"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="13"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="13"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="13"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="13"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="13"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="13"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="13"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="13"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="13"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="13"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="13"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="13"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="13"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="13"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="13"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="13"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="13"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="13"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="13"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="13"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="13"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="13"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="13"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="13"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="13"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="13"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="13"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="13"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="13"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="13"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="13"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="13"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="13"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="13"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="13"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="13"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="13"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="13"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="13"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="13"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="13"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="13"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="13"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="13"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="13"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="13"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="13"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="13"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="13"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="13"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="13"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="13"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="13"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="13"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="13"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="13"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="13"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="13"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="13"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="13"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="13"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="13"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="13"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="13"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="13"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="13"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="13"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="13"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="13"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="13"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="13"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="13"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="13"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="13"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="13"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="13"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="13"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="13"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="13"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="13"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="13"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="13"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="13"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="13"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="13"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="13"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="13"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="13"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="13"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="13"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="13"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="13"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="13"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="13"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="13"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="13"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="13"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="13"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="13"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="13"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="13"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="13"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="13"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="13"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="13"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="13"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="13"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="13"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="13"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="13"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="13"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="13"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="13"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="13"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="13"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="13"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="13"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="13"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="13"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="13"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="13"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="13"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="13"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="13"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="13"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="13"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="13"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="13"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="13"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="13"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="13"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="13"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="13"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="13"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="13"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="13"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="13"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="13"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="13"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="13"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="13"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="13"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="13"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="13"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="13"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="13"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="13"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="13"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="13"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="13"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="13"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="13"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="13"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="13"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="13"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="13"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="13"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="13"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="13"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="13"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="13"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="13"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="13"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="13"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="13"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="13"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="13"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="13"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="13"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="13"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="13"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="13"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="13"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="13"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="13"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="13"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="13"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="13"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="13"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="13"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="13"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="13"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="13"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="13"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="13"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="13"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="13"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="13"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="13"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="13"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="13"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="13"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="13"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="13"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="13"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="13"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="13"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="13"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="13"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="13"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="13"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="13"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="13"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="13"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="13"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="13"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="13"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="13"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="13"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="13"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="13"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="13"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="13"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="13"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="13"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="13"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="13"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="13"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="13"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="13"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="13"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="13"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="13"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="13"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="13"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="13"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="13"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="13"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="13"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="13"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="13"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="13"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="13"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="13"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="13"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="13"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="13"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="13"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="13"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="13"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="13"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="13"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="13"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="13"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="13"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="13"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="13"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="13"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="13"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="13"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="13"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="13"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="13"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="13"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="13"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="13"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="13"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="13"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="13"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="13"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="13"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="13"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="13"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="13"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="13"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="13"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="13"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="13"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="13"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="13"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="13"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="13"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="13"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="13"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="13"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="13"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="13"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="13"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="13"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="13"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="13"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="13"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="13"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="13"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="13"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="13"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="13"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="13"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="13"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="13"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="13"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="13"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="13"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="13"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="13"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="13"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="13"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="13"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="13"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="13"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="13"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="13"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="13"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="13"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="13"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="13"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="13"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="13"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="13"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="13"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="13"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="13"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="13"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="13"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="13"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="13"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="13"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="13"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="13"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="13"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="13"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="13"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="13"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="13"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="13"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="13"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="13"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="13"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="13"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="13"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="13"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="13"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="13"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="13"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="13"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="13"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="13"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="13"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="13"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="13"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="13"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="13"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="13"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="13"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="13"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="13"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="13"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="13"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="13"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="13"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="13"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="13"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="13"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="13"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="13"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="13"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="13"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="13"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="13"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="13"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="13"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="13"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="13"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="13"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="13"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="13"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="13"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="13"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="13"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="13"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="13"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="13"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="13"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="13"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="13"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="13"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="13"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="13"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="13"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="13"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="13"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="13"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="13"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="13"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="13"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="13"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="13"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="13"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="13"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="13"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="13"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="13"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="13"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="13"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="13"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="13"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="13"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="13"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="13"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="13"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="13"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="13"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="13"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="13"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="13"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="13"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="13"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="13"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="13"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="13"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="13"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="13"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="13"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="13"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="13"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="13"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="13"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="13"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="13"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="13"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="13"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="13"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="13"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="13"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="13"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="13"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="13"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="13"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="13"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="13"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="13"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="13"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="13"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="13"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="13"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="13"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="13"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="13"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="13"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="13"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="13"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="13"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="13"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="13"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="13"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="13"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="13"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="13"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="13"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="13"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="13"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="13"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="13"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="13"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="13"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="13"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="13"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="13"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="13"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="13"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="13"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="13"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="13"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="13"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="13"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="13"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="13"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="13"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="13"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="13"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="13"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="13"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="13"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="13"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="13"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="13"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="13"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="13"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="13"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="13"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="13"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="13"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="13"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="13"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="13"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="13"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="13"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="13"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="13"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="13"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="13"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="13"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="13"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="13"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="13"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="13"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="13"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="13"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="13"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="13"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="13"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="13"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="13"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="13"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="13"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="13"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="13"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="13"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="13"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="13"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="13"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="13"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="13"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="13"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="13"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="13"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="13"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="13"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="13"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="13"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="13"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="13"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="13"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="13"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="13"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="13"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="13"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="13"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="13"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="13"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="13"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="13"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="13"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="13"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="13"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="13"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="13"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="13"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="13"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="13"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="13"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="13"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="13"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="13"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="13"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="13"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="13"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="13"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="13"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="13"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="13"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="13"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="13"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="13"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="13"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="13"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="13"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="13"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="13"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="13"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="13"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="13"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="13"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="13"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="13"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="13"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="13"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="13"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="13"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="13"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="13"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="13"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="13"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="13"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="13"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="13"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="13"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="13"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="13"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="13"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="13"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="13"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="13"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="13"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="13"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="13"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="13"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="13"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="13"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="13"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="13"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="13"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="13"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="13"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="13"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="13"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="13"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="13"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="13"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="13"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="13"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="13"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="13"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="13"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="13"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="13"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="13"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="13"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="13"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="13"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="13"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="13"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="13"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="13"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="13"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="13"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="13"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="13"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="13"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="13"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="13"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="13"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="13"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="13"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="13"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="13"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="13"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="13"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="13"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="13"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="13"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="13"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="13"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="13"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="13"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="13"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="13"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="13"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="13"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="13"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="13"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="13"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="13"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="13"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="13"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="13"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="13"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="13"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="13"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="13"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="13"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="13"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="13"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="13"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="13"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="13"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="13"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="13"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="13"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="13"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="13"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="13"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="13"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="13"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="13"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="13"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="13"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="13"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="13"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="13"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="13"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="13"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="13"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="13"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="13"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="13"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="13"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="13"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="13"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="13"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="13"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="13"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="13"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="13"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="13"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="13"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="13"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="13"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="13"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="13"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="13"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="13"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="13"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="13"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="13"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="13"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="13"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="13"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="13"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="13"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="13"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="13"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="13"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="13"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="13"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="13"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="13"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="13"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="13"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="13"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="13"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="13"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="13"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="13"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="13"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="13"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="13"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="13"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="13"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="13"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="13"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="13"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="13"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="13"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="13"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="13"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="13"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="13"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="13"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="13"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="13"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="13"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="13"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="13"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="13"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="13"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="13"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="13"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="13"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="13"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="13"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="13"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="13"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="13"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="13"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="13"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="13"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="13"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="13"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="13"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="13"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="13"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="13"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="13"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="13"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="13"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="13"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="13"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="13"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="13"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="13"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="13"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="13"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="13"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="13"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="13"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="13"/>
+    </row>
+    <row r="999">
+      <c r="B999" s="13"/>
+    </row>
+    <row r="1000">
+      <c r="B1000" s="13"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="435">
   <si>
     <t>hub</t>
   </si>
@@ -640,6 +640,9 @@
     <t>orbit</t>
   </si>
   <si>
+    <t>prototype</t>
+  </si>
+  <si>
     <t>waterfall</t>
   </si>
   <si>
@@ -674,6 +677,9 @@
   </si>
   <si>
     <t>spin</t>
+  </si>
+  <si>
+    <t>numeric</t>
   </si>
   <si>
     <t>stone</t>
@@ -1051,6 +1057,9 @@
     <t>recent</t>
   </si>
   <si>
+    <t>compact</t>
+  </si>
+  <si>
     <t>structure</t>
   </si>
   <si>
@@ -1085,6 +1094,9 @@
   </si>
   <si>
     <t>distinct</t>
+  </si>
+  <si>
+    <t>generic</t>
   </si>
   <si>
     <t>metro</t>
@@ -40964,33 +40976,35 @@
       <c r="J7" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="L7" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
@@ -41001,49 +41015,51 @@
         <v>34</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" s="29"/>
+        <v>219</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="L8" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O8" s="31" t="s">
         <v>91</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
@@ -41054,33 +41070,33 @@
         <v>35</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O9" s="31" t="s">
         <v>6</v>
@@ -41088,7 +41104,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="34"/>
@@ -41101,31 +41117,31 @@
         <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
@@ -41133,7 +41149,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
@@ -41146,31 +41162,31 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
@@ -41178,7 +41194,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
@@ -41191,31 +41207,31 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
@@ -41223,7 +41239,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -41236,31 +41252,31 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
@@ -41268,7 +41284,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
@@ -41281,31 +41297,31 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -41313,7 +41329,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -41326,31 +41342,31 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -41358,7 +41374,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -41371,31 +41387,31 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -41403,7 +41419,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -41416,31 +41432,31 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -41448,7 +41464,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -41461,31 +41477,31 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
@@ -41493,7 +41509,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="29" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -41506,31 +41522,31 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
@@ -41538,7 +41554,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -41551,31 +41567,31 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
@@ -41583,7 +41599,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="29" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -41596,31 +41612,31 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
@@ -41628,7 +41644,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -41641,33 +41657,33 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
@@ -41675,7 +41691,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="29" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -41688,49 +41704,51 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="K23" s="29"/>
+        <v>345</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>346</v>
+      </c>
       <c r="L23" s="29" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24">
@@ -41741,49 +41759,51 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="K24" s="29"/>
+        <v>358</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>359</v>
+      </c>
       <c r="L24" s="29" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25">
@@ -41794,51 +41814,51 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26">
@@ -41849,30 +41869,30 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
@@ -41881,19 +41901,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27">
@@ -41904,51 +41924,51 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28">
@@ -41959,51 +41979,51 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29">
@@ -42014,55 +42034,55 @@
         <v>56</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30">
@@ -45520,31 +45540,31 @@
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
@@ -45555,49 +45575,49 @@
         <v>34</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O8" s="31" t="s">
         <v>91</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
@@ -45608,31 +45628,31 @@
         <v>35</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O9" s="31" t="s">
         <v>6</v>
@@ -45640,7 +45660,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="34"/>
@@ -45653,31 +45673,31 @@
         <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
@@ -45685,7 +45705,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
@@ -45698,31 +45718,31 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
@@ -45730,7 +45750,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
@@ -45743,31 +45763,31 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
@@ -45775,7 +45795,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -45788,31 +45808,31 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
@@ -45820,7 +45840,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
@@ -45833,31 +45853,31 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -45865,7 +45885,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -45878,31 +45898,31 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -45910,7 +45930,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -45923,31 +45943,31 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -45955,7 +45975,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -45968,31 +45988,31 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -46000,7 +46020,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -46013,31 +46033,31 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
@@ -46045,7 +46065,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="29" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -46058,31 +46078,31 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
@@ -46090,7 +46110,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -46103,31 +46123,31 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
@@ -46135,7 +46155,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="29" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -46148,31 +46168,31 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
@@ -46180,7 +46200,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -46193,31 +46213,31 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
@@ -46225,7 +46245,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="29" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -46238,49 +46258,49 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24">
@@ -46291,49 +46311,49 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25">
@@ -46344,49 +46364,49 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26">
@@ -46397,32 +46417,32 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
@@ -46431,19 +46451,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27">
@@ -46454,51 +46474,51 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28">
@@ -46509,51 +46529,51 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29">
@@ -46564,55 +46584,55 @@
         <v>56</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="446">
   <si>
     <t>hub</t>
   </si>
@@ -745,6 +745,9 @@
     <t>torque</t>
   </si>
   <si>
+    <t>material</t>
+  </si>
+  <si>
     <t>nation</t>
   </si>
   <si>
@@ -767,6 +770,9 @@
   </si>
   <si>
     <t>experience</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
   </si>
   <si>
     <t>nuclear</t>
@@ -793,6 +799,9 @@
     <t>vector</t>
   </si>
   <si>
+    <t>scrutiny</t>
+  </si>
+  <si>
     <t>industry</t>
   </si>
   <si>
@@ -812,6 +821,9 @@
   </si>
   <si>
     <t>fraction</t>
+  </si>
+  <si>
+    <t>property</t>
   </si>
   <si>
     <t>collage</t>
@@ -838,6 +850,9 @@
     <t>section</t>
   </si>
   <si>
+    <t>report</t>
+  </si>
+  <si>
     <t>marble</t>
   </si>
   <si>
@@ -862,6 +877,9 @@
     <t>small</t>
   </si>
   <si>
+    <t>sponsor</t>
+  </si>
+  <si>
     <t>cyber</t>
   </si>
   <si>
@@ -884,6 +902,9 @@
   </si>
   <si>
     <t>solution</t>
+  </si>
+  <si>
+    <t>quarter</t>
   </si>
   <si>
     <t>free</t>
@@ -934,6 +955,9 @@
     <t>make</t>
   </si>
   <si>
+    <t>gather</t>
+  </si>
+  <si>
     <t>character</t>
   </si>
   <si>
@@ -956,6 +980,9 @@
   </si>
   <si>
     <t>matrix</t>
+  </si>
+  <si>
+    <t>committee</t>
   </si>
   <si>
     <t>civil</t>
@@ -982,6 +1009,9 @@
     <t>condition</t>
   </si>
   <si>
+    <t>compound</t>
+  </si>
+  <si>
     <t>pattern</t>
   </si>
   <si>
@@ -1004,6 +1034,9 @@
   </si>
   <si>
     <t>client</t>
+  </si>
+  <si>
+    <t>frequency</t>
   </si>
   <si>
     <t>chrome</t>
@@ -41133,15 +41166,17 @@
       <c r="J10" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="29"/>
+      <c r="K10" s="29" t="s">
+        <v>242</v>
+      </c>
       <c r="L10" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
@@ -41149,7 +41184,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
@@ -41162,31 +41197,33 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="K11" s="29"/>
+        <v>250</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="L11" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
@@ -41194,7 +41231,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
@@ -41207,31 +41244,33 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K12" s="29"/>
+        <v>259</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>260</v>
+      </c>
       <c r="L12" s="29" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
@@ -41239,7 +41278,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -41252,31 +41291,33 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="K13" s="29"/>
+        <v>267</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="L13" s="29" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
@@ -41284,7 +41325,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="29" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
@@ -41297,31 +41338,33 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="K14" s="29"/>
+        <v>276</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>277</v>
+      </c>
       <c r="L14" s="29" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -41329,7 +41372,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -41342,31 +41385,33 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="K15" s="29"/>
+        <v>285</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>286</v>
+      </c>
       <c r="L15" s="29" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -41374,7 +41419,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -41387,31 +41432,33 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="K16" s="29"/>
+        <v>294</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>295</v>
+      </c>
       <c r="L16" s="29" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -41419,7 +41466,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -41432,31 +41479,33 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="K17" s="29"/>
+        <v>303</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="L17" s="29" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -41464,7 +41513,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -41477,31 +41526,33 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K18" s="29"/>
+        <v>311</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>312</v>
+      </c>
       <c r="L18" s="29" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
@@ -41509,7 +41560,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="29" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -41522,31 +41573,33 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19" s="29"/>
+        <v>320</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>321</v>
+      </c>
       <c r="L19" s="29" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
@@ -41554,7 +41607,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="29" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -41567,31 +41620,33 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="K20" s="29"/>
+        <v>329</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>330</v>
+      </c>
       <c r="L20" s="29" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
@@ -41599,7 +41654,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="29" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -41612,31 +41667,33 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="K21" s="29"/>
+        <v>338</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>339</v>
+      </c>
       <c r="L21" s="29" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
@@ -41644,7 +41701,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="29" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -41657,33 +41714,33 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
@@ -41691,7 +41748,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="29" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -41704,51 +41761,51 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24">
@@ -41759,51 +41816,51 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25">
@@ -41814,51 +41871,51 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26">
@@ -41869,30 +41926,30 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
@@ -41901,19 +41958,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27">
@@ -41924,51 +41981,51 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28">
@@ -41979,51 +42036,51 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29">
@@ -42034,55 +42091,55 @@
         <v>56</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30">
@@ -45691,13 +45748,13 @@
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
@@ -45705,7 +45762,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
@@ -45718,31 +45775,31 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
@@ -45750,7 +45807,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
@@ -45763,31 +45820,31 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
@@ -45795,7 +45852,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -45808,31 +45865,31 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
@@ -45840,7 +45897,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="29" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
@@ -45853,31 +45910,31 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -45885,7 +45942,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -45898,31 +45955,31 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -45930,7 +45987,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -45943,31 +46000,31 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -45975,7 +46032,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -45988,31 +46045,31 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -46020,7 +46077,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -46033,31 +46090,31 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
@@ -46065,7 +46122,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="29" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -46078,31 +46135,31 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
@@ -46110,7 +46167,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="29" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -46123,31 +46180,31 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
@@ -46155,7 +46212,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="29" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -46168,31 +46225,31 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
@@ -46200,7 +46257,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="29" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -46213,31 +46270,31 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
@@ -46245,7 +46302,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="29" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -46258,49 +46315,49 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24">
@@ -46311,49 +46368,49 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25">
@@ -46364,49 +46421,49 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26">
@@ -46417,32 +46474,32 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
@@ -46451,19 +46508,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27">
@@ -46474,51 +46531,51 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28">
@@ -46529,51 +46586,51 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29">
@@ -46584,55 +46641,55 @@
         <v>56</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -9,7 +9,6 @@
     <sheet state="visible" name="noneOtherThanFood70" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="testPHP28" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="needyPacket42" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Copy of needyPacket42" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="457">
   <si>
     <t>hub</t>
   </si>
@@ -478,9 +477,15 @@
     <t>skeleton</t>
   </si>
   <si>
+    <t>earn</t>
+  </si>
+  <si>
     <t>tube</t>
   </si>
   <si>
+    <t>cone</t>
+  </si>
+  <si>
     <t>light</t>
   </si>
   <si>
@@ -517,9 +522,15 @@
     <t>nerve</t>
   </si>
   <si>
+    <t>profile</t>
+  </si>
+  <si>
     <t>cap</t>
   </si>
   <si>
+    <t>trace</t>
+  </si>
+  <si>
     <t>cabin</t>
   </si>
   <si>
@@ -556,9 +567,15 @@
     <t>palm</t>
   </si>
   <si>
+    <t>school</t>
+  </si>
+  <si>
     <t>channel</t>
   </si>
   <si>
+    <t>slate</t>
+  </si>
+  <si>
     <t>team</t>
   </si>
   <si>
@@ -1198,9 +1215,15 @@
     <t>wet</t>
   </si>
   <si>
+    <t>province</t>
+  </si>
+  <si>
     <t>mix</t>
   </si>
   <si>
+    <t>pulse</t>
+  </si>
+  <si>
     <t>sight</t>
   </si>
   <si>
@@ -1234,9 +1257,15 @@
     <t>bent</t>
   </si>
   <si>
+    <t>idea</t>
+  </si>
+  <si>
     <t>shuffle</t>
   </si>
   <si>
+    <t>abstract</t>
+  </si>
+  <si>
     <t>boat</t>
   </si>
   <si>
@@ -1273,9 +1302,15 @@
     <t>vibrant</t>
   </si>
   <si>
+    <t>admit</t>
+  </si>
+  <si>
     <t>aid</t>
   </si>
   <si>
+    <t>stamp</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
@@ -1352,9 +1387,6 @@
   </si>
   <si>
     <t>sea</t>
-  </si>
-  <si>
-    <t>province</t>
   </si>
 </sst>
 </file>
@@ -1956,10 +1988,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -40775,49 +40803,53 @@
       <c r="D3" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>153</v>
+      </c>
       <c r="F3" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="23"/>
+        <v>154</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>155</v>
+      </c>
       <c r="H3" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O3" s="25" t="s">
         <v>86</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -40828,51 +40860,55 @@
         <v>30</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="29"/>
+        <v>167</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>168</v>
+      </c>
       <c r="F4" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>170</v>
+      </c>
       <c r="H4" s="30" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O4" s="31" t="s">
         <v>87</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -40883,51 +40919,55 @@
         <v>31</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="29"/>
+        <v>182</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="F5" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>184</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>185</v>
+      </c>
       <c r="H5" s="30" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>88</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6">
@@ -40938,51 +40978,51 @@
         <v>32</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O6" s="31" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7">
@@ -40993,51 +41033,51 @@
         <v>33</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
@@ -41048,51 +41088,51 @@
         <v>34</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="O8" s="31" t="s">
         <v>91</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
@@ -41103,33 +41143,33 @@
         <v>35</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="O9" s="31" t="s">
         <v>6</v>
@@ -41137,7 +41177,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="29" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="34"/>
@@ -41150,33 +41190,33 @@
         <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
@@ -41184,7 +41224,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="29" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
@@ -41197,33 +41237,33 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
@@ -41231,7 +41271,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="29" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
@@ -41244,33 +41284,33 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
@@ -41278,7 +41318,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -41291,33 +41331,33 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
@@ -41325,7 +41365,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="29" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
@@ -41338,33 +41378,33 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -41372,7 +41412,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -41385,33 +41425,33 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -41419,7 +41459,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -41432,33 +41472,33 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -41466,7 +41506,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -41479,33 +41519,33 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>113</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -41513,7 +41553,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -41526,33 +41566,33 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
@@ -41560,7 +41600,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="29" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -41573,33 +41613,33 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
@@ -41607,7 +41647,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="29" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -41620,33 +41660,33 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
@@ -41654,7 +41694,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="29" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -41667,33 +41707,33 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
@@ -41701,7 +41741,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="29" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -41714,33 +41754,33 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
@@ -41748,7 +41788,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="29" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -41761,51 +41801,51 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24">
@@ -41816,51 +41856,51 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25">
@@ -41871,51 +41911,51 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26">
@@ -41926,30 +41966,34 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="E26" s="29"/>
+        <v>398</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>399</v>
+      </c>
       <c r="F26" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="G26" s="29"/>
+        <v>400</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>401</v>
+      </c>
       <c r="H26" s="30" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
@@ -41958,19 +42002,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27">
@@ -41981,51 +42025,55 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="E27" s="29"/>
+        <v>412</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>413</v>
+      </c>
       <c r="F27" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="G27" s="29"/>
+        <v>414</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>415</v>
+      </c>
       <c r="H27" s="30" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28">
@@ -42036,51 +42084,55 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="E28" s="38"/>
+        <v>427</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>428</v>
+      </c>
       <c r="F28" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="G28" s="38"/>
+        <v>429</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>430</v>
+      </c>
       <c r="H28" s="39" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29">
@@ -42091,55 +42143,55 @@
         <v>56</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30">
@@ -45271,4554 +45323,4 @@
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="2.75"/>
-    <col customWidth="1" min="2" max="2" width="5.63"/>
-    <col customWidth="1" min="3" max="3" width="12.63"/>
-    <col customWidth="1" min="9" max="9" width="12.63"/>
-    <col customWidth="1" min="15" max="15" width="12.63"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="S4" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="T4" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="S5" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="T5" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="S6" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="T6" s="30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="T7" s="30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="T8" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="26">
-        <v>8.0</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="26">
-        <v>9.0</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="26">
-        <v>10.0</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="26">
-        <v>12.0</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="O14" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="26">
-        <v>13.0</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="26">
-        <v>14.0</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="O16" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="26">
-        <v>15.0</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="26">
-        <v>16.0</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="26">
-        <v>17.0</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="26">
-        <v>18.0</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="26">
-        <v>19.0</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="26">
-        <v>20.0</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="O22" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="26">
-        <v>21.0</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="M23" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="S23" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="T23" s="30" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="26">
-        <v>22.0</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="S24" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="T24" s="30" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="26">
-        <v>23.0</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="M25" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="O25" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="P25" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q25" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="R25" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="S25" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="T25" s="30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="26">
-        <v>24.0</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="M26" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="O26" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q26" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="R26" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="S26" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="T26" s="30" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="26">
-        <v>25.0</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="O27" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="P27" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q27" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="R27" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="S27" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="T27" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="35">
-        <v>26.0</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="M28" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="O28" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="P28" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q28" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="R28" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="S28" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="T28" s="39" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>432</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="H29" s="45" t="s">
-        <v>434</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>435</v>
-      </c>
-      <c r="K29" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="L29" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="M29" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="N29" s="45" t="s">
-        <v>439</v>
-      </c>
-      <c r="O29" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="P29" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q29" s="44" t="s">
-        <v>441</v>
-      </c>
-      <c r="R29" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="S29" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="T29" s="45" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="13"/>
-      <c r="E31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="13"/>
-      <c r="E32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="13"/>
-      <c r="E33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="13"/>
-      <c r="E34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="13"/>
-      <c r="E35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="13"/>
-      <c r="E36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R36" s="3"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="13"/>
-      <c r="E37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="13"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="13"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="13"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="13"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="13"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="13"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="13"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="13"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="13"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="13"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="13"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="13"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="13"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="13"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="13"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="13"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="13"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="13"/>
-    </row>
-    <row r="58">
-      <c r="B58" s="13"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="13"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="13"/>
-    </row>
-    <row r="62">
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63">
-      <c r="B63" s="13"/>
-    </row>
-    <row r="64">
-      <c r="B64" s="13"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66">
-      <c r="B66" s="13"/>
-    </row>
-    <row r="67">
-      <c r="B67" s="13"/>
-    </row>
-    <row r="68">
-      <c r="B68" s="13"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="13"/>
-    </row>
-    <row r="70">
-      <c r="B70" s="13"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="13"/>
-    </row>
-    <row r="72">
-      <c r="B72" s="13"/>
-    </row>
-    <row r="73">
-      <c r="B73" s="13"/>
-    </row>
-    <row r="74">
-      <c r="B74" s="13"/>
-    </row>
-    <row r="75">
-      <c r="B75" s="13"/>
-    </row>
-    <row r="76">
-      <c r="B76" s="13"/>
-    </row>
-    <row r="77">
-      <c r="B77" s="13"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="13"/>
-    </row>
-    <row r="79">
-      <c r="B79" s="13"/>
-    </row>
-    <row r="80">
-      <c r="B80" s="13"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="13"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="13"/>
-    </row>
-    <row r="83">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="13"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="13"/>
-    </row>
-    <row r="86">
-      <c r="B86" s="13"/>
-    </row>
-    <row r="87">
-      <c r="B87" s="13"/>
-    </row>
-    <row r="88">
-      <c r="B88" s="13"/>
-    </row>
-    <row r="89">
-      <c r="B89" s="13"/>
-    </row>
-    <row r="90">
-      <c r="B90" s="13"/>
-    </row>
-    <row r="91">
-      <c r="B91" s="13"/>
-    </row>
-    <row r="92">
-      <c r="B92" s="13"/>
-    </row>
-    <row r="93">
-      <c r="B93" s="13"/>
-    </row>
-    <row r="94">
-      <c r="B94" s="13"/>
-    </row>
-    <row r="95">
-      <c r="B95" s="13"/>
-    </row>
-    <row r="96">
-      <c r="B96" s="13"/>
-    </row>
-    <row r="97">
-      <c r="B97" s="13"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="13"/>
-    </row>
-    <row r="99">
-      <c r="B99" s="13"/>
-    </row>
-    <row r="100">
-      <c r="B100" s="13"/>
-    </row>
-    <row r="101">
-      <c r="B101" s="13"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="13"/>
-    </row>
-    <row r="103">
-      <c r="B103" s="13"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="13"/>
-    </row>
-    <row r="105">
-      <c r="B105" s="13"/>
-    </row>
-    <row r="106">
-      <c r="B106" s="13"/>
-    </row>
-    <row r="107">
-      <c r="B107" s="13"/>
-    </row>
-    <row r="108">
-      <c r="B108" s="13"/>
-    </row>
-    <row r="109">
-      <c r="B109" s="13"/>
-    </row>
-    <row r="110">
-      <c r="B110" s="13"/>
-    </row>
-    <row r="111">
-      <c r="B111" s="13"/>
-    </row>
-    <row r="112">
-      <c r="B112" s="13"/>
-    </row>
-    <row r="113">
-      <c r="B113" s="13"/>
-    </row>
-    <row r="114">
-      <c r="B114" s="13"/>
-    </row>
-    <row r="115">
-      <c r="B115" s="13"/>
-    </row>
-    <row r="116">
-      <c r="B116" s="13"/>
-    </row>
-    <row r="117">
-      <c r="B117" s="13"/>
-    </row>
-    <row r="118">
-      <c r="B118" s="13"/>
-    </row>
-    <row r="119">
-      <c r="B119" s="13"/>
-    </row>
-    <row r="120">
-      <c r="B120" s="13"/>
-    </row>
-    <row r="121">
-      <c r="B121" s="13"/>
-    </row>
-    <row r="122">
-      <c r="B122" s="13"/>
-    </row>
-    <row r="123">
-      <c r="B123" s="13"/>
-    </row>
-    <row r="124">
-      <c r="B124" s="13"/>
-    </row>
-    <row r="125">
-      <c r="B125" s="13"/>
-    </row>
-    <row r="126">
-      <c r="B126" s="13"/>
-    </row>
-    <row r="127">
-      <c r="B127" s="13"/>
-    </row>
-    <row r="128">
-      <c r="B128" s="13"/>
-    </row>
-    <row r="129">
-      <c r="B129" s="13"/>
-    </row>
-    <row r="130">
-      <c r="B130" s="13"/>
-    </row>
-    <row r="131">
-      <c r="B131" s="13"/>
-    </row>
-    <row r="132">
-      <c r="B132" s="13"/>
-    </row>
-    <row r="133">
-      <c r="B133" s="13"/>
-    </row>
-    <row r="134">
-      <c r="B134" s="13"/>
-    </row>
-    <row r="135">
-      <c r="B135" s="13"/>
-    </row>
-    <row r="136">
-      <c r="B136" s="13"/>
-    </row>
-    <row r="137">
-      <c r="B137" s="13"/>
-    </row>
-    <row r="138">
-      <c r="B138" s="13"/>
-    </row>
-    <row r="139">
-      <c r="B139" s="13"/>
-    </row>
-    <row r="140">
-      <c r="B140" s="13"/>
-    </row>
-    <row r="141">
-      <c r="B141" s="13"/>
-    </row>
-    <row r="142">
-      <c r="B142" s="13"/>
-    </row>
-    <row r="143">
-      <c r="B143" s="13"/>
-    </row>
-    <row r="144">
-      <c r="B144" s="13"/>
-    </row>
-    <row r="145">
-      <c r="B145" s="13"/>
-    </row>
-    <row r="146">
-      <c r="B146" s="13"/>
-    </row>
-    <row r="147">
-      <c r="B147" s="13"/>
-    </row>
-    <row r="148">
-      <c r="B148" s="13"/>
-    </row>
-    <row r="149">
-      <c r="B149" s="13"/>
-    </row>
-    <row r="150">
-      <c r="B150" s="13"/>
-    </row>
-    <row r="151">
-      <c r="B151" s="13"/>
-    </row>
-    <row r="152">
-      <c r="B152" s="13"/>
-    </row>
-    <row r="153">
-      <c r="B153" s="13"/>
-    </row>
-    <row r="154">
-      <c r="B154" s="13"/>
-    </row>
-    <row r="155">
-      <c r="B155" s="13"/>
-    </row>
-    <row r="156">
-      <c r="B156" s="13"/>
-    </row>
-    <row r="157">
-      <c r="B157" s="13"/>
-    </row>
-    <row r="158">
-      <c r="B158" s="13"/>
-    </row>
-    <row r="159">
-      <c r="B159" s="13"/>
-    </row>
-    <row r="160">
-      <c r="B160" s="13"/>
-    </row>
-    <row r="161">
-      <c r="B161" s="13"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="13"/>
-    </row>
-    <row r="163">
-      <c r="B163" s="13"/>
-    </row>
-    <row r="164">
-      <c r="B164" s="13"/>
-    </row>
-    <row r="165">
-      <c r="B165" s="13"/>
-    </row>
-    <row r="166">
-      <c r="B166" s="13"/>
-    </row>
-    <row r="167">
-      <c r="B167" s="13"/>
-    </row>
-    <row r="168">
-      <c r="B168" s="13"/>
-    </row>
-    <row r="169">
-      <c r="B169" s="13"/>
-    </row>
-    <row r="170">
-      <c r="B170" s="13"/>
-    </row>
-    <row r="171">
-      <c r="B171" s="13"/>
-    </row>
-    <row r="172">
-      <c r="B172" s="13"/>
-    </row>
-    <row r="173">
-      <c r="B173" s="13"/>
-    </row>
-    <row r="174">
-      <c r="B174" s="13"/>
-    </row>
-    <row r="175">
-      <c r="B175" s="13"/>
-    </row>
-    <row r="176">
-      <c r="B176" s="13"/>
-    </row>
-    <row r="177">
-      <c r="B177" s="13"/>
-    </row>
-    <row r="178">
-      <c r="B178" s="13"/>
-    </row>
-    <row r="179">
-      <c r="B179" s="13"/>
-    </row>
-    <row r="180">
-      <c r="B180" s="13"/>
-    </row>
-    <row r="181">
-      <c r="B181" s="13"/>
-    </row>
-    <row r="182">
-      <c r="B182" s="13"/>
-    </row>
-    <row r="183">
-      <c r="B183" s="13"/>
-    </row>
-    <row r="184">
-      <c r="B184" s="13"/>
-    </row>
-    <row r="185">
-      <c r="B185" s="13"/>
-    </row>
-    <row r="186">
-      <c r="B186" s="13"/>
-    </row>
-    <row r="187">
-      <c r="B187" s="13"/>
-    </row>
-    <row r="188">
-      <c r="B188" s="13"/>
-    </row>
-    <row r="189">
-      <c r="B189" s="13"/>
-    </row>
-    <row r="190">
-      <c r="B190" s="13"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="13"/>
-    </row>
-    <row r="192">
-      <c r="B192" s="13"/>
-    </row>
-    <row r="193">
-      <c r="B193" s="13"/>
-    </row>
-    <row r="194">
-      <c r="B194" s="13"/>
-    </row>
-    <row r="195">
-      <c r="B195" s="13"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="13"/>
-    </row>
-    <row r="197">
-      <c r="B197" s="13"/>
-    </row>
-    <row r="198">
-      <c r="B198" s="13"/>
-    </row>
-    <row r="199">
-      <c r="B199" s="13"/>
-    </row>
-    <row r="200">
-      <c r="B200" s="13"/>
-    </row>
-    <row r="201">
-      <c r="B201" s="13"/>
-    </row>
-    <row r="202">
-      <c r="B202" s="13"/>
-    </row>
-    <row r="203">
-      <c r="B203" s="13"/>
-    </row>
-    <row r="204">
-      <c r="B204" s="13"/>
-    </row>
-    <row r="205">
-      <c r="B205" s="13"/>
-    </row>
-    <row r="206">
-      <c r="B206" s="13"/>
-    </row>
-    <row r="207">
-      <c r="B207" s="13"/>
-    </row>
-    <row r="208">
-      <c r="B208" s="13"/>
-    </row>
-    <row r="209">
-      <c r="B209" s="13"/>
-    </row>
-    <row r="210">
-      <c r="B210" s="13"/>
-    </row>
-    <row r="211">
-      <c r="B211" s="13"/>
-    </row>
-    <row r="212">
-      <c r="B212" s="13"/>
-    </row>
-    <row r="213">
-      <c r="B213" s="13"/>
-    </row>
-    <row r="214">
-      <c r="B214" s="13"/>
-    </row>
-    <row r="215">
-      <c r="B215" s="13"/>
-    </row>
-    <row r="216">
-      <c r="B216" s="13"/>
-    </row>
-    <row r="217">
-      <c r="B217" s="13"/>
-    </row>
-    <row r="218">
-      <c r="B218" s="13"/>
-    </row>
-    <row r="219">
-      <c r="B219" s="13"/>
-    </row>
-    <row r="220">
-      <c r="B220" s="13"/>
-    </row>
-    <row r="221">
-      <c r="B221" s="13"/>
-    </row>
-    <row r="222">
-      <c r="B222" s="13"/>
-    </row>
-    <row r="223">
-      <c r="B223" s="13"/>
-    </row>
-    <row r="224">
-      <c r="B224" s="13"/>
-    </row>
-    <row r="225">
-      <c r="B225" s="13"/>
-    </row>
-    <row r="226">
-      <c r="B226" s="13"/>
-    </row>
-    <row r="227">
-      <c r="B227" s="13"/>
-    </row>
-    <row r="228">
-      <c r="B228" s="13"/>
-    </row>
-    <row r="229">
-      <c r="B229" s="13"/>
-    </row>
-    <row r="230">
-      <c r="B230" s="13"/>
-    </row>
-    <row r="231">
-      <c r="B231" s="13"/>
-    </row>
-    <row r="232">
-      <c r="B232" s="13"/>
-    </row>
-    <row r="233">
-      <c r="B233" s="13"/>
-    </row>
-    <row r="234">
-      <c r="B234" s="13"/>
-    </row>
-    <row r="235">
-      <c r="B235" s="13"/>
-    </row>
-    <row r="236">
-      <c r="B236" s="13"/>
-    </row>
-    <row r="237">
-      <c r="B237" s="13"/>
-    </row>
-    <row r="238">
-      <c r="B238" s="13"/>
-    </row>
-    <row r="239">
-      <c r="B239" s="13"/>
-    </row>
-    <row r="240">
-      <c r="B240" s="13"/>
-    </row>
-    <row r="241">
-      <c r="B241" s="13"/>
-    </row>
-    <row r="242">
-      <c r="B242" s="13"/>
-    </row>
-    <row r="243">
-      <c r="B243" s="13"/>
-    </row>
-    <row r="244">
-      <c r="B244" s="13"/>
-    </row>
-    <row r="245">
-      <c r="B245" s="13"/>
-    </row>
-    <row r="246">
-      <c r="B246" s="13"/>
-    </row>
-    <row r="247">
-      <c r="B247" s="13"/>
-    </row>
-    <row r="248">
-      <c r="B248" s="13"/>
-    </row>
-    <row r="249">
-      <c r="B249" s="13"/>
-    </row>
-    <row r="250">
-      <c r="B250" s="13"/>
-    </row>
-    <row r="251">
-      <c r="B251" s="13"/>
-    </row>
-    <row r="252">
-      <c r="B252" s="13"/>
-    </row>
-    <row r="253">
-      <c r="B253" s="13"/>
-    </row>
-    <row r="254">
-      <c r="B254" s="13"/>
-    </row>
-    <row r="255">
-      <c r="B255" s="13"/>
-    </row>
-    <row r="256">
-      <c r="B256" s="13"/>
-    </row>
-    <row r="257">
-      <c r="B257" s="13"/>
-    </row>
-    <row r="258">
-      <c r="B258" s="13"/>
-    </row>
-    <row r="259">
-      <c r="B259" s="13"/>
-    </row>
-    <row r="260">
-      <c r="B260" s="13"/>
-    </row>
-    <row r="261">
-      <c r="B261" s="13"/>
-    </row>
-    <row r="262">
-      <c r="B262" s="13"/>
-    </row>
-    <row r="263">
-      <c r="B263" s="13"/>
-    </row>
-    <row r="264">
-      <c r="B264" s="13"/>
-    </row>
-    <row r="265">
-      <c r="B265" s="13"/>
-    </row>
-    <row r="266">
-      <c r="B266" s="13"/>
-    </row>
-    <row r="267">
-      <c r="B267" s="13"/>
-    </row>
-    <row r="268">
-      <c r="B268" s="13"/>
-    </row>
-    <row r="269">
-      <c r="B269" s="13"/>
-    </row>
-    <row r="270">
-      <c r="B270" s="13"/>
-    </row>
-    <row r="271">
-      <c r="B271" s="13"/>
-    </row>
-    <row r="272">
-      <c r="B272" s="13"/>
-    </row>
-    <row r="273">
-      <c r="B273" s="13"/>
-    </row>
-    <row r="274">
-      <c r="B274" s="13"/>
-    </row>
-    <row r="275">
-      <c r="B275" s="13"/>
-    </row>
-    <row r="276">
-      <c r="B276" s="13"/>
-    </row>
-    <row r="277">
-      <c r="B277" s="13"/>
-    </row>
-    <row r="278">
-      <c r="B278" s="13"/>
-    </row>
-    <row r="279">
-      <c r="B279" s="13"/>
-    </row>
-    <row r="280">
-      <c r="B280" s="13"/>
-    </row>
-    <row r="281">
-      <c r="B281" s="13"/>
-    </row>
-    <row r="282">
-      <c r="B282" s="13"/>
-    </row>
-    <row r="283">
-      <c r="B283" s="13"/>
-    </row>
-    <row r="284">
-      <c r="B284" s="13"/>
-    </row>
-    <row r="285">
-      <c r="B285" s="13"/>
-    </row>
-    <row r="286">
-      <c r="B286" s="13"/>
-    </row>
-    <row r="287">
-      <c r="B287" s="13"/>
-    </row>
-    <row r="288">
-      <c r="B288" s="13"/>
-    </row>
-    <row r="289">
-      <c r="B289" s="13"/>
-    </row>
-    <row r="290">
-      <c r="B290" s="13"/>
-    </row>
-    <row r="291">
-      <c r="B291" s="13"/>
-    </row>
-    <row r="292">
-      <c r="B292" s="13"/>
-    </row>
-    <row r="293">
-      <c r="B293" s="13"/>
-    </row>
-    <row r="294">
-      <c r="B294" s="13"/>
-    </row>
-    <row r="295">
-      <c r="B295" s="13"/>
-    </row>
-    <row r="296">
-      <c r="B296" s="13"/>
-    </row>
-    <row r="297">
-      <c r="B297" s="13"/>
-    </row>
-    <row r="298">
-      <c r="B298" s="13"/>
-    </row>
-    <row r="299">
-      <c r="B299" s="13"/>
-    </row>
-    <row r="300">
-      <c r="B300" s="13"/>
-    </row>
-    <row r="301">
-      <c r="B301" s="13"/>
-    </row>
-    <row r="302">
-      <c r="B302" s="13"/>
-    </row>
-    <row r="303">
-      <c r="B303" s="13"/>
-    </row>
-    <row r="304">
-      <c r="B304" s="13"/>
-    </row>
-    <row r="305">
-      <c r="B305" s="13"/>
-    </row>
-    <row r="306">
-      <c r="B306" s="13"/>
-    </row>
-    <row r="307">
-      <c r="B307" s="13"/>
-    </row>
-    <row r="308">
-      <c r="B308" s="13"/>
-    </row>
-    <row r="309">
-      <c r="B309" s="13"/>
-    </row>
-    <row r="310">
-      <c r="B310" s="13"/>
-    </row>
-    <row r="311">
-      <c r="B311" s="13"/>
-    </row>
-    <row r="312">
-      <c r="B312" s="13"/>
-    </row>
-    <row r="313">
-      <c r="B313" s="13"/>
-    </row>
-    <row r="314">
-      <c r="B314" s="13"/>
-    </row>
-    <row r="315">
-      <c r="B315" s="13"/>
-    </row>
-    <row r="316">
-      <c r="B316" s="13"/>
-    </row>
-    <row r="317">
-      <c r="B317" s="13"/>
-    </row>
-    <row r="318">
-      <c r="B318" s="13"/>
-    </row>
-    <row r="319">
-      <c r="B319" s="13"/>
-    </row>
-    <row r="320">
-      <c r="B320" s="13"/>
-    </row>
-    <row r="321">
-      <c r="B321" s="13"/>
-    </row>
-    <row r="322">
-      <c r="B322" s="13"/>
-    </row>
-    <row r="323">
-      <c r="B323" s="13"/>
-    </row>
-    <row r="324">
-      <c r="B324" s="13"/>
-    </row>
-    <row r="325">
-      <c r="B325" s="13"/>
-    </row>
-    <row r="326">
-      <c r="B326" s="13"/>
-    </row>
-    <row r="327">
-      <c r="B327" s="13"/>
-    </row>
-    <row r="328">
-      <c r="B328" s="13"/>
-    </row>
-    <row r="329">
-      <c r="B329" s="13"/>
-    </row>
-    <row r="330">
-      <c r="B330" s="13"/>
-    </row>
-    <row r="331">
-      <c r="B331" s="13"/>
-    </row>
-    <row r="332">
-      <c r="B332" s="13"/>
-    </row>
-    <row r="333">
-      <c r="B333" s="13"/>
-    </row>
-    <row r="334">
-      <c r="B334" s="13"/>
-    </row>
-    <row r="335">
-      <c r="B335" s="13"/>
-    </row>
-    <row r="336">
-      <c r="B336" s="13"/>
-    </row>
-    <row r="337">
-      <c r="B337" s="13"/>
-    </row>
-    <row r="338">
-      <c r="B338" s="13"/>
-    </row>
-    <row r="339">
-      <c r="B339" s="13"/>
-    </row>
-    <row r="340">
-      <c r="B340" s="13"/>
-    </row>
-    <row r="341">
-      <c r="B341" s="13"/>
-    </row>
-    <row r="342">
-      <c r="B342" s="13"/>
-    </row>
-    <row r="343">
-      <c r="B343" s="13"/>
-    </row>
-    <row r="344">
-      <c r="B344" s="13"/>
-    </row>
-    <row r="345">
-      <c r="B345" s="13"/>
-    </row>
-    <row r="346">
-      <c r="B346" s="13"/>
-    </row>
-    <row r="347">
-      <c r="B347" s="13"/>
-    </row>
-    <row r="348">
-      <c r="B348" s="13"/>
-    </row>
-    <row r="349">
-      <c r="B349" s="13"/>
-    </row>
-    <row r="350">
-      <c r="B350" s="13"/>
-    </row>
-    <row r="351">
-      <c r="B351" s="13"/>
-    </row>
-    <row r="352">
-      <c r="B352" s="13"/>
-    </row>
-    <row r="353">
-      <c r="B353" s="13"/>
-    </row>
-    <row r="354">
-      <c r="B354" s="13"/>
-    </row>
-    <row r="355">
-      <c r="B355" s="13"/>
-    </row>
-    <row r="356">
-      <c r="B356" s="13"/>
-    </row>
-    <row r="357">
-      <c r="B357" s="13"/>
-    </row>
-    <row r="358">
-      <c r="B358" s="13"/>
-    </row>
-    <row r="359">
-      <c r="B359" s="13"/>
-    </row>
-    <row r="360">
-      <c r="B360" s="13"/>
-    </row>
-    <row r="361">
-      <c r="B361" s="13"/>
-    </row>
-    <row r="362">
-      <c r="B362" s="13"/>
-    </row>
-    <row r="363">
-      <c r="B363" s="13"/>
-    </row>
-    <row r="364">
-      <c r="B364" s="13"/>
-    </row>
-    <row r="365">
-      <c r="B365" s="13"/>
-    </row>
-    <row r="366">
-      <c r="B366" s="13"/>
-    </row>
-    <row r="367">
-      <c r="B367" s="13"/>
-    </row>
-    <row r="368">
-      <c r="B368" s="13"/>
-    </row>
-    <row r="369">
-      <c r="B369" s="13"/>
-    </row>
-    <row r="370">
-      <c r="B370" s="13"/>
-    </row>
-    <row r="371">
-      <c r="B371" s="13"/>
-    </row>
-    <row r="372">
-      <c r="B372" s="13"/>
-    </row>
-    <row r="373">
-      <c r="B373" s="13"/>
-    </row>
-    <row r="374">
-      <c r="B374" s="13"/>
-    </row>
-    <row r="375">
-      <c r="B375" s="13"/>
-    </row>
-    <row r="376">
-      <c r="B376" s="13"/>
-    </row>
-    <row r="377">
-      <c r="B377" s="13"/>
-    </row>
-    <row r="378">
-      <c r="B378" s="13"/>
-    </row>
-    <row r="379">
-      <c r="B379" s="13"/>
-    </row>
-    <row r="380">
-      <c r="B380" s="13"/>
-    </row>
-    <row r="381">
-      <c r="B381" s="13"/>
-    </row>
-    <row r="382">
-      <c r="B382" s="13"/>
-    </row>
-    <row r="383">
-      <c r="B383" s="13"/>
-    </row>
-    <row r="384">
-      <c r="B384" s="13"/>
-    </row>
-    <row r="385">
-      <c r="B385" s="13"/>
-    </row>
-    <row r="386">
-      <c r="B386" s="13"/>
-    </row>
-    <row r="387">
-      <c r="B387" s="13"/>
-    </row>
-    <row r="388">
-      <c r="B388" s="13"/>
-    </row>
-    <row r="389">
-      <c r="B389" s="13"/>
-    </row>
-    <row r="390">
-      <c r="B390" s="13"/>
-    </row>
-    <row r="391">
-      <c r="B391" s="13"/>
-    </row>
-    <row r="392">
-      <c r="B392" s="13"/>
-    </row>
-    <row r="393">
-      <c r="B393" s="13"/>
-    </row>
-    <row r="394">
-      <c r="B394" s="13"/>
-    </row>
-    <row r="395">
-      <c r="B395" s="13"/>
-    </row>
-    <row r="396">
-      <c r="B396" s="13"/>
-    </row>
-    <row r="397">
-      <c r="B397" s="13"/>
-    </row>
-    <row r="398">
-      <c r="B398" s="13"/>
-    </row>
-    <row r="399">
-      <c r="B399" s="13"/>
-    </row>
-    <row r="400">
-      <c r="B400" s="13"/>
-    </row>
-    <row r="401">
-      <c r="B401" s="13"/>
-    </row>
-    <row r="402">
-      <c r="B402" s="13"/>
-    </row>
-    <row r="403">
-      <c r="B403" s="13"/>
-    </row>
-    <row r="404">
-      <c r="B404" s="13"/>
-    </row>
-    <row r="405">
-      <c r="B405" s="13"/>
-    </row>
-    <row r="406">
-      <c r="B406" s="13"/>
-    </row>
-    <row r="407">
-      <c r="B407" s="13"/>
-    </row>
-    <row r="408">
-      <c r="B408" s="13"/>
-    </row>
-    <row r="409">
-      <c r="B409" s="13"/>
-    </row>
-    <row r="410">
-      <c r="B410" s="13"/>
-    </row>
-    <row r="411">
-      <c r="B411" s="13"/>
-    </row>
-    <row r="412">
-      <c r="B412" s="13"/>
-    </row>
-    <row r="413">
-      <c r="B413" s="13"/>
-    </row>
-    <row r="414">
-      <c r="B414" s="13"/>
-    </row>
-    <row r="415">
-      <c r="B415" s="13"/>
-    </row>
-    <row r="416">
-      <c r="B416" s="13"/>
-    </row>
-    <row r="417">
-      <c r="B417" s="13"/>
-    </row>
-    <row r="418">
-      <c r="B418" s="13"/>
-    </row>
-    <row r="419">
-      <c r="B419" s="13"/>
-    </row>
-    <row r="420">
-      <c r="B420" s="13"/>
-    </row>
-    <row r="421">
-      <c r="B421" s="13"/>
-    </row>
-    <row r="422">
-      <c r="B422" s="13"/>
-    </row>
-    <row r="423">
-      <c r="B423" s="13"/>
-    </row>
-    <row r="424">
-      <c r="B424" s="13"/>
-    </row>
-    <row r="425">
-      <c r="B425" s="13"/>
-    </row>
-    <row r="426">
-      <c r="B426" s="13"/>
-    </row>
-    <row r="427">
-      <c r="B427" s="13"/>
-    </row>
-    <row r="428">
-      <c r="B428" s="13"/>
-    </row>
-    <row r="429">
-      <c r="B429" s="13"/>
-    </row>
-    <row r="430">
-      <c r="B430" s="13"/>
-    </row>
-    <row r="431">
-      <c r="B431" s="13"/>
-    </row>
-    <row r="432">
-      <c r="B432" s="13"/>
-    </row>
-    <row r="433">
-      <c r="B433" s="13"/>
-    </row>
-    <row r="434">
-      <c r="B434" s="13"/>
-    </row>
-    <row r="435">
-      <c r="B435" s="13"/>
-    </row>
-    <row r="436">
-      <c r="B436" s="13"/>
-    </row>
-    <row r="437">
-      <c r="B437" s="13"/>
-    </row>
-    <row r="438">
-      <c r="B438" s="13"/>
-    </row>
-    <row r="439">
-      <c r="B439" s="13"/>
-    </row>
-    <row r="440">
-      <c r="B440" s="13"/>
-    </row>
-    <row r="441">
-      <c r="B441" s="13"/>
-    </row>
-    <row r="442">
-      <c r="B442" s="13"/>
-    </row>
-    <row r="443">
-      <c r="B443" s="13"/>
-    </row>
-    <row r="444">
-      <c r="B444" s="13"/>
-    </row>
-    <row r="445">
-      <c r="B445" s="13"/>
-    </row>
-    <row r="446">
-      <c r="B446" s="13"/>
-    </row>
-    <row r="447">
-      <c r="B447" s="13"/>
-    </row>
-    <row r="448">
-      <c r="B448" s="13"/>
-    </row>
-    <row r="449">
-      <c r="B449" s="13"/>
-    </row>
-    <row r="450">
-      <c r="B450" s="13"/>
-    </row>
-    <row r="451">
-      <c r="B451" s="13"/>
-    </row>
-    <row r="452">
-      <c r="B452" s="13"/>
-    </row>
-    <row r="453">
-      <c r="B453" s="13"/>
-    </row>
-    <row r="454">
-      <c r="B454" s="13"/>
-    </row>
-    <row r="455">
-      <c r="B455" s="13"/>
-    </row>
-    <row r="456">
-      <c r="B456" s="13"/>
-    </row>
-    <row r="457">
-      <c r="B457" s="13"/>
-    </row>
-    <row r="458">
-      <c r="B458" s="13"/>
-    </row>
-    <row r="459">
-      <c r="B459" s="13"/>
-    </row>
-    <row r="460">
-      <c r="B460" s="13"/>
-    </row>
-    <row r="461">
-      <c r="B461" s="13"/>
-    </row>
-    <row r="462">
-      <c r="B462" s="13"/>
-    </row>
-    <row r="463">
-      <c r="B463" s="13"/>
-    </row>
-    <row r="464">
-      <c r="B464" s="13"/>
-    </row>
-    <row r="465">
-      <c r="B465" s="13"/>
-    </row>
-    <row r="466">
-      <c r="B466" s="13"/>
-    </row>
-    <row r="467">
-      <c r="B467" s="13"/>
-    </row>
-    <row r="468">
-      <c r="B468" s="13"/>
-    </row>
-    <row r="469">
-      <c r="B469" s="13"/>
-    </row>
-    <row r="470">
-      <c r="B470" s="13"/>
-    </row>
-    <row r="471">
-      <c r="B471" s="13"/>
-    </row>
-    <row r="472">
-      <c r="B472" s="13"/>
-    </row>
-    <row r="473">
-      <c r="B473" s="13"/>
-    </row>
-    <row r="474">
-      <c r="B474" s="13"/>
-    </row>
-    <row r="475">
-      <c r="B475" s="13"/>
-    </row>
-    <row r="476">
-      <c r="B476" s="13"/>
-    </row>
-    <row r="477">
-      <c r="B477" s="13"/>
-    </row>
-    <row r="478">
-      <c r="B478" s="13"/>
-    </row>
-    <row r="479">
-      <c r="B479" s="13"/>
-    </row>
-    <row r="480">
-      <c r="B480" s="13"/>
-    </row>
-    <row r="481">
-      <c r="B481" s="13"/>
-    </row>
-    <row r="482">
-      <c r="B482" s="13"/>
-    </row>
-    <row r="483">
-      <c r="B483" s="13"/>
-    </row>
-    <row r="484">
-      <c r="B484" s="13"/>
-    </row>
-    <row r="485">
-      <c r="B485" s="13"/>
-    </row>
-    <row r="486">
-      <c r="B486" s="13"/>
-    </row>
-    <row r="487">
-      <c r="B487" s="13"/>
-    </row>
-    <row r="488">
-      <c r="B488" s="13"/>
-    </row>
-    <row r="489">
-      <c r="B489" s="13"/>
-    </row>
-    <row r="490">
-      <c r="B490" s="13"/>
-    </row>
-    <row r="491">
-      <c r="B491" s="13"/>
-    </row>
-    <row r="492">
-      <c r="B492" s="13"/>
-    </row>
-    <row r="493">
-      <c r="B493" s="13"/>
-    </row>
-    <row r="494">
-      <c r="B494" s="13"/>
-    </row>
-    <row r="495">
-      <c r="B495" s="13"/>
-    </row>
-    <row r="496">
-      <c r="B496" s="13"/>
-    </row>
-    <row r="497">
-      <c r="B497" s="13"/>
-    </row>
-    <row r="498">
-      <c r="B498" s="13"/>
-    </row>
-    <row r="499">
-      <c r="B499" s="13"/>
-    </row>
-    <row r="500">
-      <c r="B500" s="13"/>
-    </row>
-    <row r="501">
-      <c r="B501" s="13"/>
-    </row>
-    <row r="502">
-      <c r="B502" s="13"/>
-    </row>
-    <row r="503">
-      <c r="B503" s="13"/>
-    </row>
-    <row r="504">
-      <c r="B504" s="13"/>
-    </row>
-    <row r="505">
-      <c r="B505" s="13"/>
-    </row>
-    <row r="506">
-      <c r="B506" s="13"/>
-    </row>
-    <row r="507">
-      <c r="B507" s="13"/>
-    </row>
-    <row r="508">
-      <c r="B508" s="13"/>
-    </row>
-    <row r="509">
-      <c r="B509" s="13"/>
-    </row>
-    <row r="510">
-      <c r="B510" s="13"/>
-    </row>
-    <row r="511">
-      <c r="B511" s="13"/>
-    </row>
-    <row r="512">
-      <c r="B512" s="13"/>
-    </row>
-    <row r="513">
-      <c r="B513" s="13"/>
-    </row>
-    <row r="514">
-      <c r="B514" s="13"/>
-    </row>
-    <row r="515">
-      <c r="B515" s="13"/>
-    </row>
-    <row r="516">
-      <c r="B516" s="13"/>
-    </row>
-    <row r="517">
-      <c r="B517" s="13"/>
-    </row>
-    <row r="518">
-      <c r="B518" s="13"/>
-    </row>
-    <row r="519">
-      <c r="B519" s="13"/>
-    </row>
-    <row r="520">
-      <c r="B520" s="13"/>
-    </row>
-    <row r="521">
-      <c r="B521" s="13"/>
-    </row>
-    <row r="522">
-      <c r="B522" s="13"/>
-    </row>
-    <row r="523">
-      <c r="B523" s="13"/>
-    </row>
-    <row r="524">
-      <c r="B524" s="13"/>
-    </row>
-    <row r="525">
-      <c r="B525" s="13"/>
-    </row>
-    <row r="526">
-      <c r="B526" s="13"/>
-    </row>
-    <row r="527">
-      <c r="B527" s="13"/>
-    </row>
-    <row r="528">
-      <c r="B528" s="13"/>
-    </row>
-    <row r="529">
-      <c r="B529" s="13"/>
-    </row>
-    <row r="530">
-      <c r="B530" s="13"/>
-    </row>
-    <row r="531">
-      <c r="B531" s="13"/>
-    </row>
-    <row r="532">
-      <c r="B532" s="13"/>
-    </row>
-    <row r="533">
-      <c r="B533" s="13"/>
-    </row>
-    <row r="534">
-      <c r="B534" s="13"/>
-    </row>
-    <row r="535">
-      <c r="B535" s="13"/>
-    </row>
-    <row r="536">
-      <c r="B536" s="13"/>
-    </row>
-    <row r="537">
-      <c r="B537" s="13"/>
-    </row>
-    <row r="538">
-      <c r="B538" s="13"/>
-    </row>
-    <row r="539">
-      <c r="B539" s="13"/>
-    </row>
-    <row r="540">
-      <c r="B540" s="13"/>
-    </row>
-    <row r="541">
-      <c r="B541" s="13"/>
-    </row>
-    <row r="542">
-      <c r="B542" s="13"/>
-    </row>
-    <row r="543">
-      <c r="B543" s="13"/>
-    </row>
-    <row r="544">
-      <c r="B544" s="13"/>
-    </row>
-    <row r="545">
-      <c r="B545" s="13"/>
-    </row>
-    <row r="546">
-      <c r="B546" s="13"/>
-    </row>
-    <row r="547">
-      <c r="B547" s="13"/>
-    </row>
-    <row r="548">
-      <c r="B548" s="13"/>
-    </row>
-    <row r="549">
-      <c r="B549" s="13"/>
-    </row>
-    <row r="550">
-      <c r="B550" s="13"/>
-    </row>
-    <row r="551">
-      <c r="B551" s="13"/>
-    </row>
-    <row r="552">
-      <c r="B552" s="13"/>
-    </row>
-    <row r="553">
-      <c r="B553" s="13"/>
-    </row>
-    <row r="554">
-      <c r="B554" s="13"/>
-    </row>
-    <row r="555">
-      <c r="B555" s="13"/>
-    </row>
-    <row r="556">
-      <c r="B556" s="13"/>
-    </row>
-    <row r="557">
-      <c r="B557" s="13"/>
-    </row>
-    <row r="558">
-      <c r="B558" s="13"/>
-    </row>
-    <row r="559">
-      <c r="B559" s="13"/>
-    </row>
-    <row r="560">
-      <c r="B560" s="13"/>
-    </row>
-    <row r="561">
-      <c r="B561" s="13"/>
-    </row>
-    <row r="562">
-      <c r="B562" s="13"/>
-    </row>
-    <row r="563">
-      <c r="B563" s="13"/>
-    </row>
-    <row r="564">
-      <c r="B564" s="13"/>
-    </row>
-    <row r="565">
-      <c r="B565" s="13"/>
-    </row>
-    <row r="566">
-      <c r="B566" s="13"/>
-    </row>
-    <row r="567">
-      <c r="B567" s="13"/>
-    </row>
-    <row r="568">
-      <c r="B568" s="13"/>
-    </row>
-    <row r="569">
-      <c r="B569" s="13"/>
-    </row>
-    <row r="570">
-      <c r="B570" s="13"/>
-    </row>
-    <row r="571">
-      <c r="B571" s="13"/>
-    </row>
-    <row r="572">
-      <c r="B572" s="13"/>
-    </row>
-    <row r="573">
-      <c r="B573" s="13"/>
-    </row>
-    <row r="574">
-      <c r="B574" s="13"/>
-    </row>
-    <row r="575">
-      <c r="B575" s="13"/>
-    </row>
-    <row r="576">
-      <c r="B576" s="13"/>
-    </row>
-    <row r="577">
-      <c r="B577" s="13"/>
-    </row>
-    <row r="578">
-      <c r="B578" s="13"/>
-    </row>
-    <row r="579">
-      <c r="B579" s="13"/>
-    </row>
-    <row r="580">
-      <c r="B580" s="13"/>
-    </row>
-    <row r="581">
-      <c r="B581" s="13"/>
-    </row>
-    <row r="582">
-      <c r="B582" s="13"/>
-    </row>
-    <row r="583">
-      <c r="B583" s="13"/>
-    </row>
-    <row r="584">
-      <c r="B584" s="13"/>
-    </row>
-    <row r="585">
-      <c r="B585" s="13"/>
-    </row>
-    <row r="586">
-      <c r="B586" s="13"/>
-    </row>
-    <row r="587">
-      <c r="B587" s="13"/>
-    </row>
-    <row r="588">
-      <c r="B588" s="13"/>
-    </row>
-    <row r="589">
-      <c r="B589" s="13"/>
-    </row>
-    <row r="590">
-      <c r="B590" s="13"/>
-    </row>
-    <row r="591">
-      <c r="B591" s="13"/>
-    </row>
-    <row r="592">
-      <c r="B592" s="13"/>
-    </row>
-    <row r="593">
-      <c r="B593" s="13"/>
-    </row>
-    <row r="594">
-      <c r="B594" s="13"/>
-    </row>
-    <row r="595">
-      <c r="B595" s="13"/>
-    </row>
-    <row r="596">
-      <c r="B596" s="13"/>
-    </row>
-    <row r="597">
-      <c r="B597" s="13"/>
-    </row>
-    <row r="598">
-      <c r="B598" s="13"/>
-    </row>
-    <row r="599">
-      <c r="B599" s="13"/>
-    </row>
-    <row r="600">
-      <c r="B600" s="13"/>
-    </row>
-    <row r="601">
-      <c r="B601" s="13"/>
-    </row>
-    <row r="602">
-      <c r="B602" s="13"/>
-    </row>
-    <row r="603">
-      <c r="B603" s="13"/>
-    </row>
-    <row r="604">
-      <c r="B604" s="13"/>
-    </row>
-    <row r="605">
-      <c r="B605" s="13"/>
-    </row>
-    <row r="606">
-      <c r="B606" s="13"/>
-    </row>
-    <row r="607">
-      <c r="B607" s="13"/>
-    </row>
-    <row r="608">
-      <c r="B608" s="13"/>
-    </row>
-    <row r="609">
-      <c r="B609" s="13"/>
-    </row>
-    <row r="610">
-      <c r="B610" s="13"/>
-    </row>
-    <row r="611">
-      <c r="B611" s="13"/>
-    </row>
-    <row r="612">
-      <c r="B612" s="13"/>
-    </row>
-    <row r="613">
-      <c r="B613" s="13"/>
-    </row>
-    <row r="614">
-      <c r="B614" s="13"/>
-    </row>
-    <row r="615">
-      <c r="B615" s="13"/>
-    </row>
-    <row r="616">
-      <c r="B616" s="13"/>
-    </row>
-    <row r="617">
-      <c r="B617" s="13"/>
-    </row>
-    <row r="618">
-      <c r="B618" s="13"/>
-    </row>
-    <row r="619">
-      <c r="B619" s="13"/>
-    </row>
-    <row r="620">
-      <c r="B620" s="13"/>
-    </row>
-    <row r="621">
-      <c r="B621" s="13"/>
-    </row>
-    <row r="622">
-      <c r="B622" s="13"/>
-    </row>
-    <row r="623">
-      <c r="B623" s="13"/>
-    </row>
-    <row r="624">
-      <c r="B624" s="13"/>
-    </row>
-    <row r="625">
-      <c r="B625" s="13"/>
-    </row>
-    <row r="626">
-      <c r="B626" s="13"/>
-    </row>
-    <row r="627">
-      <c r="B627" s="13"/>
-    </row>
-    <row r="628">
-      <c r="B628" s="13"/>
-    </row>
-    <row r="629">
-      <c r="B629" s="13"/>
-    </row>
-    <row r="630">
-      <c r="B630" s="13"/>
-    </row>
-    <row r="631">
-      <c r="B631" s="13"/>
-    </row>
-    <row r="632">
-      <c r="B632" s="13"/>
-    </row>
-    <row r="633">
-      <c r="B633" s="13"/>
-    </row>
-    <row r="634">
-      <c r="B634" s="13"/>
-    </row>
-    <row r="635">
-      <c r="B635" s="13"/>
-    </row>
-    <row r="636">
-      <c r="B636" s="13"/>
-    </row>
-    <row r="637">
-      <c r="B637" s="13"/>
-    </row>
-    <row r="638">
-      <c r="B638" s="13"/>
-    </row>
-    <row r="639">
-      <c r="B639" s="13"/>
-    </row>
-    <row r="640">
-      <c r="B640" s="13"/>
-    </row>
-    <row r="641">
-      <c r="B641" s="13"/>
-    </row>
-    <row r="642">
-      <c r="B642" s="13"/>
-    </row>
-    <row r="643">
-      <c r="B643" s="13"/>
-    </row>
-    <row r="644">
-      <c r="B644" s="13"/>
-    </row>
-    <row r="645">
-      <c r="B645" s="13"/>
-    </row>
-    <row r="646">
-      <c r="B646" s="13"/>
-    </row>
-    <row r="647">
-      <c r="B647" s="13"/>
-    </row>
-    <row r="648">
-      <c r="B648" s="13"/>
-    </row>
-    <row r="649">
-      <c r="B649" s="13"/>
-    </row>
-    <row r="650">
-      <c r="B650" s="13"/>
-    </row>
-    <row r="651">
-      <c r="B651" s="13"/>
-    </row>
-    <row r="652">
-      <c r="B652" s="13"/>
-    </row>
-    <row r="653">
-      <c r="B653" s="13"/>
-    </row>
-    <row r="654">
-      <c r="B654" s="13"/>
-    </row>
-    <row r="655">
-      <c r="B655" s="13"/>
-    </row>
-    <row r="656">
-      <c r="B656" s="13"/>
-    </row>
-    <row r="657">
-      <c r="B657" s="13"/>
-    </row>
-    <row r="658">
-      <c r="B658" s="13"/>
-    </row>
-    <row r="659">
-      <c r="B659" s="13"/>
-    </row>
-    <row r="660">
-      <c r="B660" s="13"/>
-    </row>
-    <row r="661">
-      <c r="B661" s="13"/>
-    </row>
-    <row r="662">
-      <c r="B662" s="13"/>
-    </row>
-    <row r="663">
-      <c r="B663" s="13"/>
-    </row>
-    <row r="664">
-      <c r="B664" s="13"/>
-    </row>
-    <row r="665">
-      <c r="B665" s="13"/>
-    </row>
-    <row r="666">
-      <c r="B666" s="13"/>
-    </row>
-    <row r="667">
-      <c r="B667" s="13"/>
-    </row>
-    <row r="668">
-      <c r="B668" s="13"/>
-    </row>
-    <row r="669">
-      <c r="B669" s="13"/>
-    </row>
-    <row r="670">
-      <c r="B670" s="13"/>
-    </row>
-    <row r="671">
-      <c r="B671" s="13"/>
-    </row>
-    <row r="672">
-      <c r="B672" s="13"/>
-    </row>
-    <row r="673">
-      <c r="B673" s="13"/>
-    </row>
-    <row r="674">
-      <c r="B674" s="13"/>
-    </row>
-    <row r="675">
-      <c r="B675" s="13"/>
-    </row>
-    <row r="676">
-      <c r="B676" s="13"/>
-    </row>
-    <row r="677">
-      <c r="B677" s="13"/>
-    </row>
-    <row r="678">
-      <c r="B678" s="13"/>
-    </row>
-    <row r="679">
-      <c r="B679" s="13"/>
-    </row>
-    <row r="680">
-      <c r="B680" s="13"/>
-    </row>
-    <row r="681">
-      <c r="B681" s="13"/>
-    </row>
-    <row r="682">
-      <c r="B682" s="13"/>
-    </row>
-    <row r="683">
-      <c r="B683" s="13"/>
-    </row>
-    <row r="684">
-      <c r="B684" s="13"/>
-    </row>
-    <row r="685">
-      <c r="B685" s="13"/>
-    </row>
-    <row r="686">
-      <c r="B686" s="13"/>
-    </row>
-    <row r="687">
-      <c r="B687" s="13"/>
-    </row>
-    <row r="688">
-      <c r="B688" s="13"/>
-    </row>
-    <row r="689">
-      <c r="B689" s="13"/>
-    </row>
-    <row r="690">
-      <c r="B690" s="13"/>
-    </row>
-    <row r="691">
-      <c r="B691" s="13"/>
-    </row>
-    <row r="692">
-      <c r="B692" s="13"/>
-    </row>
-    <row r="693">
-      <c r="B693" s="13"/>
-    </row>
-    <row r="694">
-      <c r="B694" s="13"/>
-    </row>
-    <row r="695">
-      <c r="B695" s="13"/>
-    </row>
-    <row r="696">
-      <c r="B696" s="13"/>
-    </row>
-    <row r="697">
-      <c r="B697" s="13"/>
-    </row>
-    <row r="698">
-      <c r="B698" s="13"/>
-    </row>
-    <row r="699">
-      <c r="B699" s="13"/>
-    </row>
-    <row r="700">
-      <c r="B700" s="13"/>
-    </row>
-    <row r="701">
-      <c r="B701" s="13"/>
-    </row>
-    <row r="702">
-      <c r="B702" s="13"/>
-    </row>
-    <row r="703">
-      <c r="B703" s="13"/>
-    </row>
-    <row r="704">
-      <c r="B704" s="13"/>
-    </row>
-    <row r="705">
-      <c r="B705" s="13"/>
-    </row>
-    <row r="706">
-      <c r="B706" s="13"/>
-    </row>
-    <row r="707">
-      <c r="B707" s="13"/>
-    </row>
-    <row r="708">
-      <c r="B708" s="13"/>
-    </row>
-    <row r="709">
-      <c r="B709" s="13"/>
-    </row>
-    <row r="710">
-      <c r="B710" s="13"/>
-    </row>
-    <row r="711">
-      <c r="B711" s="13"/>
-    </row>
-    <row r="712">
-      <c r="B712" s="13"/>
-    </row>
-    <row r="713">
-      <c r="B713" s="13"/>
-    </row>
-    <row r="714">
-      <c r="B714" s="13"/>
-    </row>
-    <row r="715">
-      <c r="B715" s="13"/>
-    </row>
-    <row r="716">
-      <c r="B716" s="13"/>
-    </row>
-    <row r="717">
-      <c r="B717" s="13"/>
-    </row>
-    <row r="718">
-      <c r="B718" s="13"/>
-    </row>
-    <row r="719">
-      <c r="B719" s="13"/>
-    </row>
-    <row r="720">
-      <c r="B720" s="13"/>
-    </row>
-    <row r="721">
-      <c r="B721" s="13"/>
-    </row>
-    <row r="722">
-      <c r="B722" s="13"/>
-    </row>
-    <row r="723">
-      <c r="B723" s="13"/>
-    </row>
-    <row r="724">
-      <c r="B724" s="13"/>
-    </row>
-    <row r="725">
-      <c r="B725" s="13"/>
-    </row>
-    <row r="726">
-      <c r="B726" s="13"/>
-    </row>
-    <row r="727">
-      <c r="B727" s="13"/>
-    </row>
-    <row r="728">
-      <c r="B728" s="13"/>
-    </row>
-    <row r="729">
-      <c r="B729" s="13"/>
-    </row>
-    <row r="730">
-      <c r="B730" s="13"/>
-    </row>
-    <row r="731">
-      <c r="B731" s="13"/>
-    </row>
-    <row r="732">
-      <c r="B732" s="13"/>
-    </row>
-    <row r="733">
-      <c r="B733" s="13"/>
-    </row>
-    <row r="734">
-      <c r="B734" s="13"/>
-    </row>
-    <row r="735">
-      <c r="B735" s="13"/>
-    </row>
-    <row r="736">
-      <c r="B736" s="13"/>
-    </row>
-    <row r="737">
-      <c r="B737" s="13"/>
-    </row>
-    <row r="738">
-      <c r="B738" s="13"/>
-    </row>
-    <row r="739">
-      <c r="B739" s="13"/>
-    </row>
-    <row r="740">
-      <c r="B740" s="13"/>
-    </row>
-    <row r="741">
-      <c r="B741" s="13"/>
-    </row>
-    <row r="742">
-      <c r="B742" s="13"/>
-    </row>
-    <row r="743">
-      <c r="B743" s="13"/>
-    </row>
-    <row r="744">
-      <c r="B744" s="13"/>
-    </row>
-    <row r="745">
-      <c r="B745" s="13"/>
-    </row>
-    <row r="746">
-      <c r="B746" s="13"/>
-    </row>
-    <row r="747">
-      <c r="B747" s="13"/>
-    </row>
-    <row r="748">
-      <c r="B748" s="13"/>
-    </row>
-    <row r="749">
-      <c r="B749" s="13"/>
-    </row>
-    <row r="750">
-      <c r="B750" s="13"/>
-    </row>
-    <row r="751">
-      <c r="B751" s="13"/>
-    </row>
-    <row r="752">
-      <c r="B752" s="13"/>
-    </row>
-    <row r="753">
-      <c r="B753" s="13"/>
-    </row>
-    <row r="754">
-      <c r="B754" s="13"/>
-    </row>
-    <row r="755">
-      <c r="B755" s="13"/>
-    </row>
-    <row r="756">
-      <c r="B756" s="13"/>
-    </row>
-    <row r="757">
-      <c r="B757" s="13"/>
-    </row>
-    <row r="758">
-      <c r="B758" s="13"/>
-    </row>
-    <row r="759">
-      <c r="B759" s="13"/>
-    </row>
-    <row r="760">
-      <c r="B760" s="13"/>
-    </row>
-    <row r="761">
-      <c r="B761" s="13"/>
-    </row>
-    <row r="762">
-      <c r="B762" s="13"/>
-    </row>
-    <row r="763">
-      <c r="B763" s="13"/>
-    </row>
-    <row r="764">
-      <c r="B764" s="13"/>
-    </row>
-    <row r="765">
-      <c r="B765" s="13"/>
-    </row>
-    <row r="766">
-      <c r="B766" s="13"/>
-    </row>
-    <row r="767">
-      <c r="B767" s="13"/>
-    </row>
-    <row r="768">
-      <c r="B768" s="13"/>
-    </row>
-    <row r="769">
-      <c r="B769" s="13"/>
-    </row>
-    <row r="770">
-      <c r="B770" s="13"/>
-    </row>
-    <row r="771">
-      <c r="B771" s="13"/>
-    </row>
-    <row r="772">
-      <c r="B772" s="13"/>
-    </row>
-    <row r="773">
-      <c r="B773" s="13"/>
-    </row>
-    <row r="774">
-      <c r="B774" s="13"/>
-    </row>
-    <row r="775">
-      <c r="B775" s="13"/>
-    </row>
-    <row r="776">
-      <c r="B776" s="13"/>
-    </row>
-    <row r="777">
-      <c r="B777" s="13"/>
-    </row>
-    <row r="778">
-      <c r="B778" s="13"/>
-    </row>
-    <row r="779">
-      <c r="B779" s="13"/>
-    </row>
-    <row r="780">
-      <c r="B780" s="13"/>
-    </row>
-    <row r="781">
-      <c r="B781" s="13"/>
-    </row>
-    <row r="782">
-      <c r="B782" s="13"/>
-    </row>
-    <row r="783">
-      <c r="B783" s="13"/>
-    </row>
-    <row r="784">
-      <c r="B784" s="13"/>
-    </row>
-    <row r="785">
-      <c r="B785" s="13"/>
-    </row>
-    <row r="786">
-      <c r="B786" s="13"/>
-    </row>
-    <row r="787">
-      <c r="B787" s="13"/>
-    </row>
-    <row r="788">
-      <c r="B788" s="13"/>
-    </row>
-    <row r="789">
-      <c r="B789" s="13"/>
-    </row>
-    <row r="790">
-      <c r="B790" s="13"/>
-    </row>
-    <row r="791">
-      <c r="B791" s="13"/>
-    </row>
-    <row r="792">
-      <c r="B792" s="13"/>
-    </row>
-    <row r="793">
-      <c r="B793" s="13"/>
-    </row>
-    <row r="794">
-      <c r="B794" s="13"/>
-    </row>
-    <row r="795">
-      <c r="B795" s="13"/>
-    </row>
-    <row r="796">
-      <c r="B796" s="13"/>
-    </row>
-    <row r="797">
-      <c r="B797" s="13"/>
-    </row>
-    <row r="798">
-      <c r="B798" s="13"/>
-    </row>
-    <row r="799">
-      <c r="B799" s="13"/>
-    </row>
-    <row r="800">
-      <c r="B800" s="13"/>
-    </row>
-    <row r="801">
-      <c r="B801" s="13"/>
-    </row>
-    <row r="802">
-      <c r="B802" s="13"/>
-    </row>
-    <row r="803">
-      <c r="B803" s="13"/>
-    </row>
-    <row r="804">
-      <c r="B804" s="13"/>
-    </row>
-    <row r="805">
-      <c r="B805" s="13"/>
-    </row>
-    <row r="806">
-      <c r="B806" s="13"/>
-    </row>
-    <row r="807">
-      <c r="B807" s="13"/>
-    </row>
-    <row r="808">
-      <c r="B808" s="13"/>
-    </row>
-    <row r="809">
-      <c r="B809" s="13"/>
-    </row>
-    <row r="810">
-      <c r="B810" s="13"/>
-    </row>
-    <row r="811">
-      <c r="B811" s="13"/>
-    </row>
-    <row r="812">
-      <c r="B812" s="13"/>
-    </row>
-    <row r="813">
-      <c r="B813" s="13"/>
-    </row>
-    <row r="814">
-      <c r="B814" s="13"/>
-    </row>
-    <row r="815">
-      <c r="B815" s="13"/>
-    </row>
-    <row r="816">
-      <c r="B816" s="13"/>
-    </row>
-    <row r="817">
-      <c r="B817" s="13"/>
-    </row>
-    <row r="818">
-      <c r="B818" s="13"/>
-    </row>
-    <row r="819">
-      <c r="B819" s="13"/>
-    </row>
-    <row r="820">
-      <c r="B820" s="13"/>
-    </row>
-    <row r="821">
-      <c r="B821" s="13"/>
-    </row>
-    <row r="822">
-      <c r="B822" s="13"/>
-    </row>
-    <row r="823">
-      <c r="B823" s="13"/>
-    </row>
-    <row r="824">
-      <c r="B824" s="13"/>
-    </row>
-    <row r="825">
-      <c r="B825" s="13"/>
-    </row>
-    <row r="826">
-      <c r="B826" s="13"/>
-    </row>
-    <row r="827">
-      <c r="B827" s="13"/>
-    </row>
-    <row r="828">
-      <c r="B828" s="13"/>
-    </row>
-    <row r="829">
-      <c r="B829" s="13"/>
-    </row>
-    <row r="830">
-      <c r="B830" s="13"/>
-    </row>
-    <row r="831">
-      <c r="B831" s="13"/>
-    </row>
-    <row r="832">
-      <c r="B832" s="13"/>
-    </row>
-    <row r="833">
-      <c r="B833" s="13"/>
-    </row>
-    <row r="834">
-      <c r="B834" s="13"/>
-    </row>
-    <row r="835">
-      <c r="B835" s="13"/>
-    </row>
-    <row r="836">
-      <c r="B836" s="13"/>
-    </row>
-    <row r="837">
-      <c r="B837" s="13"/>
-    </row>
-    <row r="838">
-      <c r="B838" s="13"/>
-    </row>
-    <row r="839">
-      <c r="B839" s="13"/>
-    </row>
-    <row r="840">
-      <c r="B840" s="13"/>
-    </row>
-    <row r="841">
-      <c r="B841" s="13"/>
-    </row>
-    <row r="842">
-      <c r="B842" s="13"/>
-    </row>
-    <row r="843">
-      <c r="B843" s="13"/>
-    </row>
-    <row r="844">
-      <c r="B844" s="13"/>
-    </row>
-    <row r="845">
-      <c r="B845" s="13"/>
-    </row>
-    <row r="846">
-      <c r="B846" s="13"/>
-    </row>
-    <row r="847">
-      <c r="B847" s="13"/>
-    </row>
-    <row r="848">
-      <c r="B848" s="13"/>
-    </row>
-    <row r="849">
-      <c r="B849" s="13"/>
-    </row>
-    <row r="850">
-      <c r="B850" s="13"/>
-    </row>
-    <row r="851">
-      <c r="B851" s="13"/>
-    </row>
-    <row r="852">
-      <c r="B852" s="13"/>
-    </row>
-    <row r="853">
-      <c r="B853" s="13"/>
-    </row>
-    <row r="854">
-      <c r="B854" s="13"/>
-    </row>
-    <row r="855">
-      <c r="B855" s="13"/>
-    </row>
-    <row r="856">
-      <c r="B856" s="13"/>
-    </row>
-    <row r="857">
-      <c r="B857" s="13"/>
-    </row>
-    <row r="858">
-      <c r="B858" s="13"/>
-    </row>
-    <row r="859">
-      <c r="B859" s="13"/>
-    </row>
-    <row r="860">
-      <c r="B860" s="13"/>
-    </row>
-    <row r="861">
-      <c r="B861" s="13"/>
-    </row>
-    <row r="862">
-      <c r="B862" s="13"/>
-    </row>
-    <row r="863">
-      <c r="B863" s="13"/>
-    </row>
-    <row r="864">
-      <c r="B864" s="13"/>
-    </row>
-    <row r="865">
-      <c r="B865" s="13"/>
-    </row>
-    <row r="866">
-      <c r="B866" s="13"/>
-    </row>
-    <row r="867">
-      <c r="B867" s="13"/>
-    </row>
-    <row r="868">
-      <c r="B868" s="13"/>
-    </row>
-    <row r="869">
-      <c r="B869" s="13"/>
-    </row>
-    <row r="870">
-      <c r="B870" s="13"/>
-    </row>
-    <row r="871">
-      <c r="B871" s="13"/>
-    </row>
-    <row r="872">
-      <c r="B872" s="13"/>
-    </row>
-    <row r="873">
-      <c r="B873" s="13"/>
-    </row>
-    <row r="874">
-      <c r="B874" s="13"/>
-    </row>
-    <row r="875">
-      <c r="B875" s="13"/>
-    </row>
-    <row r="876">
-      <c r="B876" s="13"/>
-    </row>
-    <row r="877">
-      <c r="B877" s="13"/>
-    </row>
-    <row r="878">
-      <c r="B878" s="13"/>
-    </row>
-    <row r="879">
-      <c r="B879" s="13"/>
-    </row>
-    <row r="880">
-      <c r="B880" s="13"/>
-    </row>
-    <row r="881">
-      <c r="B881" s="13"/>
-    </row>
-    <row r="882">
-      <c r="B882" s="13"/>
-    </row>
-    <row r="883">
-      <c r="B883" s="13"/>
-    </row>
-    <row r="884">
-      <c r="B884" s="13"/>
-    </row>
-    <row r="885">
-      <c r="B885" s="13"/>
-    </row>
-    <row r="886">
-      <c r="B886" s="13"/>
-    </row>
-    <row r="887">
-      <c r="B887" s="13"/>
-    </row>
-    <row r="888">
-      <c r="B888" s="13"/>
-    </row>
-    <row r="889">
-      <c r="B889" s="13"/>
-    </row>
-    <row r="890">
-      <c r="B890" s="13"/>
-    </row>
-    <row r="891">
-      <c r="B891" s="13"/>
-    </row>
-    <row r="892">
-      <c r="B892" s="13"/>
-    </row>
-    <row r="893">
-      <c r="B893" s="13"/>
-    </row>
-    <row r="894">
-      <c r="B894" s="13"/>
-    </row>
-    <row r="895">
-      <c r="B895" s="13"/>
-    </row>
-    <row r="896">
-      <c r="B896" s="13"/>
-    </row>
-    <row r="897">
-      <c r="B897" s="13"/>
-    </row>
-    <row r="898">
-      <c r="B898" s="13"/>
-    </row>
-    <row r="899">
-      <c r="B899" s="13"/>
-    </row>
-    <row r="900">
-      <c r="B900" s="13"/>
-    </row>
-    <row r="901">
-      <c r="B901" s="13"/>
-    </row>
-    <row r="902">
-      <c r="B902" s="13"/>
-    </row>
-    <row r="903">
-      <c r="B903" s="13"/>
-    </row>
-    <row r="904">
-      <c r="B904" s="13"/>
-    </row>
-    <row r="905">
-      <c r="B905" s="13"/>
-    </row>
-    <row r="906">
-      <c r="B906" s="13"/>
-    </row>
-    <row r="907">
-      <c r="B907" s="13"/>
-    </row>
-    <row r="908">
-      <c r="B908" s="13"/>
-    </row>
-    <row r="909">
-      <c r="B909" s="13"/>
-    </row>
-    <row r="910">
-      <c r="B910" s="13"/>
-    </row>
-    <row r="911">
-      <c r="B911" s="13"/>
-    </row>
-    <row r="912">
-      <c r="B912" s="13"/>
-    </row>
-    <row r="913">
-      <c r="B913" s="13"/>
-    </row>
-    <row r="914">
-      <c r="B914" s="13"/>
-    </row>
-    <row r="915">
-      <c r="B915" s="13"/>
-    </row>
-    <row r="916">
-      <c r="B916" s="13"/>
-    </row>
-    <row r="917">
-      <c r="B917" s="13"/>
-    </row>
-    <row r="918">
-      <c r="B918" s="13"/>
-    </row>
-    <row r="919">
-      <c r="B919" s="13"/>
-    </row>
-    <row r="920">
-      <c r="B920" s="13"/>
-    </row>
-    <row r="921">
-      <c r="B921" s="13"/>
-    </row>
-    <row r="922">
-      <c r="B922" s="13"/>
-    </row>
-    <row r="923">
-      <c r="B923" s="13"/>
-    </row>
-    <row r="924">
-      <c r="B924" s="13"/>
-    </row>
-    <row r="925">
-      <c r="B925" s="13"/>
-    </row>
-    <row r="926">
-      <c r="B926" s="13"/>
-    </row>
-    <row r="927">
-      <c r="B927" s="13"/>
-    </row>
-    <row r="928">
-      <c r="B928" s="13"/>
-    </row>
-    <row r="929">
-      <c r="B929" s="13"/>
-    </row>
-    <row r="930">
-      <c r="B930" s="13"/>
-    </row>
-    <row r="931">
-      <c r="B931" s="13"/>
-    </row>
-    <row r="932">
-      <c r="B932" s="13"/>
-    </row>
-    <row r="933">
-      <c r="B933" s="13"/>
-    </row>
-    <row r="934">
-      <c r="B934" s="13"/>
-    </row>
-    <row r="935">
-      <c r="B935" s="13"/>
-    </row>
-    <row r="936">
-      <c r="B936" s="13"/>
-    </row>
-    <row r="937">
-      <c r="B937" s="13"/>
-    </row>
-    <row r="938">
-      <c r="B938" s="13"/>
-    </row>
-    <row r="939">
-      <c r="B939" s="13"/>
-    </row>
-    <row r="940">
-      <c r="B940" s="13"/>
-    </row>
-    <row r="941">
-      <c r="B941" s="13"/>
-    </row>
-    <row r="942">
-      <c r="B942" s="13"/>
-    </row>
-    <row r="943">
-      <c r="B943" s="13"/>
-    </row>
-    <row r="944">
-      <c r="B944" s="13"/>
-    </row>
-    <row r="945">
-      <c r="B945" s="13"/>
-    </row>
-    <row r="946">
-      <c r="B946" s="13"/>
-    </row>
-    <row r="947">
-      <c r="B947" s="13"/>
-    </row>
-    <row r="948">
-      <c r="B948" s="13"/>
-    </row>
-    <row r="949">
-      <c r="B949" s="13"/>
-    </row>
-    <row r="950">
-      <c r="B950" s="13"/>
-    </row>
-    <row r="951">
-      <c r="B951" s="13"/>
-    </row>
-    <row r="952">
-      <c r="B952" s="13"/>
-    </row>
-    <row r="953">
-      <c r="B953" s="13"/>
-    </row>
-    <row r="954">
-      <c r="B954" s="13"/>
-    </row>
-    <row r="955">
-      <c r="B955" s="13"/>
-    </row>
-    <row r="956">
-      <c r="B956" s="13"/>
-    </row>
-    <row r="957">
-      <c r="B957" s="13"/>
-    </row>
-    <row r="958">
-      <c r="B958" s="13"/>
-    </row>
-    <row r="959">
-      <c r="B959" s="13"/>
-    </row>
-    <row r="960">
-      <c r="B960" s="13"/>
-    </row>
-    <row r="961">
-      <c r="B961" s="13"/>
-    </row>
-    <row r="962">
-      <c r="B962" s="13"/>
-    </row>
-    <row r="963">
-      <c r="B963" s="13"/>
-    </row>
-    <row r="964">
-      <c r="B964" s="13"/>
-    </row>
-    <row r="965">
-      <c r="B965" s="13"/>
-    </row>
-    <row r="966">
-      <c r="B966" s="13"/>
-    </row>
-    <row r="967">
-      <c r="B967" s="13"/>
-    </row>
-    <row r="968">
-      <c r="B968" s="13"/>
-    </row>
-    <row r="969">
-      <c r="B969" s="13"/>
-    </row>
-    <row r="970">
-      <c r="B970" s="13"/>
-    </row>
-    <row r="971">
-      <c r="B971" s="13"/>
-    </row>
-    <row r="972">
-      <c r="B972" s="13"/>
-    </row>
-    <row r="973">
-      <c r="B973" s="13"/>
-    </row>
-    <row r="974">
-      <c r="B974" s="13"/>
-    </row>
-    <row r="975">
-      <c r="B975" s="13"/>
-    </row>
-    <row r="976">
-      <c r="B976" s="13"/>
-    </row>
-    <row r="977">
-      <c r="B977" s="13"/>
-    </row>
-    <row r="978">
-      <c r="B978" s="13"/>
-    </row>
-    <row r="979">
-      <c r="B979" s="13"/>
-    </row>
-    <row r="980">
-      <c r="B980" s="13"/>
-    </row>
-    <row r="981">
-      <c r="B981" s="13"/>
-    </row>
-    <row r="982">
-      <c r="B982" s="13"/>
-    </row>
-    <row r="983">
-      <c r="B983" s="13"/>
-    </row>
-    <row r="984">
-      <c r="B984" s="13"/>
-    </row>
-    <row r="985">
-      <c r="B985" s="13"/>
-    </row>
-    <row r="986">
-      <c r="B986" s="13"/>
-    </row>
-    <row r="987">
-      <c r="B987" s="13"/>
-    </row>
-    <row r="988">
-      <c r="B988" s="13"/>
-    </row>
-    <row r="989">
-      <c r="B989" s="13"/>
-    </row>
-    <row r="990">
-      <c r="B990" s="13"/>
-    </row>
-    <row r="991">
-      <c r="B991" s="13"/>
-    </row>
-    <row r="992">
-      <c r="B992" s="13"/>
-    </row>
-    <row r="993">
-      <c r="B993" s="13"/>
-    </row>
-    <row r="994">
-      <c r="B994" s="13"/>
-    </row>
-    <row r="995">
-      <c r="B995" s="13"/>
-    </row>
-    <row r="996">
-      <c r="B996" s="13"/>
-    </row>
-    <row r="997">
-      <c r="B997" s="13"/>
-    </row>
-    <row r="998">
-      <c r="B998" s="13"/>
-    </row>
-    <row r="999">
-      <c r="B999" s="13"/>
-    </row>
-    <row r="1000">
-      <c r="B1000" s="13"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="481">
   <si>
     <t>hub</t>
   </si>
@@ -609,9 +609,15 @@
     <t>forehead</t>
   </si>
   <si>
+    <t>micro</t>
+  </si>
+  <si>
     <t>cloth</t>
   </si>
   <si>
+    <t>draw</t>
+  </si>
+  <si>
     <t>mask</t>
   </si>
   <si>
@@ -648,9 +654,15 @@
     <t>retina</t>
   </si>
   <si>
+    <t>pilot</t>
+  </si>
+  <si>
     <t>plate</t>
   </si>
   <si>
+    <t>instance</t>
+  </si>
+  <si>
     <t>jump</t>
   </si>
   <si>
@@ -687,9 +699,15 @@
     <t>skin</t>
   </si>
   <si>
+    <t>engine</t>
+  </si>
+  <si>
     <t>pack</t>
   </si>
   <si>
+    <t>entity</t>
+  </si>
+  <si>
     <t>serial</t>
   </si>
   <si>
@@ -726,9 +744,15 @@
     <t>brow</t>
   </si>
   <si>
+    <t>scheme</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>ship</t>
+  </si>
+  <si>
     <t>sign</t>
   </si>
   <si>
@@ -747,9 +771,21 @@
     <t>sine</t>
   </si>
   <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>shine</t>
+  </si>
+  <si>
     <t>tooth</t>
   </si>
   <si>
@@ -1071,9 +1107,15 @@
     <t>lift</t>
   </si>
   <si>
+    <t>agent</t>
+  </si>
+  <si>
     <t>fold</t>
   </si>
   <si>
+    <t>table</t>
+  </si>
+  <si>
     <t>leap</t>
   </si>
   <si>
@@ -1092,15 +1134,33 @@
     <t>leak</t>
   </si>
   <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>relay</t>
+  </si>
+  <si>
     <t>tangle</t>
   </si>
   <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
     <t>scent</t>
   </si>
   <si>
+    <t>pole</t>
+  </si>
+  <si>
     <t>step</t>
   </si>
   <si>
+    <t>adapt</t>
+  </si>
+  <si>
     <t>context</t>
   </si>
   <si>
@@ -1137,9 +1197,15 @@
     <t>deodorant</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>wrap</t>
   </si>
   <si>
+    <t>wide</t>
+  </si>
+  <si>
     <t>contrast</t>
   </si>
   <si>
@@ -1176,7 +1242,13 @@
     <t>thirst</t>
   </si>
   <si>
+    <t>chair</t>
+  </si>
+  <si>
     <t>mail</t>
+  </si>
+  <si>
+    <t>blaze</t>
   </si>
   <si>
     <t>try</t>
@@ -40980,49 +41052,53 @@
       <c r="D6" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="29" t="s">
+        <v>197</v>
+      </c>
       <c r="F6" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>198</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>199</v>
+      </c>
       <c r="H6" s="30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O6" s="31" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -41033,51 +41109,55 @@
         <v>33</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="29"/>
+        <v>211</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>212</v>
+      </c>
       <c r="F7" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>213</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>214</v>
+      </c>
       <c r="H7" s="30" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8">
@@ -41088,51 +41168,55 @@
         <v>34</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="29"/>
+        <v>226</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>227</v>
+      </c>
       <c r="F8" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>228</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>229</v>
+      </c>
       <c r="H8" s="30" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="O8" s="31" t="s">
         <v>91</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -41143,44 +41227,56 @@
         <v>35</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="29"/>
+        <v>241</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>242</v>
+      </c>
       <c r="F9" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>243</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>244</v>
+      </c>
       <c r="H9" s="30" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="O9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="33"/>
+      <c r="P9" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>252</v>
+      </c>
       <c r="R9" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34"/>
+        <v>253</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="26">
@@ -41190,33 +41286,33 @@
         <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
@@ -41224,7 +41320,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
@@ -41237,33 +41333,33 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
@@ -41271,7 +41367,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="29" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
@@ -41284,33 +41380,33 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
@@ -41318,7 +41414,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
@@ -41331,33 +41427,33 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
@@ -41365,7 +41461,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="29" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
@@ -41378,33 +41474,33 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -41412,7 +41508,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -41425,33 +41521,33 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -41459,7 +41555,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -41472,33 +41568,33 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -41506,7 +41602,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -41519,33 +41615,33 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>113</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -41553,7 +41649,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -41566,33 +41662,33 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
@@ -41600,7 +41696,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="29" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -41613,33 +41709,33 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
@@ -41647,7 +41743,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="29" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -41660,33 +41756,33 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
@@ -41694,7 +41790,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="29" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -41707,33 +41803,33 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
@@ -41741,7 +41837,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="29" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -41754,44 +41850,56 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="E22" s="29"/>
+        <v>362</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>363</v>
+      </c>
       <c r="F22" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="G22" s="29"/>
+        <v>364</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>365</v>
+      </c>
       <c r="H22" s="30" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="33"/>
+      <c r="P22" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>373</v>
+      </c>
       <c r="R22" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34"/>
+        <v>374</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="26">
@@ -41801,51 +41909,55 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="E23" s="29"/>
+        <v>377</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>378</v>
+      </c>
       <c r="F23" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="G23" s="29"/>
+        <v>379</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>380</v>
+      </c>
       <c r="H23" s="30" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24">
@@ -41856,51 +41968,55 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="E24" s="29"/>
+        <v>392</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>393</v>
+      </c>
       <c r="F24" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="G24" s="29"/>
+        <v>394</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>395</v>
+      </c>
       <c r="H24" s="30" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25">
@@ -41911,51 +42027,55 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="E25" s="29"/>
+        <v>407</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>408</v>
+      </c>
       <c r="F25" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="G25" s="29"/>
+        <v>409</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>410</v>
+      </c>
       <c r="H25" s="30" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26">
@@ -41966,34 +42086,34 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
@@ -42002,19 +42122,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27">
@@ -42025,55 +42145,55 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28">
@@ -42084,55 +42204,55 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29">
@@ -42143,55 +42263,55 @@
         <v>56</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="529">
   <si>
     <t>hub</t>
   </si>
@@ -789,9 +789,15 @@
     <t>tooth</t>
   </si>
   <si>
+    <t>summary</t>
+  </si>
+  <si>
     <t>dry</t>
   </si>
   <si>
+    <t>cell</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
@@ -810,15 +816,33 @@
     <t>tiny</t>
   </si>
   <si>
+    <t>essay</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
     <t>protein</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>spine</t>
   </si>
   <si>
+    <t>badge</t>
+  </si>
+  <si>
     <t>slab</t>
   </si>
   <si>
+    <t>coin</t>
+  </si>
+  <si>
     <t>lamp</t>
   </si>
   <si>
@@ -837,15 +861,33 @@
     <t>lean</t>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
     <t>cereal</t>
   </si>
   <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
     <t>rib</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
     <t>pen</t>
   </si>
   <si>
+    <t>ring</t>
+  </si>
+  <si>
     <t>guide</t>
   </si>
   <si>
@@ -861,15 +903,33 @@
     <t>big</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>sugar</t>
   </si>
   <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
     <t>nail</t>
   </si>
   <si>
+    <t>poll</t>
+  </si>
+  <si>
     <t>matter</t>
   </si>
   <si>
+    <t>notion</t>
+  </si>
+  <si>
     <t>same</t>
   </si>
   <si>
@@ -888,9 +948,21 @@
     <t>segment</t>
   </si>
   <si>
+    <t>multiplex</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
     <t>chocolate</t>
   </si>
   <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
     <t>hair</t>
   </si>
   <si>
@@ -999,9 +1071,15 @@
     <t>weight</t>
   </si>
   <si>
+    <t>tender</t>
+  </si>
+  <si>
     <t>bot</t>
   </si>
   <si>
+    <t>track</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -1020,15 +1098,33 @@
     <t>mean</t>
   </si>
   <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>foil</t>
   </si>
   <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
     <t>mass</t>
   </si>
   <si>
+    <t>deal</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
+    <t>fiction</t>
+  </si>
+  <si>
     <t>main</t>
   </si>
   <si>
@@ -1047,15 +1143,33 @@
     <t>mat</t>
   </si>
   <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
     <t>collar</t>
   </si>
   <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
     <t>disc</t>
   </si>
   <si>
+    <t>angle</t>
+  </si>
+  <si>
     <t>port</t>
   </si>
   <si>
+    <t>dash</t>
+  </si>
+  <si>
     <t>row</t>
   </si>
   <si>
@@ -1074,15 +1188,33 @@
     <t>short</t>
   </si>
   <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
     <t>cron</t>
   </si>
   <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>crust</t>
+  </si>
+  <si>
     <t>guest</t>
   </si>
   <si>
+    <t>standard</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
+    <t>paper</t>
+  </si>
+  <si>
     <t>organ</t>
   </si>
   <si>
@@ -1101,7 +1233,19 @@
     <t>due</t>
   </si>
   <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>algorithm</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>filter</t>
   </si>
   <si>
     <t>lift</t>
@@ -41288,42 +41432,54 @@
       <c r="D10" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="29" t="s">
+        <v>257</v>
+      </c>
       <c r="F10" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>258</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>259</v>
+      </c>
       <c r="H10" s="30" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33"/>
+      <c r="P10" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="R10" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34"/>
+        <v>268</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="26">
@@ -41333,44 +41489,56 @@
         <v>37</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="29"/>
+        <v>271</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>272</v>
+      </c>
       <c r="F11" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>273</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>274</v>
+      </c>
       <c r="H11" s="30" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="33"/>
+      <c r="P11" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>282</v>
+      </c>
       <c r="R11" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
+        <v>283</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="26">
@@ -41380,44 +41548,56 @@
         <v>38</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="29"/>
+        <v>286</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>287</v>
+      </c>
       <c r="F12" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>288</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>289</v>
+      </c>
       <c r="H12" s="30" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
+      <c r="P12" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>296</v>
+      </c>
       <c r="R12" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
+        <v>297</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="26">
@@ -41427,44 +41607,56 @@
         <v>39</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" s="29"/>
+        <v>300</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>301</v>
+      </c>
       <c r="F13" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>302</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>303</v>
+      </c>
       <c r="H13" s="30" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
+      <c r="P13" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>311</v>
+      </c>
       <c r="R13" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
+        <v>312</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="26">
@@ -41474,33 +41666,33 @@
         <v>40</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
@@ -41508,7 +41700,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="29" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
@@ -41521,33 +41713,33 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
@@ -41555,7 +41747,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="29" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="34"/>
@@ -41568,33 +41760,33 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
@@ -41602,7 +41794,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="29" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -41615,33 +41807,33 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>113</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
@@ -41649,7 +41841,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="29" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -41662,44 +41854,56 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="E18" s="29"/>
+        <v>350</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>351</v>
+      </c>
       <c r="F18" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="G18" s="29"/>
+        <v>352</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>353</v>
+      </c>
       <c r="H18" s="30" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="33"/>
+      <c r="P18" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="R18" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
+        <v>362</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="26">
@@ -41709,44 +41913,56 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="E19" s="29"/>
+        <v>365</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>366</v>
+      </c>
       <c r="F19" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="G19" s="29"/>
+        <v>367</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>368</v>
+      </c>
       <c r="H19" s="30" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="33"/>
+      <c r="P19" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>376</v>
+      </c>
       <c r="R19" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
+        <v>377</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="26">
@@ -41756,44 +41972,56 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="E20" s="29"/>
+        <v>380</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>381</v>
+      </c>
       <c r="F20" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="G20" s="29"/>
+        <v>382</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>383</v>
+      </c>
       <c r="H20" s="30" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="33"/>
+      <c r="P20" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>391</v>
+      </c>
       <c r="R20" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
+        <v>392</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="26">
@@ -41803,44 +42031,56 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="E21" s="29"/>
+        <v>395</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>396</v>
+      </c>
       <c r="F21" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="G21" s="29"/>
+        <v>397</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>398</v>
+      </c>
       <c r="H21" s="30" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="33"/>
+      <c r="P21" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>406</v>
+      </c>
       <c r="R21" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
+        <v>407</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="26">
@@ -41850,55 +42090,55 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="S22" s="29" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="T22" s="30" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23">
@@ -41909,55 +42149,55 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24">
@@ -41968,55 +42208,55 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25">
@@ -42027,55 +42267,55 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26">
@@ -42086,34 +42326,34 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
@@ -42122,19 +42362,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27">
@@ -42145,55 +42385,55 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28">
@@ -42204,55 +42444,55 @@
         <v>54</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29">
@@ -42263,55 +42503,55 @@
         <v>56</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="O29" s="46" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="43" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="551">
   <si>
     <t>hub</t>
   </si>
@@ -966,6 +966,9 @@
     <t>hair</t>
   </si>
   <si>
+    <t>bracket</t>
+  </si>
+  <si>
     <t>epic</t>
   </si>
   <si>
@@ -987,15 +990,33 @@
     <t>sense</t>
   </si>
   <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>aisle</t>
+  </si>
+  <si>
     <t>starch</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>drum</t>
+  </si>
+  <si>
     <t>mole</t>
   </si>
   <si>
+    <t>current</t>
+  </si>
+  <si>
     <t>witness</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>land</t>
   </si>
   <si>
@@ -1014,15 +1035,30 @@
     <t>laminate</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>calcium</t>
   </si>
   <si>
+    <t>unit</t>
+  </si>
+  <si>
     <t>transparent</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>tongue</t>
   </si>
   <si>
+    <t>voucher</t>
+  </si>
+  <si>
     <t>street</t>
   </si>
   <si>
@@ -1041,15 +1077,33 @@
     <t>simple</t>
   </si>
   <si>
+    <t>paragraph</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
     <t>memory</t>
   </si>
   <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>equation</t>
+  </si>
+  <si>
     <t>appoint</t>
   </si>
   <si>
+    <t>stall</t>
+  </si>
+  <si>
     <t>release</t>
   </si>
   <si>
+    <t>shield</t>
+  </si>
+  <si>
     <t>party</t>
   </si>
   <si>
@@ -1065,7 +1119,19 @@
     <t>parity</t>
   </si>
   <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
     <t>finger</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>clutch</t>
   </si>
   <si>
     <t>weight</t>
@@ -2036,7 +2102,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2133,9 +2199,6 @@
     <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -41668,42 +41731,54 @@
       <c r="D14" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="29" t="s">
+        <v>316</v>
+      </c>
       <c r="F14" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>317</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="33"/>
+      <c r="P14" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>325</v>
+      </c>
       <c r="R14" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
+        <v>326</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="26">
@@ -41713,44 +41788,56 @@
         <v>41</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="E15" s="29"/>
+        <v>329</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>330</v>
+      </c>
       <c r="F15" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>331</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>332</v>
+      </c>
       <c r="H15" s="30" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="33"/>
+      <c r="P15" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>340</v>
+      </c>
       <c r="R15" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
+        <v>341</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="26">
@@ -41760,44 +41847,56 @@
         <v>42</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="E16" s="29"/>
+        <v>343</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>344</v>
+      </c>
       <c r="F16" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>345</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>346</v>
+      </c>
       <c r="H16" s="30" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33"/>
+      <c r="P16" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>354</v>
+      </c>
       <c r="R16" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
+        <v>355</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="26">
@@ -41807,44 +41906,56 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="E17" s="29"/>
+        <v>358</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>359</v>
+      </c>
       <c r="F17" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="G17" s="29"/>
+        <v>360</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="H17" s="30" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>113</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="33"/>
+      <c r="P17" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>368</v>
+      </c>
       <c r="R17" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
+        <v>369</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="26">
@@ -41854,55 +41965,55 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>100</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="S18" s="29" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="T18" s="30" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19">
@@ -41913,55 +42024,55 @@
         <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>101</v>
       </c>
       <c r="P19" s="28" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="R19" s="29" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T19" s="30" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20">
@@ -41972,55 +42083,55 @@
         <v>46</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>102</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="29" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="S20" s="29" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="T20" s="30" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21">
@@ -42031,55 +42142,55 @@
         <v>47</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>103</v>
       </c>
       <c r="P21" s="28" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="Q21" s="29" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="R21" s="29" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="S21" s="29" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="T21" s="30" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22">
@@ -42090,55 +42201,55 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>104</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="S22" s="29" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="T22" s="30" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23">
@@ -42149,55 +42260,55 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24">
@@ -42208,55 +42319,55 @@
         <v>50</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>106</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25">
@@ -42267,55 +42378,55 @@
         <v>51</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>107</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26">
@@ -42326,34 +42437,34 @@
         <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>112</v>
@@ -42362,19 +42473,19 @@
         <v>108</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27">
@@ -42385,173 +42496,173 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="35">
+      <c r="B28" s="32">
         <v>26.0</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="37" t="s">
-        <v>499</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>503</v>
-      </c>
-      <c r="I28" s="40" t="s">
+      <c r="D28" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="I28" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="37" t="s">
-        <v>504</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="M28" s="38" t="s">
-        <v>507</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>508</v>
-      </c>
-      <c r="O28" s="40" t="s">
+      <c r="J28" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="O28" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="P28" s="37" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q28" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="R28" s="38" t="s">
-        <v>511</v>
-      </c>
-      <c r="S28" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="T28" s="39" t="s">
-        <v>513</v>
+      <c r="P28" s="34" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q28" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="R28" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="S28" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="T28" s="36" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>515</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="H29" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="I29" s="46" t="s">
+      <c r="D29" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>537</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="I29" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="43" t="s">
-        <v>519</v>
-      </c>
-      <c r="K29" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="L29" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="M29" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="N29" s="45" t="s">
-        <v>523</v>
-      </c>
-      <c r="O29" s="46" t="s">
+      <c r="J29" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="L29" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="O29" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="P29" s="43" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q29" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="R29" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="S29" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="T29" s="45" t="s">
-        <v>528</v>
+      <c r="P29" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q29" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="R29" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="S29" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="T29" s="42" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="30">

--- a/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
+++ b/onlyIf31/asset/needyPacket42/needyPacket42.xlsx
@@ -1727,7 +1727,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1741,14 +1741,22 @@
     </font>
     <font>
       <b/>
-      <sz val="7.0"/>
       <color theme="1"/>
-      <name val="Georgia"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Georgia"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1759,10 +1767,63 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="41">
     <border/>
     <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="double">
@@ -1771,7 +1832,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1782,7 +1843,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1793,7 +1854,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1801,7 +1862,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1809,13 +1870,229 @@
       <left style="dotted">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1823,13 +2100,92 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1837,351 +2193,7 @@
       <left style="dotted">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -2195,24 +2207,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2221,7 +2230,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2230,13 +2239,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2266,13 +2275,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2281,7 +2290,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2293,10 +2302,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2304,46 +2313,65 @@
     <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="39" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2564,11 +2592,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="2.75"/>
-    <col customWidth="1" min="2" max="2" width="18.38"/>
+    <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="12.63"/>
-    <col customWidth="1" min="9" max="9" width="18.38"/>
+    <col customWidth="1" min="9" max="9" width="19.63"/>
     <col customWidth="1" min="10" max="10" width="12.63"/>
-    <col customWidth="1" min="16" max="16" width="18.38"/>
+    <col customWidth="1" min="16" max="16" width="19.63"/>
     <col customWidth="1" min="17" max="17" width="12.63"/>
   </cols>
   <sheetData>
@@ -2605,1952 +2633,1952 @@
       <c r="V2" s="3"/>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>1.0</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="12">
         <v>1.0</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="12">
         <v>1.0</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>2.0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>2.0</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <v>2.0</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="T6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="U6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="V6" s="22" t="s">
+      <c r="V6" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>3.0</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>3.0</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <v>3.0</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="T7" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="V7" s="22" t="s">
+      <c r="V7" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>4.0</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>4.0</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <v>4.0</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="Q8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="S8" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="T8" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="U8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="22" t="s">
+      <c r="V8" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>5.0</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>5.0</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <v>5.0</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="T9" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="22" t="s">
+      <c r="V9" s="21" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>6.0</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>6.0</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <v>6.0</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="S10" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="T10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="U10" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="22" t="s">
+      <c r="V10" s="21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>7.0</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>7.0</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="17">
         <v>7.0</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="T11" s="21" t="s">
+      <c r="T11" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="U11" s="21" t="s">
+      <c r="U11" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="V11" s="22" t="s">
+      <c r="V11" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>8.0</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>8.0</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <v>8.0</v>
       </c>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="S12" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="T12" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="U12" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="V12" s="22" t="s">
+      <c r="V12" s="21" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>9.0</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>9.0</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="17">
         <v>9.0</v>
       </c>
-      <c r="Q13" s="23" t="s">
+      <c r="Q13" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="T13" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="V13" s="22" t="s">
+      <c r="V13" s="21" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>10.0</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <v>10.0</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="17">
         <v>10.0</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="R14" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="T14" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="U14" s="21" t="s">
+      <c r="U14" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="V14" s="22" t="s">
+      <c r="V14" s="21" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>11.0</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>11.0</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="17">
         <v>11.0</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q15" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="T15" s="21" t="s">
+      <c r="T15" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="U15" s="21" t="s">
+      <c r="U15" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="V15" s="22" t="s">
+      <c r="V15" s="21" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>12.0</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>12.0</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="O16" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="17">
         <v>12.0</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="Q16" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="R16" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="S16" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="T16" s="21" t="s">
+      <c r="T16" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="U16" s="21" t="s">
+      <c r="U16" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="V16" s="22" t="s">
+      <c r="V16" s="21" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>13.0</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <v>13.0</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="17">
         <v>13.0</v>
       </c>
-      <c r="Q17" s="23" t="s">
+      <c r="Q17" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="S17" s="21" t="s">
+      <c r="S17" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="T17" s="21" t="s">
+      <c r="T17" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="U17" s="21" t="s">
+      <c r="U17" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="V17" s="22" t="s">
+      <c r="V17" s="21" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>14.0</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <v>14.0</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="O18" s="24" t="s">
+      <c r="O18" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="17">
         <v>14.0</v>
       </c>
-      <c r="Q18" s="23" t="s">
+      <c r="Q18" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="R18" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="S18" s="21" t="s">
+      <c r="S18" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="T18" s="21" t="s">
+      <c r="T18" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="U18" s="21" t="s">
+      <c r="U18" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="V18" s="22" t="s">
+      <c r="V18" s="21" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>15.0</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <v>15.0</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="17">
         <v>15.0</v>
       </c>
-      <c r="Q19" s="23" t="s">
+      <c r="Q19" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="R19" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="T19" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="U19" s="21" t="s">
+      <c r="U19" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="V19" s="22" t="s">
+      <c r="V19" s="21" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>16.0</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <v>16.0</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="O20" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20" s="17">
         <v>16.0</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="Q20" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="S20" s="21" t="s">
+      <c r="S20" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="T20" s="21" t="s">
+      <c r="T20" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="U20" s="21" t="s">
+      <c r="U20" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="V20" s="22" t="s">
+      <c r="V20" s="21" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>17.0</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="17">
         <v>17.0</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="O21" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="17">
         <v>17.0</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="S21" s="21" t="s">
+      <c r="S21" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="T21" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="U21" s="21" t="s">
+      <c r="U21" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="V21" s="22" t="s">
+      <c r="V21" s="21" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>18.0</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="17">
         <v>18.0</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22" s="17">
         <v>18.0</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="Q22" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="R22" s="20" t="s">
+      <c r="R22" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="S22" s="21" t="s">
+      <c r="S22" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="T22" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="U22" s="21" t="s">
+      <c r="U22" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="V22" s="22" t="s">
+      <c r="V22" s="21" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>19.0</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="17">
         <v>19.0</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23" s="17">
         <v>19.0</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="R23" s="20" t="s">
+      <c r="R23" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="S23" s="21" t="s">
+      <c r="S23" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="T23" s="21" t="s">
+      <c r="T23" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="U23" s="21" t="s">
+      <c r="U23" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="V23" s="22" t="s">
+      <c r="V23" s="21" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>20.0</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="17">
         <v>20.0</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="O24" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="17">
         <v>20.0</v>
       </c>
-      <c r="Q24" s="23" t="s">
+      <c r="Q24" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="R24" s="20" t="s">
+      <c r="R24" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="S24" s="21" t="s">
+      <c r="S24" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="T24" s="21" t="s">
+      <c r="T24" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="U24" s="21" t="s">
+      <c r="U24" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="V24" s="22" t="s">
+      <c r="V24" s="21" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>21.0</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="17">
         <v>21.0</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="N25" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="O25" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="17">
         <v>21.0</v>
       </c>
-      <c r="Q25" s="23" t="s">
+      <c r="Q25" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="R25" s="20" t="s">
+      <c r="R25" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="S25" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="T25" s="21" t="s">
+      <c r="T25" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="U25" s="21" t="s">
+      <c r="U25" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="V25" s="22" t="s">
+      <c r="V25" s="21" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>22.0</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="17">
         <v>22.0</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="O26" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="P26" s="18">
+      <c r="P26" s="17">
         <v>22.0</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="Q26" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="R26" s="20" t="s">
+      <c r="R26" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="S26" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="T26" s="21" t="s">
+      <c r="T26" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="U26" s="21" t="s">
+      <c r="U26" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="V26" s="22" t="s">
+      <c r="V26" s="21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>23.0</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="17">
         <v>23.0</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="O27" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="P27" s="18">
+      <c r="P27" s="17">
         <v>23.0</v>
       </c>
-      <c r="Q27" s="23" t="s">
+      <c r="Q27" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="R27" s="20" t="s">
+      <c r="R27" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="S27" s="21" t="s">
+      <c r="S27" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="T27" s="21" t="s">
+      <c r="T27" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="U27" s="21" t="s">
+      <c r="U27" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="V27" s="22" t="s">
+      <c r="V27" s="21" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>24.0</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="17">
         <v>24.0</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="O28" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="P28" s="18">
+      <c r="P28" s="17">
         <v>24.0</v>
       </c>
-      <c r="Q28" s="23" t="s">
+      <c r="Q28" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="R28" s="20" t="s">
+      <c r="R28" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="S28" s="21" t="s">
+      <c r="S28" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="T28" s="21" t="s">
+      <c r="T28" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="U28" s="21" t="s">
+      <c r="U28" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="V28" s="22" t="s">
+      <c r="V28" s="21" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>25.0</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="17">
         <v>25.0</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="O29" s="24" t="s">
+      <c r="O29" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="17">
         <v>25.0</v>
       </c>
-      <c r="Q29" s="23" t="s">
+      <c r="Q29" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="R29" s="20" t="s">
+      <c r="R29" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="S29" s="21" t="s">
+      <c r="S29" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="T29" s="21" t="s">
+      <c r="T29" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="U29" s="21" t="s">
+      <c r="U29" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="V29" s="22" t="s">
+      <c r="V29" s="21" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="25">
+      <c r="B30" s="22">
         <v>26.0</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="22">
         <v>26.0</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="M30" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="N30" s="28" t="s">
+      <c r="N30" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="O30" s="31" t="s">
+      <c r="O30" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="P30" s="25">
+      <c r="P30" s="22">
         <v>26.0</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q30" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="R30" s="27" t="s">
+      <c r="R30" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="S30" s="28" t="s">
+      <c r="S30" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="T30" s="28" t="s">
+      <c r="T30" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="U30" s="28" t="s">
+      <c r="U30" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="V30" s="29" t="s">
+      <c r="V30" s="26" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L31" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="M31" s="35" t="s">
+      <c r="M31" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="N31" s="35" t="s">
+      <c r="N31" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="O31" s="38" t="s">
+      <c r="O31" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="P31" s="32" t="s">
+      <c r="P31" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="Q31" s="37" t="s">
+      <c r="Q31" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="R31" s="34" t="s">
+      <c r="R31" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="S31" s="35" t="s">
+      <c r="S31" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="T31" s="35" t="s">
+      <c r="T31" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="U31" s="35" t="s">
+      <c r="U31" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="V31" s="36" t="s">
+      <c r="V31" s="31" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P32" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="T32" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="U32" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="V32" s="34" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4563,337 +4591,576 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34">
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36" t="s">
         <v>523</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="40"/>
-      <c r="P34" s="2" t="s">
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="36" t="s">
         <v>524</v>
       </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="40"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="35"/>
     </row>
     <row r="35">
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="40"/>
-      <c r="P35" s="41" t="s">
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="40"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
     </row>
     <row r="36">
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40"/>
-      <c r="P36" s="42" t="s">
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="Q36" s="43" t="s">
+      <c r="Q36" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="40"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
     </row>
     <row r="37">
-      <c r="B37" s="44" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="P37" s="44" t="s">
+      <c r="E37" s="37"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="Q37" s="45" t="s">
+      <c r="Q37" s="43" t="s">
         <v>528</v>
       </c>
-      <c r="R37" s="43" t="s">
+      <c r="R37" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
     </row>
     <row r="38">
-      <c r="B38" s="44" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="42" t="s">
         <v>529</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="P38" s="44" t="s">
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="42" t="s">
         <v>531</v>
       </c>
-      <c r="Q38" s="46" t="s">
+      <c r="Q38" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="R38" s="45" t="s">
+      <c r="R38" s="43" t="s">
         <v>532</v>
       </c>
-      <c r="S38" s="43" t="s">
+      <c r="S38" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
     </row>
     <row r="39">
-      <c r="B39" s="44" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="43" t="s">
         <v>535</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="43"/>
-      <c r="P39" s="44" t="s">
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="42" t="s">
         <v>536</v>
       </c>
-      <c r="Q39" s="46" t="s">
+      <c r="Q39" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="R39" s="46" t="s">
+      <c r="R39" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="S39" s="45" t="s">
+      <c r="S39" s="43" t="s">
         <v>539</v>
       </c>
-      <c r="T39" s="43" t="s">
+      <c r="T39" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
     </row>
     <row r="40">
-      <c r="B40" s="44" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="42" t="s">
         <v>540</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="G40" s="43" t="s">
+      <c r="G40" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="43"/>
-      <c r="P40" s="44" t="s">
+      <c r="H40" s="38"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="42" t="s">
         <v>545</v>
       </c>
-      <c r="Q40" s="46" t="s">
+      <c r="Q40" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="R40" s="46" t="s">
+      <c r="R40" s="45" t="s">
         <v>547</v>
       </c>
-      <c r="S40" s="46" t="s">
+      <c r="S40" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="T40" s="45" t="s">
+      <c r="T40" s="47" t="s">
         <v>548</v>
       </c>
-      <c r="U40" s="43" t="s">
+      <c r="U40" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V40" s="40"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
+      <c r="AL40" s="35"/>
     </row>
     <row r="41">
-      <c r="B41" s="44" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="45" t="s">
         <v>551</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="47" t="s">
         <v>553</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="43"/>
-      <c r="P41" s="44" t="s">
+      <c r="I41" s="46"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="42" t="s">
         <v>554</v>
       </c>
-      <c r="Q41" s="46" t="s">
+      <c r="Q41" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="R41" s="46" t="s">
+      <c r="R41" s="45" t="s">
         <v>556</v>
       </c>
-      <c r="S41" s="46" t="s">
+      <c r="S41" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="T41" s="46" t="s">
+      <c r="T41" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="U41" s="45" t="s">
+      <c r="U41" s="47" t="s">
         <v>558</v>
       </c>
-      <c r="V41" s="43" t="s">
+      <c r="V41" s="41" t="s">
         <v>9</v>
       </c>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="35"/>
+      <c r="AL41" s="35"/>
     </row>
     <row r="42">
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="48" t="s">
         <v>559</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="49" t="s">
         <v>560</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="49" t="s">
+      <c r="H42" s="52" t="s">
         <v>563</v>
       </c>
-      <c r="I42" s="43"/>
-      <c r="P42" s="47" t="s">
+      <c r="I42" s="46"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="48" t="s">
         <v>564</v>
       </c>
-      <c r="Q42" s="48" t="s">
+      <c r="Q42" s="49" t="s">
         <v>565</v>
       </c>
-      <c r="R42" s="48" t="s">
+      <c r="R42" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="S42" s="48" t="s">
+      <c r="S42" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="T42" s="48" t="s">
+      <c r="T42" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="U42" s="48" t="s">
+      <c r="U42" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="V42" s="49" t="s">
+      <c r="V42" s="52" t="s">
         <v>569</v>
       </c>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="35"/>
+      <c r="AL42" s="35"/>
     </row>
     <row r="43">
-      <c r="B43" s="41" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="54" t="s">
         <v>518</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="54" t="s">
         <v>521</v>
       </c>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="55" t="s">
         <v>522</v>
       </c>
-      <c r="P43" s="41" t="s">
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="Q43" s="43" t="s">
+      <c r="Q43" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="R43" s="43" t="s">
+      <c r="R43" s="54" t="s">
         <v>518</v>
       </c>
-      <c r="S43" s="43" t="s">
+      <c r="S43" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="T43" s="43" t="s">
+      <c r="T43" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="U43" s="43" t="s">
+      <c r="U43" s="54" t="s">
         <v>521</v>
       </c>
-      <c r="V43" s="43" t="s">
+      <c r="V43" s="55" t="s">
         <v>522</v>
       </c>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="35"/>
+      <c r="AJ43" s="35"/>
+      <c r="AK43" s="35"/>
+      <c r="AL43" s="35"/>
     </row>
     <row r="45">
       <c r="B45" s="1"/>
